--- a/LibSets/2019-05-13_LibSets_SetData.xlsx
+++ b/LibSets/2019-05-13_LibSets_SetData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="2562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="2574">
   <si>
     <t>Balorgh</t>
   </si>
@@ -7695,9 +7695,6 @@
     <t>Sunspire</t>
   </si>
   <si>
-    <t>Sonnen?</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -7710,9 +7707,6 @@
     <t>TODO: Add Elsyweyr zone Ids</t>
   </si>
   <si>
-    <t>Sonnenturm</t>
-  </si>
-  <si>
     <t>Crafty Alfiq</t>
   </si>
   <si>
@@ -7723,6 +7717,48 @@
   </si>
   <si>
     <t>Overland</t>
+  </si>
+  <si>
+    <t>Senche-raht's Grit</t>
+  </si>
+  <si>
+    <t>Vastarie's Tutelage</t>
+  </si>
+  <si>
+    <t>Coldharbour's Favorite</t>
+  </si>
+  <si>
+    <t>Crafted</t>
+  </si>
+  <si>
+    <t>Sonnspitz</t>
+  </si>
+  <si>
+    <t>False God's Devotion</t>
+  </si>
+  <si>
+    <t>Eye of Nahviintaas</t>
+  </si>
+  <si>
+    <t>Tooth of Lokkestiiz</t>
+  </si>
+  <si>
+    <t>Claw of Yolnakhriin</t>
+  </si>
+  <si>
+    <t>Perfected False God's Devotion</t>
+  </si>
+  <si>
+    <t>Perfected Tooth of Lokkestiiz</t>
+  </si>
+  <si>
+    <t>Perfected Eye of Nahviintaas</t>
+  </si>
+  <si>
+    <t>Perfected Claw of Yolnakhriin</t>
+  </si>
+  <si>
+    <t>Trial</t>
   </si>
 </sst>
 </file>
@@ -8250,10 +8286,10 @@
   <dimension ref="A1:AC486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA373" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R396" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB382" sqref="AB382"/>
+      <selection pane="bottomRight" activeCell="W422" sqref="W422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38783,10 +38819,10 @@
     </row>
     <row r="409" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C409" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="I409" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="K409" t="s">
         <v>105</v>
@@ -38834,10 +38870,10 @@
     </row>
     <row r="410" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C410" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I410" t="s">
         <v>2559</v>
-      </c>
-      <c r="I410" t="s">
-        <v>2561</v>
       </c>
       <c r="K410" t="s">
         <v>105</v>
@@ -38885,10 +38921,10 @@
     </row>
     <row r="411" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C411" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="I411" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="K411" t="s">
         <v>105</v>
@@ -38935,13 +38971,34 @@
       </c>
     </row>
     <row r="412" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C412" t="s">
+        <v>2560</v>
+      </c>
+      <c r="I412" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K412" t="s">
+        <v>105</v>
+      </c>
+      <c r="L412" t="s">
+        <v>105</v>
+      </c>
+      <c r="P412" t="s">
+        <v>2552</v>
+      </c>
       <c r="Q412" s="3" t="str">
         <f>IF(R412&lt;&gt;"",VLOOKUP(R412,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
         <v/>
       </c>
+      <c r="R412" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="W412" s="3">
+        <v>14</v>
+      </c>
       <c r="X412" t="str">
         <f>VLOOKUP(W412,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y412" s="7" t="str">
         <f t="shared" si="30"/>
@@ -38957,7 +39014,7 @@
       </c>
       <c r="AB412" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Senche-raht's Grit / </v>
       </c>
       <c r="AC412" s="7" t="str">
         <f t="shared" si="34"/>
@@ -38965,13 +39022,34 @@
       </c>
     </row>
     <row r="413" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C413" t="s">
+        <v>2561</v>
+      </c>
+      <c r="I413" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K413" t="s">
+        <v>105</v>
+      </c>
+      <c r="L413" t="s">
+        <v>105</v>
+      </c>
+      <c r="P413" t="s">
+        <v>2552</v>
+      </c>
       <c r="Q413" s="3" t="str">
         <f>IF(R413&lt;&gt;"",VLOOKUP(R413,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
         <v/>
       </c>
+      <c r="R413" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="W413" s="3">
+        <v>14</v>
+      </c>
       <c r="X413" t="str">
         <f>VLOOKUP(W413,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y413" s="7" t="str">
         <f t="shared" si="30"/>
@@ -38987,7 +39065,7 @@
       </c>
       <c r="AB413" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Vastarie's Tutelage / </v>
       </c>
       <c r="AC413" s="7" t="str">
         <f t="shared" si="34"/>
@@ -38995,13 +39073,34 @@
       </c>
     </row>
     <row r="414" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C414" t="s">
+        <v>2562</v>
+      </c>
+      <c r="I414" t="s">
+        <v>2563</v>
+      </c>
+      <c r="K414" t="s">
+        <v>105</v>
+      </c>
+      <c r="L414" t="s">
+        <v>105</v>
+      </c>
+      <c r="P414" t="s">
+        <v>2552</v>
+      </c>
       <c r="Q414" s="3" t="str">
         <f>IF(R414&lt;&gt;"",VLOOKUP(R414,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
         <v/>
       </c>
+      <c r="R414" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="W414" s="3">
+        <v>14</v>
+      </c>
       <c r="X414" t="str">
         <f>VLOOKUP(W414,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y414" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39017,7 +39116,7 @@
       </c>
       <c r="AB414" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Coldharbour's Favorite / </v>
       </c>
       <c r="AC414" s="7" t="str">
         <f t="shared" si="34"/>
@@ -39025,13 +39124,31 @@
       </c>
     </row>
     <row r="415" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C415" t="s">
+        <v>2565</v>
+      </c>
+      <c r="I415" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K415" t="s">
+        <v>105</v>
+      </c>
+      <c r="L415" t="s">
+        <v>105</v>
+      </c>
       <c r="Q415" s="3" t="str">
         <f>IF(R415&lt;&gt;"",VLOOKUP(R415,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
         <v/>
       </c>
+      <c r="R415" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="W415" s="3">
+        <v>14</v>
+      </c>
       <c r="X415" t="str">
         <f>VLOOKUP(W415,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y415" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39047,7 +39164,7 @@
       </c>
       <c r="AB415" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --False God's Devotion / </v>
       </c>
       <c r="AC415" s="7" t="str">
         <f t="shared" si="34"/>
@@ -39055,13 +39172,31 @@
       </c>
     </row>
     <row r="416" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C416" t="s">
+        <v>2566</v>
+      </c>
+      <c r="I416" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K416" t="s">
+        <v>105</v>
+      </c>
+      <c r="L416" t="s">
+        <v>105</v>
+      </c>
       <c r="Q416" s="3" t="str">
         <f>IF(R416&lt;&gt;"",VLOOKUP(R416,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
         <v/>
       </c>
+      <c r="R416" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="W416" s="3">
+        <v>14</v>
+      </c>
       <c r="X416" t="str">
         <f>VLOOKUP(W416,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y416" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39077,21 +39212,39 @@
       </c>
       <c r="AB416" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Eye of Nahviintaas / </v>
       </c>
       <c r="AC416" s="7" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C417" t="s">
+        <v>2567</v>
+      </c>
+      <c r="I417" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K417" t="s">
+        <v>105</v>
+      </c>
+      <c r="L417" t="s">
+        <v>105</v>
+      </c>
       <c r="Q417" s="3" t="str">
         <f>IF(R417&lt;&gt;"",VLOOKUP(R417,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
         <v/>
       </c>
+      <c r="R417" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="W417" s="3">
+        <v>14</v>
+      </c>
       <c r="X417" t="str">
         <f>VLOOKUP(W417,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y417" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39107,17 +39260,39 @@
       </c>
       <c r="AB417" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Tooth of Lokkestiiz / </v>
       </c>
       <c r="AC417" s="7" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C418" t="s">
+        <v>2568</v>
+      </c>
+      <c r="I418" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K418" t="s">
+        <v>105</v>
+      </c>
+      <c r="L418" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q418" s="3" t="str">
+        <f>IF(R418&lt;&gt;"",VLOOKUP(R418,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R418" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="W418" s="3">
+        <v>14</v>
+      </c>
       <c r="X418" t="str">
         <f>VLOOKUP(W418,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y418" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39133,17 +39308,39 @@
       </c>
       <c r="AB418" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Claw of Yolnakhriin / </v>
       </c>
       <c r="AC418" s="7" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C419" t="s">
+        <v>2569</v>
+      </c>
+      <c r="I419" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K419" t="s">
+        <v>106</v>
+      </c>
+      <c r="L419" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q419" s="3" t="str">
+        <f>IF(R419&lt;&gt;"",VLOOKUP(R419,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R419" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="W419" s="3">
+        <v>14</v>
+      </c>
       <c r="X419" t="str">
         <f>VLOOKUP(W419,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y419" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39159,17 +39356,39 @@
       </c>
       <c r="AB419" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Perfected False God's Devotion / </v>
       </c>
       <c r="AC419" s="7" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C420" t="s">
+        <v>2570</v>
+      </c>
+      <c r="I420" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K420" t="s">
+        <v>106</v>
+      </c>
+      <c r="L420" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q420" s="3" t="str">
+        <f>IF(R420&lt;&gt;"",VLOOKUP(R420,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R420" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="W420" s="3">
+        <v>14</v>
+      </c>
       <c r="X420" t="str">
         <f>VLOOKUP(W420,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y420" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39185,17 +39404,39 @@
       </c>
       <c r="AB420" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Perfected Tooth of Lokkestiiz / </v>
       </c>
       <c r="AC420" s="7" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C421" t="s">
+        <v>2571</v>
+      </c>
+      <c r="I421" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K421" t="s">
+        <v>106</v>
+      </c>
+      <c r="L421" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q421" s="3" t="str">
+        <f>IF(R421&lt;&gt;"",VLOOKUP(R421,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R421" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="W421" s="3">
+        <v>14</v>
+      </c>
       <c r="X421" t="str">
         <f>VLOOKUP(W421,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y421" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39211,17 +39452,39 @@
       </c>
       <c r="AB421" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Perfected Eye of Nahviintaas / </v>
       </c>
       <c r="AC421" s="7" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C422" t="s">
+        <v>2572</v>
+      </c>
+      <c r="I422" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K422" t="s">
+        <v>106</v>
+      </c>
+      <c r="L422" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q422" s="3" t="str">
+        <f>IF(R422&lt;&gt;"",VLOOKUP(R422,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="R422" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="W422" s="3">
+        <v>14</v>
+      </c>
       <c r="X422" t="str">
         <f>VLOOKUP(W422,'LibSets constants'!$A$2:$B$16,2,FALSE)</f>
-        <v>Included in base game</v>
+        <v>Elsweyr</v>
       </c>
       <c r="Y422" s="7" t="str">
         <f t="shared" si="30"/>
@@ -39237,14 +39500,18 @@
       </c>
       <c r="AB422" s="7" t="str">
         <f t="shared" si="33"/>
-        <v/>
+        <v xml:space="preserve"> --Perfected Claw of Yolnakhriin / </v>
       </c>
       <c r="AC422" s="7" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q423" s="3" t="str">
+        <f>IF(R423&lt;&gt;"",VLOOKUP(R423,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y423" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39266,7 +39533,11 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q424" s="3" t="str">
+        <f>IF(R424&lt;&gt;"",VLOOKUP(R424,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y424" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39288,7 +39559,11 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q425" s="3" t="str">
+        <f>IF(R425&lt;&gt;"",VLOOKUP(R425,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y425" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39310,7 +39585,11 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q426" s="3" t="str">
+        <f>IF(R426&lt;&gt;"",VLOOKUP(R426,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y426" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39332,7 +39611,11 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q427" s="3" t="str">
+        <f>IF(R427&lt;&gt;"",VLOOKUP(R427,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y427" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39354,7 +39637,11 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q428" s="3" t="str">
+        <f>IF(R428&lt;&gt;"",VLOOKUP(R428,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y428" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39376,7 +39663,11 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q429" s="3" t="str">
+        <f>IF(R429&lt;&gt;"",VLOOKUP(R429,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y429" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39398,7 +39689,11 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q430" s="3" t="str">
+        <f>IF(R430&lt;&gt;"",VLOOKUP(R430,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y430" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39420,7 +39715,11 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q431" s="3" t="str">
+        <f>IF(R431&lt;&gt;"",VLOOKUP(R431,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y431" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39442,7 +39741,11 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="Q432" s="3" t="str">
+        <f>IF(R432&lt;&gt;"",VLOOKUP(R432,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y432" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39464,7 +39767,11 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="433" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q433" s="3" t="str">
+        <f>IF(R433&lt;&gt;"",VLOOKUP(R433,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y433" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39486,7 +39793,11 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="434" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q434" s="3" t="str">
+        <f>IF(R434&lt;&gt;"",VLOOKUP(R434,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y434" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39508,7 +39819,11 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="435" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q435" s="3" t="str">
+        <f>IF(R435&lt;&gt;"",VLOOKUP(R435,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y435" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39530,7 +39845,11 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="436" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q436" s="3" t="str">
+        <f>IF(R436&lt;&gt;"",VLOOKUP(R436,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y436" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39552,7 +39871,11 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="437" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q437" s="3" t="str">
+        <f>IF(R437&lt;&gt;"",VLOOKUP(R437,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y437" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39574,7 +39897,11 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="438" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q438" s="3" t="str">
+        <f>IF(R438&lt;&gt;"",VLOOKUP(R438,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y438" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39596,7 +39923,11 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="439" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q439" s="3" t="str">
+        <f>IF(R439&lt;&gt;"",VLOOKUP(R439,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y439" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39618,7 +39949,11 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="440" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q440" s="3" t="str">
+        <f>IF(R440&lt;&gt;"",VLOOKUP(R440,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y440" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39640,7 +39975,11 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="441" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q441" s="3" t="str">
+        <f>IF(R441&lt;&gt;"",VLOOKUP(R441,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y441" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39662,7 +40001,11 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="442" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q442" s="3" t="str">
+        <f>IF(R442&lt;&gt;"",VLOOKUP(R442,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y442" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39684,7 +40027,11 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="443" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q443" s="3" t="str">
+        <f>IF(R443&lt;&gt;"",VLOOKUP(R443,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y443" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39706,7 +40053,11 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="444" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q444" s="3" t="str">
+        <f>IF(R444&lt;&gt;"",VLOOKUP(R444,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y444" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39728,7 +40079,11 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="445" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q445" s="3" t="str">
+        <f>IF(R445&lt;&gt;"",VLOOKUP(R445,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y445" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39750,7 +40105,11 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="446" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q446" s="3" t="str">
+        <f>IF(R446&lt;&gt;"",VLOOKUP(R446,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y446" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39772,7 +40131,11 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="447" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q447" s="3" t="str">
+        <f>IF(R447&lt;&gt;"",VLOOKUP(R447,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y447" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -39794,7 +40157,11 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="448" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q448" s="3" t="str">
+        <f>IF(R448&lt;&gt;"",VLOOKUP(R448,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y448" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -40487,7 +40854,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40503,7 +40870,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -42557,7 +42924,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>2548</v>
@@ -42585,7 +42952,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>2549</v>
@@ -42613,7 +42980,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>497</v>
@@ -42641,7 +43008,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>747</v>
@@ -42669,7 +43036,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>835</v>
@@ -42697,7 +43064,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>2550</v>
@@ -42725,7 +43092,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1194</v>
@@ -42753,10 +43120,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2552</v>
+        <v>2564</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2551</v>
@@ -42781,7 +43148,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>2548</v>
@@ -42809,7 +43176,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>2549</v>
@@ -42837,7 +43204,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>497</v>
@@ -42865,7 +43232,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>747</v>
@@ -42893,7 +43260,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>835</v>
@@ -42921,7 +43288,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2550</v>
@@ -42949,7 +43316,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>1194</v>
@@ -42977,10 +43344,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2557</v>
+        <v>2564</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2551</v>
@@ -43025,10 +43392,10 @@
   <dimension ref="A1:L718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D547" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J221" sqref="J221"/>
+      <selection pane="bottomRight" activeCell="D563" sqref="D563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43048,7 +43415,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -52037,13 +52404,13 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>1395</v>
@@ -66046,16 +66413,16 @@
     </row>
     <row r="563" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="27" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B563" s="27" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C563" s="27" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D563" s="28" t="s">
-        <v>2557</v>
+        <v>2564</v>
       </c>
       <c r="E563" s="28" t="s">
         <v>2551</v>

--- a/LibSets/2019-05-13_LibSets_SetData.xlsx
+++ b/LibSets/2019-05-13_LibSets_SetData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4180" uniqueCount="2575">
   <si>
     <t>Balorgh</t>
   </si>
@@ -7759,6 +7759,9 @@
   </si>
   <si>
     <t>Trial</t>
+  </si>
+  <si>
+    <t>Dungeon</t>
   </si>
 </sst>
 </file>
@@ -8286,10 +8289,10 @@
   <dimension ref="A1:AC486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="R396" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W422" sqref="W422"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8445,15 +8448,15 @@
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="str">
-        <f>IF(R2&lt;&gt;"",VLOOKUP(R2,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R2&lt;&gt;"",VLOOKUP(R2,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S2" s="3" t="str">
-        <f>IF(T2&lt;&gt;"",VLOOKUP(T2,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T2&lt;&gt;"",VLOOKUP(T2,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U2" s="3" t="str">
-        <f>IF(V2&lt;&gt;"",VLOOKUP(V2,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V2&lt;&gt;"",VLOOKUP(V2,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W2" s="3">
@@ -8520,15 +8523,15 @@
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f>IF(R3&lt;&gt;"",VLOOKUP(R3,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R3&lt;&gt;"",VLOOKUP(R3,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S3" s="3" t="str">
-        <f>IF(T3&lt;&gt;"",VLOOKUP(T3,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T3&lt;&gt;"",VLOOKUP(T3,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U3" s="3" t="str">
-        <f>IF(V3&lt;&gt;"",VLOOKUP(V3,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V3&lt;&gt;"",VLOOKUP(V3,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W3" s="3">
@@ -8595,15 +8598,15 @@
         <v>0</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f>IF(R4&lt;&gt;"",VLOOKUP(R4,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R4&lt;&gt;"",VLOOKUP(R4,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S4" s="3" t="str">
-        <f>IF(T4&lt;&gt;"",VLOOKUP(T4,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T4&lt;&gt;"",VLOOKUP(T4,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U4" s="3" t="str">
-        <f>IF(V4&lt;&gt;"",VLOOKUP(V4,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V4&lt;&gt;"",VLOOKUP(V4,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W4" s="3">
@@ -8669,19 +8672,19 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" s="3" t="str">
-        <f>IF(R5&lt;&gt;"",VLOOKUP(R5,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Gold Coast</v>
+      <c r="Q5" s="3">
+        <f>IF(R5&lt;&gt;"",VLOOKUP(R5,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1081</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S5" s="3" t="str">
-        <f>IF(T5&lt;&gt;"",VLOOKUP(T5,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T5&lt;&gt;"",VLOOKUP(T5,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U5" s="3" t="str">
-        <f>IF(V5&lt;&gt;"",VLOOKUP(V5,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V5&lt;&gt;"",VLOOKUP(V5,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W5" s="3">
@@ -8697,7 +8700,7 @@
       </c>
       <c r="Z5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Gold Coast}, veteran=false</v>
+        <v>, zoneIds={1081}, veteran=false</v>
       </c>
       <c r="AA5" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8747,19 +8750,19 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" s="3" t="str">
-        <f>IF(R6&lt;&gt;"",VLOOKUP(R6,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Glenumbra</v>
+      <c r="Q6" s="3">
+        <f>IF(R6&lt;&gt;"",VLOOKUP(R6,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>144</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>66</v>
       </c>
       <c r="S6" s="3" t="str">
-        <f>IF(T6&lt;&gt;"",VLOOKUP(T6,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T6&lt;&gt;"",VLOOKUP(T6,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U6" s="3" t="str">
-        <f>IF(V6&lt;&gt;"",VLOOKUP(V6,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V6&lt;&gt;"",VLOOKUP(V6,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W6" s="3">
@@ -8775,7 +8778,7 @@
       </c>
       <c r="Z6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Glenumbra}, veteran=false</v>
+        <v>, zoneIds={144}, veteran=false</v>
       </c>
       <c r="AA6" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8825,19 +8828,19 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7" s="3" t="str">
-        <f>IF(R7&lt;&gt;"",VLOOKUP(R7,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Shadowfen</v>
+      <c r="Q7" s="3">
+        <f>IF(R7&lt;&gt;"",VLOOKUP(R7,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>843</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="S7" s="3" t="str">
-        <f>IF(T7&lt;&gt;"",VLOOKUP(T7,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T7&lt;&gt;"",VLOOKUP(T7,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U7" s="3" t="str">
-        <f>IF(V7&lt;&gt;"",VLOOKUP(V7,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V7&lt;&gt;"",VLOOKUP(V7,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W7" s="3">
@@ -8853,7 +8856,7 @@
       </c>
       <c r="Z7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Shadowfen}, veteran=false</v>
+        <v>, zoneIds={843}, veteran=false</v>
       </c>
       <c r="AA7" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8903,19 +8906,19 @@
       <c r="P8">
         <v>5</v>
       </c>
-      <c r="Q8" s="3" t="str">
-        <f>IF(R8&lt;&gt;"",VLOOKUP(R8,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>The Rift</v>
+      <c r="Q8" s="3">
+        <f>IF(R8&lt;&gt;"",VLOOKUP(R8,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>64</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S8" s="3" t="str">
-        <f>IF(T8&lt;&gt;"",VLOOKUP(T8,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T8&lt;&gt;"",VLOOKUP(T8,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U8" s="3" t="str">
-        <f>IF(V8&lt;&gt;"",VLOOKUP(V8,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V8&lt;&gt;"",VLOOKUP(V8,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W8" s="3">
@@ -8931,7 +8934,7 @@
       </c>
       <c r="Z8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={The Rift}, veteran=false</v>
+        <v>, zoneIds={64}, veteran=false</v>
       </c>
       <c r="AA8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8981,19 +8984,19 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="str">
-        <f>IF(R9&lt;&gt;"",VLOOKUP(R9,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Reaper's March</v>
+      <c r="Q9" s="3">
+        <f>IF(R9&lt;&gt;"",VLOOKUP(R9,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1052</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>73</v>
       </c>
       <c r="S9" s="3" t="str">
-        <f>IF(T9&lt;&gt;"",VLOOKUP(T9,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T9&lt;&gt;"",VLOOKUP(T9,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U9" s="3" t="str">
-        <f>IF(V9&lt;&gt;"",VLOOKUP(V9,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V9&lt;&gt;"",VLOOKUP(V9,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W9" s="3">
@@ -9009,7 +9012,7 @@
       </c>
       <c r="Z9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Reaper's March}, veteran=false</v>
+        <v>, zoneIds={1052}, veteran=false</v>
       </c>
       <c r="AA9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9059,19 +9062,19 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" s="3" t="str">
-        <f>IF(R10&lt;&gt;"",VLOOKUP(R10,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q10" s="3">
+        <f>IF(R10&lt;&gt;"",VLOOKUP(R10,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>974</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S10" s="3" t="str">
-        <f>IF(T10&lt;&gt;"",VLOOKUP(T10,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T10&lt;&gt;"",VLOOKUP(T10,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U10" s="3" t="str">
-        <f>IF(V10&lt;&gt;"",VLOOKUP(V10,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V10&lt;&gt;"",VLOOKUP(V10,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W10" s="3">
@@ -9087,7 +9090,7 @@
       </c>
       <c r="Z10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Craglorn}, veteran=false</v>
+        <v>, zoneIds={974}, veteran=false</v>
       </c>
       <c r="AA10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9136,19 +9139,19 @@
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11" s="3" t="str">
-        <f>IF(R11&lt;&gt;"",VLOOKUP(R11,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Gold Coast</v>
+      <c r="Q11" s="3">
+        <f>IF(R11&lt;&gt;"",VLOOKUP(R11,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1081</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S11" s="3" t="str">
-        <f>IF(T11&lt;&gt;"",VLOOKUP(T11,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T11&lt;&gt;"",VLOOKUP(T11,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U11" s="3" t="str">
-        <f>IF(V11&lt;&gt;"",VLOOKUP(V11,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V11&lt;&gt;"",VLOOKUP(V11,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W11" s="3">
@@ -9164,7 +9167,7 @@
       </c>
       <c r="Z11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Gold Coast}, veteran=false</v>
+        <v>, zoneIds={1081}, veteran=false</v>
       </c>
       <c r="AA11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9214,19 +9217,19 @@
       <c r="P12">
         <v>9</v>
       </c>
-      <c r="Q12" s="3" t="str">
-        <f>IF(R12&lt;&gt;"",VLOOKUP(R12,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Shadowfen</v>
+      <c r="Q12" s="3">
+        <f>IF(R12&lt;&gt;"",VLOOKUP(R12,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>843</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>53</v>
       </c>
       <c r="S12" s="3" t="str">
-        <f>IF(T12&lt;&gt;"",VLOOKUP(T12,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T12&lt;&gt;"",VLOOKUP(T12,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U12" s="3" t="str">
-        <f>IF(V12&lt;&gt;"",VLOOKUP(V12,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V12&lt;&gt;"",VLOOKUP(V12,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W12" s="3">
@@ -9242,7 +9245,7 @@
       </c>
       <c r="Z12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Shadowfen}, veteran=false</v>
+        <v>, zoneIds={843}, veteran=false</v>
       </c>
       <c r="AA12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9292,19 +9295,19 @@
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q13" s="3" t="str">
-        <f>IF(R13&lt;&gt;"",VLOOKUP(R13,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Rivenspire</v>
+      <c r="Q13" s="3">
+        <f>IF(R13&lt;&gt;"",VLOOKUP(R13,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>130</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S13" s="3" t="str">
-        <f>IF(T13&lt;&gt;"",VLOOKUP(T13,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T13&lt;&gt;"",VLOOKUP(T13,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U13" s="3" t="str">
-        <f>IF(V13&lt;&gt;"",VLOOKUP(V13,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V13&lt;&gt;"",VLOOKUP(V13,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W13" s="3">
@@ -9320,7 +9323,7 @@
       </c>
       <c r="Z13" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Rivenspire}, veteran=false</v>
+        <v>, zoneIds={130}, veteran=false</v>
       </c>
       <c r="AA13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9370,19 +9373,19 @@
       <c r="P14">
         <v>3</v>
       </c>
-      <c r="Q14" s="3" t="str">
-        <f>IF(R14&lt;&gt;"",VLOOKUP(R14,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Coldharbour</v>
+      <c r="Q14" s="3">
+        <f>IF(R14&lt;&gt;"",VLOOKUP(R14,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>11</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="S14" s="3" t="str">
-        <f>IF(T14&lt;&gt;"",VLOOKUP(T14,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T14&lt;&gt;"",VLOOKUP(T14,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U14" s="3" t="str">
-        <f>IF(V14&lt;&gt;"",VLOOKUP(V14,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V14&lt;&gt;"",VLOOKUP(V14,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W14" s="3">
@@ -9398,7 +9401,7 @@
       </c>
       <c r="Z14" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Coldharbour}, veteran=false</v>
+        <v>, zoneIds={11}, veteran=false</v>
       </c>
       <c r="AA14" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9448,19 +9451,19 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="str">
-        <f>IF(R15&lt;&gt;"",VLOOKUP(R15,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Gold Coast</v>
+      <c r="Q15" s="3">
+        <f>IF(R15&lt;&gt;"",VLOOKUP(R15,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1081</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S15" s="3" t="str">
-        <f>IF(T15&lt;&gt;"",VLOOKUP(T15,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T15&lt;&gt;"",VLOOKUP(T15,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U15" s="3" t="str">
-        <f>IF(V15&lt;&gt;"",VLOOKUP(V15,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V15&lt;&gt;"",VLOOKUP(V15,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W15" s="3">
@@ -9476,7 +9479,7 @@
       </c>
       <c r="Z15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Gold Coast}, veteran=false</v>
+        <v>, zoneIds={1081}, veteran=false</v>
       </c>
       <c r="AA15" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9526,19 +9529,19 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16" s="3" t="str">
-        <f>IF(R16&lt;&gt;"",VLOOKUP(R16,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Grahtwood</v>
+      <c r="Q16" s="3">
+        <f>IF(R16&lt;&gt;"",VLOOKUP(R16,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>126</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="S16" s="3" t="str">
-        <f>IF(T16&lt;&gt;"",VLOOKUP(T16,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T16&lt;&gt;"",VLOOKUP(T16,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U16" s="3" t="str">
-        <f>IF(V16&lt;&gt;"",VLOOKUP(V16,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V16&lt;&gt;"",VLOOKUP(V16,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W16" s="3">
@@ -9554,7 +9557,7 @@
       </c>
       <c r="Z16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Grahtwood}, veteran=false</v>
+        <v>, zoneIds={126}, veteran=false</v>
       </c>
       <c r="AA16" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9604,19 +9607,19 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="str">
-        <f>IF(R17&lt;&gt;"",VLOOKUP(R17,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Bangkorai</v>
+      <c r="Q17" s="3">
+        <f>IF(R17&lt;&gt;"",VLOOKUP(R17,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>38</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="S17" s="3" t="str">
-        <f>IF(T17&lt;&gt;"",VLOOKUP(T17,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T17&lt;&gt;"",VLOOKUP(T17,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U17" s="3" t="str">
-        <f>IF(V17&lt;&gt;"",VLOOKUP(V17,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V17&lt;&gt;"",VLOOKUP(V17,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W17" s="3">
@@ -9632,7 +9635,7 @@
       </c>
       <c r="Z17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Bangkorai}, veteran=false</v>
+        <v>, zoneIds={38}, veteran=false</v>
       </c>
       <c r="AA17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9682,19 +9685,19 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="str">
-        <f>IF(R18&lt;&gt;"",VLOOKUP(R18,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Stormhaven</v>
+      <c r="Q18" s="3">
+        <f>IF(R18&lt;&gt;"",VLOOKUP(R18,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1010</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S18" s="3" t="str">
-        <f>IF(T18&lt;&gt;"",VLOOKUP(T18,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T18&lt;&gt;"",VLOOKUP(T18,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U18" s="3" t="str">
-        <f>IF(V18&lt;&gt;"",VLOOKUP(V18,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V18&lt;&gt;"",VLOOKUP(V18,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W18" s="3">
@@ -9710,7 +9713,7 @@
       </c>
       <c r="Z18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Stormhaven}, veteran=false</v>
+        <v>, zoneIds={1010}, veteran=false</v>
       </c>
       <c r="AA18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9760,19 +9763,19 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" s="3" t="str">
-        <f>IF(R19&lt;&gt;"",VLOOKUP(R19,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Deshaan</v>
+      <c r="Q19" s="3">
+        <f>IF(R19&lt;&gt;"",VLOOKUP(R19,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>63</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="S19" s="3" t="str">
-        <f>IF(T19&lt;&gt;"",VLOOKUP(T19,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T19&lt;&gt;"",VLOOKUP(T19,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U19" s="3" t="str">
-        <f>IF(V19&lt;&gt;"",VLOOKUP(V19,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V19&lt;&gt;"",VLOOKUP(V19,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W19" s="3">
@@ -9788,7 +9791,7 @@
       </c>
       <c r="Z19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Deshaan}, veteran=false</v>
+        <v>, zoneIds={63}, veteran=false</v>
       </c>
       <c r="AA19" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9838,19 +9841,19 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="str">
-        <f>IF(R20&lt;&gt;"",VLOOKUP(R20,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Greenshade</v>
+      <c r="Q20" s="3">
+        <f>IF(R20&lt;&gt;"",VLOOKUP(R20,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1055</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>41</v>
       </c>
       <c r="S20" s="3" t="str">
-        <f>IF(T20&lt;&gt;"",VLOOKUP(T20,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T20&lt;&gt;"",VLOOKUP(T20,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U20" s="3" t="str">
-        <f>IF(V20&lt;&gt;"",VLOOKUP(V20,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V20&lt;&gt;"",VLOOKUP(V20,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W20" s="3">
@@ -9866,7 +9869,7 @@
       </c>
       <c r="Z20" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Greenshade}, veteran=false</v>
+        <v>, zoneIds={1055}, veteran=false</v>
       </c>
       <c r="AA20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9916,19 +9919,19 @@
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" s="3" t="str">
-        <f>IF(R21&lt;&gt;"",VLOOKUP(R21,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Alik'r Desert</v>
+      <c r="Q21" s="3">
+        <f>IF(R21&lt;&gt;"",VLOOKUP(R21,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>22</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="S21" s="3" t="str">
-        <f>IF(T21&lt;&gt;"",VLOOKUP(T21,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T21&lt;&gt;"",VLOOKUP(T21,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U21" s="3" t="str">
-        <f>IF(V21&lt;&gt;"",VLOOKUP(V21,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V21&lt;&gt;"",VLOOKUP(V21,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W21" s="3">
@@ -9944,7 +9947,7 @@
       </c>
       <c r="Z21" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Alik'r Desert}, veteran=false</v>
+        <v>, zoneIds={22}, veteran=false</v>
       </c>
       <c r="AA21" s="7" t="str">
         <f t="shared" si="2"/>
@@ -9994,19 +9997,19 @@
       <c r="P22">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="str">
-        <f>IF(R22&lt;&gt;"",VLOOKUP(R22,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Reaper's March</v>
+      <c r="Q22" s="3">
+        <f>IF(R22&lt;&gt;"",VLOOKUP(R22,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>31</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>59</v>
       </c>
       <c r="S22" s="3" t="str">
-        <f>IF(T22&lt;&gt;"",VLOOKUP(T22,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T22&lt;&gt;"",VLOOKUP(T22,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U22" s="3" t="str">
-        <f>IF(V22&lt;&gt;"",VLOOKUP(V22,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V22&lt;&gt;"",VLOOKUP(V22,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W22" s="3">
@@ -10022,7 +10025,7 @@
       </c>
       <c r="Z22" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Reaper's March}, veteran=false</v>
+        <v>, zoneIds={31}, veteran=false</v>
       </c>
       <c r="AA22" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10072,19 +10075,19 @@
       <c r="P23">
         <v>3</v>
       </c>
-      <c r="Q23" s="3" t="str">
-        <f>IF(R23&lt;&gt;"",VLOOKUP(R23,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Bangkorai</v>
+      <c r="Q23" s="3">
+        <f>IF(R23&lt;&gt;"",VLOOKUP(R23,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1009</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>69</v>
       </c>
       <c r="S23" s="3" t="str">
-        <f>IF(T23&lt;&gt;"",VLOOKUP(T23,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T23&lt;&gt;"",VLOOKUP(T23,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U23" s="3" t="str">
-        <f>IF(V23&lt;&gt;"",VLOOKUP(V23,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V23&lt;&gt;"",VLOOKUP(V23,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W23" s="3">
@@ -10100,7 +10103,7 @@
       </c>
       <c r="Z23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Bangkorai}, veteran=false</v>
+        <v>, zoneIds={1009}, veteran=false</v>
       </c>
       <c r="AA23" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10150,19 +10153,19 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="str">
-        <f>IF(R24&lt;&gt;"",VLOOKUP(R24,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Shadowfen</v>
+      <c r="Q24" s="3">
+        <f>IF(R24&lt;&gt;"",VLOOKUP(R24,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>848</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S24" s="3" t="str">
-        <f>IF(T24&lt;&gt;"",VLOOKUP(T24,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T24&lt;&gt;"",VLOOKUP(T24,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U24" s="3" t="str">
-        <f>IF(V24&lt;&gt;"",VLOOKUP(V24,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V24&lt;&gt;"",VLOOKUP(V24,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W24" s="3">
@@ -10178,7 +10181,7 @@
       </c>
       <c r="Z24" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Shadowfen}, veteran=false</v>
+        <v>, zoneIds={848}, veteran=false</v>
       </c>
       <c r="AA24" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10228,19 +10231,19 @@
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25" s="3" t="str">
-        <f>IF(R25&lt;&gt;"",VLOOKUP(R25,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Malabal Tor</v>
+      <c r="Q25" s="3">
+        <f>IF(R25&lt;&gt;"",VLOOKUP(R25,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>131</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="S25" s="3" t="str">
-        <f>IF(T25&lt;&gt;"",VLOOKUP(T25,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T25&lt;&gt;"",VLOOKUP(T25,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U25" s="3" t="str">
-        <f>IF(V25&lt;&gt;"",VLOOKUP(V25,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V25&lt;&gt;"",VLOOKUP(V25,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W25" s="3">
@@ -10256,7 +10259,7 @@
       </c>
       <c r="Z25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Malabal Tor}, veteran=false</v>
+        <v>, zoneIds={131}, veteran=false</v>
       </c>
       <c r="AA25" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10306,19 +10309,19 @@
       <c r="P26">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="str">
-        <f>IF(R26&lt;&gt;"",VLOOKUP(R26,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Eastmarch</v>
+      <c r="Q26" s="3">
+        <f>IF(R26&lt;&gt;"",VLOOKUP(R26,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>449</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S26" s="3" t="str">
-        <f>IF(T26&lt;&gt;"",VLOOKUP(T26,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T26&lt;&gt;"",VLOOKUP(T26,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U26" s="3" t="str">
-        <f>IF(V26&lt;&gt;"",VLOOKUP(V26,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V26&lt;&gt;"",VLOOKUP(V26,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W26" s="3">
@@ -10334,7 +10337,7 @@
       </c>
       <c r="Z26" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Eastmarch}, veteran=false</v>
+        <v>, zoneIds={449}, veteran=false</v>
       </c>
       <c r="AA26" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10387,19 +10390,19 @@
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="str">
-        <f>IF(R27&lt;&gt;"",VLOOKUP(R27,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q27" s="3">
+        <f>IF(R27&lt;&gt;"",VLOOKUP(R27,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>973</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>45</v>
       </c>
       <c r="S27" s="3" t="str">
-        <f>IF(T27&lt;&gt;"",VLOOKUP(T27,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T27&lt;&gt;"",VLOOKUP(T27,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U27" s="3" t="str">
-        <f>IF(V27&lt;&gt;"",VLOOKUP(V27,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V27&lt;&gt;"",VLOOKUP(V27,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W27" s="3">
@@ -10415,7 +10418,7 @@
       </c>
       <c r="Z27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Craglorn}, veteran={EQUIP_TYPE_HEAD=true, EQUIP_TYPE_SHOULDERS=false}</v>
+        <v>, zoneIds={973}, veteran={EQUIP_TYPE_HEAD=true, EQUIP_TYPE_SHOULDERS=false}</v>
       </c>
       <c r="AA27" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10465,19 +10468,19 @@
       <c r="P28">
         <v>0</v>
       </c>
-      <c r="Q28" s="3" t="str">
-        <f>IF(R28&lt;&gt;"",VLOOKUP(R28,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Shadowfen</v>
+      <c r="Q28" s="3">
+        <f>IF(R28&lt;&gt;"",VLOOKUP(R28,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>848</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S28" s="3" t="str">
-        <f>IF(T28&lt;&gt;"",VLOOKUP(T28,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T28&lt;&gt;"",VLOOKUP(T28,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U28" s="3" t="str">
-        <f>IF(V28&lt;&gt;"",VLOOKUP(V28,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V28&lt;&gt;"",VLOOKUP(V28,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W28" s="3">
@@ -10493,7 +10496,7 @@
       </c>
       <c r="Z28" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Shadowfen}, veteran=false</v>
+        <v>, zoneIds={848}, veteran=false</v>
       </c>
       <c r="AA28" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10543,19 +10546,19 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="str">
-        <f>IF(R29&lt;&gt;"",VLOOKUP(R29,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Eastmarch</v>
+      <c r="Q29" s="3">
+        <f>IF(R29&lt;&gt;"",VLOOKUP(R29,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1080</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>64</v>
       </c>
       <c r="S29" s="3" t="str">
-        <f>IF(T29&lt;&gt;"",VLOOKUP(T29,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T29&lt;&gt;"",VLOOKUP(T29,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U29" s="3" t="str">
-        <f>IF(V29&lt;&gt;"",VLOOKUP(V29,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V29&lt;&gt;"",VLOOKUP(V29,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W29" s="3">
@@ -10571,7 +10574,7 @@
       </c>
       <c r="Z29" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Eastmarch}, veteran=false</v>
+        <v>, zoneIds={1080}, veteran=false</v>
       </c>
       <c r="AA29" s="7" t="str">
         <f t="shared" si="2"/>
@@ -10622,15 +10625,15 @@
         <v>0</v>
       </c>
       <c r="Q30" s="3" t="str">
-        <f>IF(R30&lt;&gt;"",VLOOKUP(R30,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R30&lt;&gt;"",VLOOKUP(R30,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S30" s="3" t="str">
-        <f>IF(T30&lt;&gt;"",VLOOKUP(T30,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T30&lt;&gt;"",VLOOKUP(T30,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U30" s="3" t="str">
-        <f>IF(V30&lt;&gt;"",VLOOKUP(V30,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V30&lt;&gt;"",VLOOKUP(V30,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W30" s="3">
@@ -10697,15 +10700,15 @@
         <v>0</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f>IF(R31&lt;&gt;"",VLOOKUP(R31,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R31&lt;&gt;"",VLOOKUP(R31,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S31" s="3" t="str">
-        <f>IF(T31&lt;&gt;"",VLOOKUP(T31,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T31&lt;&gt;"",VLOOKUP(T31,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U31" s="3" t="str">
-        <f>IF(V31&lt;&gt;"",VLOOKUP(V31,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V31&lt;&gt;"",VLOOKUP(V31,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W31" s="3">
@@ -10772,15 +10775,15 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f>IF(R32&lt;&gt;"",VLOOKUP(R32,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R32&lt;&gt;"",VLOOKUP(R32,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S32" s="3" t="str">
-        <f>IF(T32&lt;&gt;"",VLOOKUP(T32,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T32&lt;&gt;"",VLOOKUP(T32,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U32" s="3" t="str">
-        <f>IF(V32&lt;&gt;"",VLOOKUP(V32,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V32&lt;&gt;"",VLOOKUP(V32,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W32" s="3">
@@ -10847,15 +10850,15 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f>IF(R33&lt;&gt;"",VLOOKUP(R33,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R33&lt;&gt;"",VLOOKUP(R33,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S33" s="3" t="str">
-        <f>IF(T33&lt;&gt;"",VLOOKUP(T33,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T33&lt;&gt;"",VLOOKUP(T33,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U33" s="3" t="str">
-        <f>IF(V33&lt;&gt;"",VLOOKUP(V33,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V33&lt;&gt;"",VLOOKUP(V33,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W33" s="3">
@@ -10922,15 +10925,15 @@
         <v>0</v>
       </c>
       <c r="Q34" s="3" t="str">
-        <f>IF(R34&lt;&gt;"",VLOOKUP(R34,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R34&lt;&gt;"",VLOOKUP(R34,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S34" s="3" t="str">
-        <f>IF(T34&lt;&gt;"",VLOOKUP(T34,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T34&lt;&gt;"",VLOOKUP(T34,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U34" s="3" t="str">
-        <f>IF(V34&lt;&gt;"",VLOOKUP(V34,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V34&lt;&gt;"",VLOOKUP(V34,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W34" s="3">
@@ -10996,19 +10999,19 @@
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="str">
-        <f>IF(R35&lt;&gt;"",VLOOKUP(R35,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Glenumbra</v>
+      <c r="Q35" s="3">
+        <f>IF(R35&lt;&gt;"",VLOOKUP(R35,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>144</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>66</v>
       </c>
       <c r="S35" s="3" t="str">
-        <f>IF(T35&lt;&gt;"",VLOOKUP(T35,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T35&lt;&gt;"",VLOOKUP(T35,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U35" s="3" t="str">
-        <f>IF(V35&lt;&gt;"",VLOOKUP(V35,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V35&lt;&gt;"",VLOOKUP(V35,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W35" s="3">
@@ -11024,7 +11027,7 @@
       </c>
       <c r="Z35" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Glenumbra}, veteran=false</v>
+        <v>, zoneIds={144}, veteran=false</v>
       </c>
       <c r="AA35" s="7" t="str">
         <f t="shared" si="2"/>
@@ -11075,15 +11078,15 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3" t="str">
-        <f>IF(R36&lt;&gt;"",VLOOKUP(R36,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R36&lt;&gt;"",VLOOKUP(R36,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S36" s="3" t="str">
-        <f>IF(T36&lt;&gt;"",VLOOKUP(T36,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T36&lt;&gt;"",VLOOKUP(T36,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U36" s="3" t="str">
-        <f>IF(V36&lt;&gt;"",VLOOKUP(V36,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V36&lt;&gt;"",VLOOKUP(V36,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W36" s="3">
@@ -11150,15 +11153,15 @@
         <v>0</v>
       </c>
       <c r="Q37" s="3" t="str">
-        <f>IF(R37&lt;&gt;"",VLOOKUP(R37,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R37&lt;&gt;"",VLOOKUP(R37,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S37" s="3" t="str">
-        <f>IF(T37&lt;&gt;"",VLOOKUP(T37,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T37&lt;&gt;"",VLOOKUP(T37,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U37" s="3" t="str">
-        <f>IF(V37&lt;&gt;"",VLOOKUP(V37,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V37&lt;&gt;"",VLOOKUP(V37,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W37" s="3">
@@ -11228,15 +11231,15 @@
         <v>0</v>
       </c>
       <c r="Q38" s="3" t="str">
-        <f>IF(R38&lt;&gt;"",VLOOKUP(R38,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R38&lt;&gt;"",VLOOKUP(R38,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S38" s="3" t="str">
-        <f>IF(T38&lt;&gt;"",VLOOKUP(T38,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T38&lt;&gt;"",VLOOKUP(T38,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U38" s="3" t="str">
-        <f>IF(V38&lt;&gt;"",VLOOKUP(V38,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V38&lt;&gt;"",VLOOKUP(V38,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W38" s="3">
@@ -11303,15 +11306,15 @@
         <v>0</v>
       </c>
       <c r="Q39" s="3" t="str">
-        <f>IF(R39&lt;&gt;"",VLOOKUP(R39,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R39&lt;&gt;"",VLOOKUP(R39,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S39" s="3" t="str">
-        <f>IF(T39&lt;&gt;"",VLOOKUP(T39,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T39&lt;&gt;"",VLOOKUP(T39,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U39" s="3" t="str">
-        <f>IF(V39&lt;&gt;"",VLOOKUP(V39,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V39&lt;&gt;"",VLOOKUP(V39,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W39" s="3">
@@ -11378,15 +11381,15 @@
         <v>0</v>
       </c>
       <c r="Q40" s="3" t="str">
-        <f>IF(R40&lt;&gt;"",VLOOKUP(R40,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R40&lt;&gt;"",VLOOKUP(R40,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S40" s="3" t="str">
-        <f>IF(T40&lt;&gt;"",VLOOKUP(T40,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T40&lt;&gt;"",VLOOKUP(T40,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U40" s="3" t="str">
-        <f>IF(V40&lt;&gt;"",VLOOKUP(V40,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V40&lt;&gt;"",VLOOKUP(V40,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W40" s="3">
@@ -11453,15 +11456,15 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3" t="str">
-        <f>IF(R41&lt;&gt;"",VLOOKUP(R41,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R41&lt;&gt;"",VLOOKUP(R41,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S41" s="3" t="str">
-        <f>IF(T41&lt;&gt;"",VLOOKUP(T41,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T41&lt;&gt;"",VLOOKUP(T41,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U41" s="3" t="str">
-        <f>IF(V41&lt;&gt;"",VLOOKUP(V41,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V41&lt;&gt;"",VLOOKUP(V41,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W41" s="3">
@@ -11527,19 +11530,19 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="str">
-        <f>IF(R42&lt;&gt;"",VLOOKUP(R42,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Shadowfen</v>
+      <c r="Q42" s="3">
+        <f>IF(R42&lt;&gt;"",VLOOKUP(R42,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>843</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>53</v>
       </c>
       <c r="S42" s="3" t="str">
-        <f>IF(T42&lt;&gt;"",VLOOKUP(T42,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T42&lt;&gt;"",VLOOKUP(T42,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U42" s="3" t="str">
-        <f>IF(V42&lt;&gt;"",VLOOKUP(V42,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V42&lt;&gt;"",VLOOKUP(V42,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W42" s="3">
@@ -11555,7 +11558,7 @@
       </c>
       <c r="Z42" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Shadowfen}, veteran=false</v>
+        <v>, zoneIds={843}, veteran=false</v>
       </c>
       <c r="AA42" s="7" t="str">
         <f t="shared" si="2"/>
@@ -11606,15 +11609,15 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3" t="str">
-        <f>IF(R43&lt;&gt;"",VLOOKUP(R43,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R43&lt;&gt;"",VLOOKUP(R43,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S43" s="3" t="str">
-        <f>IF(T43&lt;&gt;"",VLOOKUP(T43,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T43&lt;&gt;"",VLOOKUP(T43,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U43" s="3" t="str">
-        <f>IF(V43&lt;&gt;"",VLOOKUP(V43,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V43&lt;&gt;"",VLOOKUP(V43,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W43" s="3">
@@ -11681,15 +11684,15 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3" t="str">
-        <f>IF(R44&lt;&gt;"",VLOOKUP(R44,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R44&lt;&gt;"",VLOOKUP(R44,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S44" s="3" t="str">
-        <f>IF(T44&lt;&gt;"",VLOOKUP(T44,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T44&lt;&gt;"",VLOOKUP(T44,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U44" s="3" t="str">
-        <f>IF(V44&lt;&gt;"",VLOOKUP(V44,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V44&lt;&gt;"",VLOOKUP(V44,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W44" s="3">
@@ -11756,15 +11759,15 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3" t="str">
-        <f>IF(R45&lt;&gt;"",VLOOKUP(R45,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R45&lt;&gt;"",VLOOKUP(R45,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S45" s="3" t="str">
-        <f>IF(T45&lt;&gt;"",VLOOKUP(T45,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T45&lt;&gt;"",VLOOKUP(T45,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U45" s="3" t="str">
-        <f>IF(V45&lt;&gt;"",VLOOKUP(V45,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V45&lt;&gt;"",VLOOKUP(V45,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W45" s="3">
@@ -11831,15 +11834,15 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3" t="str">
-        <f>IF(R46&lt;&gt;"",VLOOKUP(R46,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R46&lt;&gt;"",VLOOKUP(R46,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S46" s="3" t="str">
-        <f>IF(T46&lt;&gt;"",VLOOKUP(T46,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T46&lt;&gt;"",VLOOKUP(T46,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U46" s="3" t="str">
-        <f>IF(V46&lt;&gt;"",VLOOKUP(V46,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V46&lt;&gt;"",VLOOKUP(V46,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W46" s="3">
@@ -11906,15 +11909,15 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3" t="str">
-        <f>IF(R47&lt;&gt;"",VLOOKUP(R47,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R47&lt;&gt;"",VLOOKUP(R47,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S47" s="3" t="str">
-        <f>IF(T47&lt;&gt;"",VLOOKUP(T47,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T47&lt;&gt;"",VLOOKUP(T47,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U47" s="3" t="str">
-        <f>IF(V47&lt;&gt;"",VLOOKUP(V47,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V47&lt;&gt;"",VLOOKUP(V47,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W47" s="3">
@@ -11981,15 +11984,15 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3" t="str">
-        <f>IF(R48&lt;&gt;"",VLOOKUP(R48,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R48&lt;&gt;"",VLOOKUP(R48,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S48" s="3" t="str">
-        <f>IF(T48&lt;&gt;"",VLOOKUP(T48,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T48&lt;&gt;"",VLOOKUP(T48,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U48" s="3" t="str">
-        <f>IF(V48&lt;&gt;"",VLOOKUP(V48,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V48&lt;&gt;"",VLOOKUP(V48,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W48" s="3">
@@ -12054,19 +12057,19 @@
       <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="str">
-        <f>IF(R49&lt;&gt;"",VLOOKUP(R49,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q49" s="3">
+        <f>IF(R49&lt;&gt;"",VLOOKUP(R49,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S49" s="3" t="str">
-        <f>IF(T49&lt;&gt;"",VLOOKUP(T49,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T49&lt;&gt;"",VLOOKUP(T49,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U49" s="3" t="str">
-        <f>IF(V49&lt;&gt;"",VLOOKUP(V49,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V49&lt;&gt;"",VLOOKUP(V49,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W49" s="3">
@@ -12082,7 +12085,7 @@
       </c>
       <c r="Z49" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA49" s="7" t="str">
         <f t="shared" si="2"/>
@@ -12133,15 +12136,15 @@
         <v>0</v>
       </c>
       <c r="Q50" s="3" t="str">
-        <f>IF(R50&lt;&gt;"",VLOOKUP(R50,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R50&lt;&gt;"",VLOOKUP(R50,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S50" s="3" t="str">
-        <f>IF(T50&lt;&gt;"",VLOOKUP(T50,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T50&lt;&gt;"",VLOOKUP(T50,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U50" s="3" t="str">
-        <f>IF(V50&lt;&gt;"",VLOOKUP(V50,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V50&lt;&gt;"",VLOOKUP(V50,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W50" s="3">
@@ -12208,15 +12211,15 @@
         <v>0</v>
       </c>
       <c r="Q51" s="3" t="str">
-        <f>IF(R51&lt;&gt;"",VLOOKUP(R51,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R51&lt;&gt;"",VLOOKUP(R51,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S51" s="3" t="str">
-        <f>IF(T51&lt;&gt;"",VLOOKUP(T51,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T51&lt;&gt;"",VLOOKUP(T51,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U51" s="3" t="str">
-        <f>IF(V51&lt;&gt;"",VLOOKUP(V51,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V51&lt;&gt;"",VLOOKUP(V51,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W51" s="3">
@@ -12283,15 +12286,15 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3" t="str">
-        <f>IF(R52&lt;&gt;"",VLOOKUP(R52,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R52&lt;&gt;"",VLOOKUP(R52,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S52" s="3" t="str">
-        <f>IF(T52&lt;&gt;"",VLOOKUP(T52,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T52&lt;&gt;"",VLOOKUP(T52,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U52" s="3" t="str">
-        <f>IF(V52&lt;&gt;"",VLOOKUP(V52,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V52&lt;&gt;"",VLOOKUP(V52,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W52" s="3">
@@ -12361,15 +12364,15 @@
         <v>0</v>
       </c>
       <c r="Q53" s="3" t="str">
-        <f>IF(R53&lt;&gt;"",VLOOKUP(R53,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R53&lt;&gt;"",VLOOKUP(R53,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S53" s="3" t="str">
-        <f>IF(T53&lt;&gt;"",VLOOKUP(T53,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T53&lt;&gt;"",VLOOKUP(T53,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U53" s="3" t="str">
-        <f>IF(V53&lt;&gt;"",VLOOKUP(V53,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V53&lt;&gt;"",VLOOKUP(V53,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W53" s="3">
@@ -12436,15 +12439,15 @@
         <v>7</v>
       </c>
       <c r="Q54" s="3" t="str">
-        <f>IF(R54&lt;&gt;"",VLOOKUP(R54,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R54&lt;&gt;"",VLOOKUP(R54,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S54" s="3" t="str">
-        <f>IF(T54&lt;&gt;"",VLOOKUP(T54,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T54&lt;&gt;"",VLOOKUP(T54,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U54" s="3" t="str">
-        <f>IF(V54&lt;&gt;"",VLOOKUP(V54,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V54&lt;&gt;"",VLOOKUP(V54,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W54" s="3">
@@ -12510,19 +12513,19 @@
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55" s="3" t="str">
-        <f>IF(R55&lt;&gt;"",VLOOKUP(R55,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>The Rift</v>
+      <c r="Q55" s="3">
+        <f>IF(R55&lt;&gt;"",VLOOKUP(R55,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>64</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>70</v>
       </c>
       <c r="S55" s="3" t="str">
-        <f>IF(T55&lt;&gt;"",VLOOKUP(T55,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T55&lt;&gt;"",VLOOKUP(T55,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U55" s="3" t="str">
-        <f>IF(V55&lt;&gt;"",VLOOKUP(V55,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V55&lt;&gt;"",VLOOKUP(V55,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W55" s="3">
@@ -12538,7 +12541,7 @@
       </c>
       <c r="Z55" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>, zoneIds={The Rift}, veteran=false</v>
+        <v>, zoneIds={64}, veteran=false</v>
       </c>
       <c r="AA55" s="7" t="str">
         <f t="shared" si="2"/>
@@ -12589,15 +12592,15 @@
         <v>0</v>
       </c>
       <c r="Q56" s="3" t="str">
-        <f>IF(R56&lt;&gt;"",VLOOKUP(R56,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R56&lt;&gt;"",VLOOKUP(R56,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S56" s="3" t="str">
-        <f>IF(T56&lt;&gt;"",VLOOKUP(T56,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T56&lt;&gt;"",VLOOKUP(T56,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U56" s="3" t="str">
-        <f>IF(V56&lt;&gt;"",VLOOKUP(V56,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V56&lt;&gt;"",VLOOKUP(V56,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W56" s="3">
@@ -12664,15 +12667,15 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3" t="str">
-        <f>IF(R57&lt;&gt;"",VLOOKUP(R57,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R57&lt;&gt;"",VLOOKUP(R57,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S57" s="3" t="str">
-        <f>IF(T57&lt;&gt;"",VLOOKUP(T57,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T57&lt;&gt;"",VLOOKUP(T57,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U57" s="3" t="str">
-        <f>IF(V57&lt;&gt;"",VLOOKUP(V57,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V57&lt;&gt;"",VLOOKUP(V57,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W57" s="3">
@@ -12739,15 +12742,15 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3" t="str">
-        <f>IF(R58&lt;&gt;"",VLOOKUP(R58,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R58&lt;&gt;"",VLOOKUP(R58,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S58" s="3" t="str">
-        <f>IF(T58&lt;&gt;"",VLOOKUP(T58,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T58&lt;&gt;"",VLOOKUP(T58,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U58" s="3" t="str">
-        <f>IF(V58&lt;&gt;"",VLOOKUP(V58,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V58&lt;&gt;"",VLOOKUP(V58,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W58" s="3">
@@ -12814,15 +12817,15 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3" t="str">
-        <f>IF(R59&lt;&gt;"",VLOOKUP(R59,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R59&lt;&gt;"",VLOOKUP(R59,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S59" s="3" t="str">
-        <f>IF(T59&lt;&gt;"",VLOOKUP(T59,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T59&lt;&gt;"",VLOOKUP(T59,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U59" s="3" t="str">
-        <f>IF(V59&lt;&gt;"",VLOOKUP(V59,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V59&lt;&gt;"",VLOOKUP(V59,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W59" s="3">
@@ -12889,15 +12892,15 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3" t="str">
-        <f>IF(R60&lt;&gt;"",VLOOKUP(R60,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R60&lt;&gt;"",VLOOKUP(R60,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S60" s="3" t="str">
-        <f>IF(T60&lt;&gt;"",VLOOKUP(T60,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T60&lt;&gt;"",VLOOKUP(T60,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U60" s="3" t="str">
-        <f>IF(V60&lt;&gt;"",VLOOKUP(V60,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V60&lt;&gt;"",VLOOKUP(V60,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W60" s="3">
@@ -12964,15 +12967,15 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3" t="str">
-        <f>IF(R61&lt;&gt;"",VLOOKUP(R61,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R61&lt;&gt;"",VLOOKUP(R61,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S61" s="3" t="str">
-        <f>IF(T61&lt;&gt;"",VLOOKUP(T61,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T61&lt;&gt;"",VLOOKUP(T61,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U61" s="3" t="str">
-        <f>IF(V61&lt;&gt;"",VLOOKUP(V61,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V61&lt;&gt;"",VLOOKUP(V61,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W61" s="3">
@@ -13039,15 +13042,15 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3" t="str">
-        <f>IF(R62&lt;&gt;"",VLOOKUP(R62,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R62&lt;&gt;"",VLOOKUP(R62,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S62" s="3" t="str">
-        <f>IF(T62&lt;&gt;"",VLOOKUP(T62,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T62&lt;&gt;"",VLOOKUP(T62,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U62" s="3" t="str">
-        <f>IF(V62&lt;&gt;"",VLOOKUP(V62,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V62&lt;&gt;"",VLOOKUP(V62,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W62" s="3">
@@ -13114,15 +13117,15 @@
         <v>0</v>
       </c>
       <c r="Q63" s="3" t="str">
-        <f>IF(R63&lt;&gt;"",VLOOKUP(R63,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R63&lt;&gt;"",VLOOKUP(R63,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S63" s="3" t="str">
-        <f>IF(T63&lt;&gt;"",VLOOKUP(T63,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T63&lt;&gt;"",VLOOKUP(T63,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U63" s="3" t="str">
-        <f>IF(V63&lt;&gt;"",VLOOKUP(V63,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V63&lt;&gt;"",VLOOKUP(V63,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W63" s="3">
@@ -13189,15 +13192,15 @@
         <v>0</v>
       </c>
       <c r="Q64" s="3" t="str">
-        <f>IF(R64&lt;&gt;"",VLOOKUP(R64,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R64&lt;&gt;"",VLOOKUP(R64,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S64" s="3" t="str">
-        <f>IF(T64&lt;&gt;"",VLOOKUP(T64,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T64&lt;&gt;"",VLOOKUP(T64,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U64" s="3" t="str">
-        <f>IF(V64&lt;&gt;"",VLOOKUP(V64,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V64&lt;&gt;"",VLOOKUP(V64,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W64" s="3">
@@ -13264,15 +13267,15 @@
         <v>8</v>
       </c>
       <c r="Q65" s="3" t="str">
-        <f>IF(R65&lt;&gt;"",VLOOKUP(R65,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R65&lt;&gt;"",VLOOKUP(R65,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S65" s="3" t="str">
-        <f>IF(T65&lt;&gt;"",VLOOKUP(T65,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T65&lt;&gt;"",VLOOKUP(T65,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U65" s="3" t="str">
-        <f>IF(V65&lt;&gt;"",VLOOKUP(V65,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V65&lt;&gt;"",VLOOKUP(V65,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W65" s="3">
@@ -13339,15 +13342,15 @@
         <v>0</v>
       </c>
       <c r="Q66" s="3" t="str">
-        <f>IF(R66&lt;&gt;"",VLOOKUP(R66,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R66&lt;&gt;"",VLOOKUP(R66,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S66" s="3" t="str">
-        <f>IF(T66&lt;&gt;"",VLOOKUP(T66,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T66&lt;&gt;"",VLOOKUP(T66,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U66" s="3" t="str">
-        <f>IF(V66&lt;&gt;"",VLOOKUP(V66,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V66&lt;&gt;"",VLOOKUP(V66,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W66" s="3">
@@ -13414,15 +13417,15 @@
         <v>0</v>
       </c>
       <c r="Q67" s="3" t="str">
-        <f>IF(R67&lt;&gt;"",VLOOKUP(R67,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R67&lt;&gt;"",VLOOKUP(R67,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S67" s="3" t="str">
-        <f>IF(T67&lt;&gt;"",VLOOKUP(T67,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T67&lt;&gt;"",VLOOKUP(T67,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U67" s="3" t="str">
-        <f>IF(V67&lt;&gt;"",VLOOKUP(V67,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V67&lt;&gt;"",VLOOKUP(V67,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W67" s="3">
@@ -13489,15 +13492,15 @@
         <v>0</v>
       </c>
       <c r="Q68" s="3" t="str">
-        <f>IF(R68&lt;&gt;"",VLOOKUP(R68,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R68&lt;&gt;"",VLOOKUP(R68,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S68" s="3" t="str">
-        <f>IF(T68&lt;&gt;"",VLOOKUP(T68,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T68&lt;&gt;"",VLOOKUP(T68,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U68" s="3" t="str">
-        <f>IF(V68&lt;&gt;"",VLOOKUP(V68,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V68&lt;&gt;"",VLOOKUP(V68,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W68" s="3">
@@ -13564,15 +13567,15 @@
         <v>2</v>
       </c>
       <c r="Q69" s="3" t="str">
-        <f>IF(R69&lt;&gt;"",VLOOKUP(R69,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R69&lt;&gt;"",VLOOKUP(R69,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S69" s="3" t="str">
-        <f>IF(T69&lt;&gt;"",VLOOKUP(T69,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T69&lt;&gt;"",VLOOKUP(T69,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U69" s="3" t="str">
-        <f>IF(V69&lt;&gt;"",VLOOKUP(V69,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V69&lt;&gt;"",VLOOKUP(V69,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W69" s="3">
@@ -13639,15 +13642,15 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3" t="str">
-        <f>IF(R70&lt;&gt;"",VLOOKUP(R70,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R70&lt;&gt;"",VLOOKUP(R70,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S70" s="3" t="str">
-        <f>IF(T70&lt;&gt;"",VLOOKUP(T70,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T70&lt;&gt;"",VLOOKUP(T70,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U70" s="3" t="str">
-        <f>IF(V70&lt;&gt;"",VLOOKUP(V70,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V70&lt;&gt;"",VLOOKUP(V70,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W70" s="3">
@@ -13714,15 +13717,15 @@
         <v>0</v>
       </c>
       <c r="Q71" s="3" t="str">
-        <f>IF(R71&lt;&gt;"",VLOOKUP(R71,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R71&lt;&gt;"",VLOOKUP(R71,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S71" s="3" t="str">
-        <f>IF(T71&lt;&gt;"",VLOOKUP(T71,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T71&lt;&gt;"",VLOOKUP(T71,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U71" s="3" t="str">
-        <f>IF(V71&lt;&gt;"",VLOOKUP(V71,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V71&lt;&gt;"",VLOOKUP(V71,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W71" s="3">
@@ -13789,15 +13792,15 @@
         <v>0</v>
       </c>
       <c r="Q72" s="3" t="str">
-        <f>IF(R72&lt;&gt;"",VLOOKUP(R72,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R72&lt;&gt;"",VLOOKUP(R72,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S72" s="3" t="str">
-        <f>IF(T72&lt;&gt;"",VLOOKUP(T72,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T72&lt;&gt;"",VLOOKUP(T72,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U72" s="3" t="str">
-        <f>IF(V72&lt;&gt;"",VLOOKUP(V72,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V72&lt;&gt;"",VLOOKUP(V72,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W72" s="3">
@@ -13864,15 +13867,15 @@
         <v>0</v>
       </c>
       <c r="Q73" s="3" t="str">
-        <f>IF(R73&lt;&gt;"",VLOOKUP(R73,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R73&lt;&gt;"",VLOOKUP(R73,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S73" s="3" t="str">
-        <f>IF(T73&lt;&gt;"",VLOOKUP(T73,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T73&lt;&gt;"",VLOOKUP(T73,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U73" s="3" t="str">
-        <f>IF(V73&lt;&gt;"",VLOOKUP(V73,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V73&lt;&gt;"",VLOOKUP(V73,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W73" s="3">
@@ -13939,15 +13942,15 @@
         <v>0</v>
       </c>
       <c r="Q74" s="3" t="str">
-        <f>IF(R74&lt;&gt;"",VLOOKUP(R74,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R74&lt;&gt;"",VLOOKUP(R74,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S74" s="3" t="str">
-        <f>IF(T74&lt;&gt;"",VLOOKUP(T74,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T74&lt;&gt;"",VLOOKUP(T74,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U74" s="3" t="str">
-        <f>IF(V74&lt;&gt;"",VLOOKUP(V74,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V74&lt;&gt;"",VLOOKUP(V74,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W74" s="3">
@@ -14012,19 +14015,19 @@
       <c r="P75">
         <v>0</v>
       </c>
-      <c r="Q75" s="3" t="str">
-        <f>IF(R75&lt;&gt;"",VLOOKUP(R75,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q75" s="3">
+        <f>IF(R75&lt;&gt;"",VLOOKUP(R75,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R75" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S75" s="3" t="str">
-        <f>IF(T75&lt;&gt;"",VLOOKUP(T75,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T75&lt;&gt;"",VLOOKUP(T75,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U75" s="3" t="str">
-        <f>IF(V75&lt;&gt;"",VLOOKUP(V75,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V75&lt;&gt;"",VLOOKUP(V75,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W75" s="3">
@@ -14040,7 +14043,7 @@
       </c>
       <c r="Z75" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA75" s="7" t="str">
         <f t="shared" si="7"/>
@@ -14091,15 +14094,15 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3" t="str">
-        <f>IF(R76&lt;&gt;"",VLOOKUP(R76,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R76&lt;&gt;"",VLOOKUP(R76,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S76" s="3" t="str">
-        <f>IF(T76&lt;&gt;"",VLOOKUP(T76,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T76&lt;&gt;"",VLOOKUP(T76,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U76" s="3" t="str">
-        <f>IF(V76&lt;&gt;"",VLOOKUP(V76,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V76&lt;&gt;"",VLOOKUP(V76,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W76" s="3">
@@ -14166,15 +14169,15 @@
         <v>0</v>
       </c>
       <c r="Q77" s="3" t="str">
-        <f>IF(R77&lt;&gt;"",VLOOKUP(R77,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R77&lt;&gt;"",VLOOKUP(R77,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S77" s="3" t="str">
-        <f>IF(T77&lt;&gt;"",VLOOKUP(T77,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T77&lt;&gt;"",VLOOKUP(T77,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U77" s="3" t="str">
-        <f>IF(V77&lt;&gt;"",VLOOKUP(V77,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V77&lt;&gt;"",VLOOKUP(V77,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W77" s="3">
@@ -14241,15 +14244,15 @@
         <v>0</v>
       </c>
       <c r="Q78" s="3" t="str">
-        <f>IF(R78&lt;&gt;"",VLOOKUP(R78,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R78&lt;&gt;"",VLOOKUP(R78,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S78" s="3" t="str">
-        <f>IF(T78&lt;&gt;"",VLOOKUP(T78,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T78&lt;&gt;"",VLOOKUP(T78,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U78" s="3" t="str">
-        <f>IF(V78&lt;&gt;"",VLOOKUP(V78,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V78&lt;&gt;"",VLOOKUP(V78,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W78" s="3">
@@ -14319,15 +14322,15 @@
         <v>0</v>
       </c>
       <c r="Q79" s="3" t="str">
-        <f>IF(R79&lt;&gt;"",VLOOKUP(R79,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R79&lt;&gt;"",VLOOKUP(R79,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S79" s="3" t="str">
-        <f>IF(T79&lt;&gt;"",VLOOKUP(T79,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T79&lt;&gt;"",VLOOKUP(T79,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U79" s="3" t="str">
-        <f>IF(V79&lt;&gt;"",VLOOKUP(V79,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V79&lt;&gt;"",VLOOKUP(V79,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W79" s="3">
@@ -14394,15 +14397,15 @@
         <v>0</v>
       </c>
       <c r="Q80" s="3" t="str">
-        <f>IF(R80&lt;&gt;"",VLOOKUP(R80,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R80&lt;&gt;"",VLOOKUP(R80,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S80" s="3" t="str">
-        <f>IF(T80&lt;&gt;"",VLOOKUP(T80,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T80&lt;&gt;"",VLOOKUP(T80,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U80" s="3" t="str">
-        <f>IF(V80&lt;&gt;"",VLOOKUP(V80,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V80&lt;&gt;"",VLOOKUP(V80,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W80" s="3">
@@ -14469,15 +14472,15 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3" t="str">
-        <f>IF(R81&lt;&gt;"",VLOOKUP(R81,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R81&lt;&gt;"",VLOOKUP(R81,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S81" s="3" t="str">
-        <f>IF(T81&lt;&gt;"",VLOOKUP(T81,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T81&lt;&gt;"",VLOOKUP(T81,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U81" s="3" t="str">
-        <f>IF(V81&lt;&gt;"",VLOOKUP(V81,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V81&lt;&gt;"",VLOOKUP(V81,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W81" s="3">
@@ -14544,15 +14547,15 @@
         <v>0</v>
       </c>
       <c r="Q82" s="3" t="str">
-        <f>IF(R82&lt;&gt;"",VLOOKUP(R82,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R82&lt;&gt;"",VLOOKUP(R82,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S82" s="3" t="str">
-        <f>IF(T82&lt;&gt;"",VLOOKUP(T82,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T82&lt;&gt;"",VLOOKUP(T82,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U82" s="3" t="str">
-        <f>IF(V82&lt;&gt;"",VLOOKUP(V82,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V82&lt;&gt;"",VLOOKUP(V82,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W82" s="3">
@@ -14619,15 +14622,15 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3" t="str">
-        <f>IF(R83&lt;&gt;"",VLOOKUP(R83,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R83&lt;&gt;"",VLOOKUP(R83,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S83" s="3" t="str">
-        <f>IF(T83&lt;&gt;"",VLOOKUP(T83,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T83&lt;&gt;"",VLOOKUP(T83,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U83" s="3" t="str">
-        <f>IF(V83&lt;&gt;"",VLOOKUP(V83,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V83&lt;&gt;"",VLOOKUP(V83,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W83" s="3">
@@ -14694,15 +14697,15 @@
         <v>0</v>
       </c>
       <c r="Q84" s="3" t="str">
-        <f>IF(R84&lt;&gt;"",VLOOKUP(R84,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R84&lt;&gt;"",VLOOKUP(R84,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S84" s="3" t="str">
-        <f>IF(T84&lt;&gt;"",VLOOKUP(T84,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T84&lt;&gt;"",VLOOKUP(T84,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U84" s="3" t="str">
-        <f>IF(V84&lt;&gt;"",VLOOKUP(V84,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V84&lt;&gt;"",VLOOKUP(V84,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W84" s="3">
@@ -14769,15 +14772,15 @@
         <v>0</v>
       </c>
       <c r="Q85" s="3" t="str">
-        <f>IF(R85&lt;&gt;"",VLOOKUP(R85,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R85&lt;&gt;"",VLOOKUP(R85,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S85" s="3" t="str">
-        <f>IF(T85&lt;&gt;"",VLOOKUP(T85,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T85&lt;&gt;"",VLOOKUP(T85,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U85" s="3" t="str">
-        <f>IF(V85&lt;&gt;"",VLOOKUP(V85,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V85&lt;&gt;"",VLOOKUP(V85,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W85" s="3">
@@ -14844,15 +14847,15 @@
         <v>0</v>
       </c>
       <c r="Q86" s="3" t="str">
-        <f>IF(R86&lt;&gt;"",VLOOKUP(R86,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R86&lt;&gt;"",VLOOKUP(R86,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S86" s="3" t="str">
-        <f>IF(T86&lt;&gt;"",VLOOKUP(T86,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T86&lt;&gt;"",VLOOKUP(T86,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U86" s="3" t="str">
-        <f>IF(V86&lt;&gt;"",VLOOKUP(V86,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V86&lt;&gt;"",VLOOKUP(V86,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W86" s="3">
@@ -14919,15 +14922,15 @@
         <v>0</v>
       </c>
       <c r="Q87" s="3" t="str">
-        <f>IF(R87&lt;&gt;"",VLOOKUP(R87,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R87&lt;&gt;"",VLOOKUP(R87,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S87" s="3" t="str">
-        <f>IF(T87&lt;&gt;"",VLOOKUP(T87,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T87&lt;&gt;"",VLOOKUP(T87,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U87" s="3" t="str">
-        <f>IF(V87&lt;&gt;"",VLOOKUP(V87,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V87&lt;&gt;"",VLOOKUP(V87,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W87" s="3">
@@ -14997,15 +15000,15 @@
         <v>0</v>
       </c>
       <c r="Q88" s="3" t="str">
-        <f>IF(R88&lt;&gt;"",VLOOKUP(R88,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R88&lt;&gt;"",VLOOKUP(R88,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S88" s="3" t="str">
-        <f>IF(T88&lt;&gt;"",VLOOKUP(T88,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T88&lt;&gt;"",VLOOKUP(T88,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U88" s="3" t="str">
-        <f>IF(V88&lt;&gt;"",VLOOKUP(V88,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V88&lt;&gt;"",VLOOKUP(V88,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W88" s="3">
@@ -15072,15 +15075,15 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3" t="str">
-        <f>IF(R89&lt;&gt;"",VLOOKUP(R89,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R89&lt;&gt;"",VLOOKUP(R89,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S89" s="3" t="str">
-        <f>IF(T89&lt;&gt;"",VLOOKUP(T89,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T89&lt;&gt;"",VLOOKUP(T89,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U89" s="3" t="str">
-        <f>IF(V89&lt;&gt;"",VLOOKUP(V89,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V89&lt;&gt;"",VLOOKUP(V89,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W89" s="3">
@@ -15145,19 +15148,19 @@
       <c r="P90">
         <v>0</v>
       </c>
-      <c r="Q90" s="3" t="str">
-        <f>IF(R90&lt;&gt;"",VLOOKUP(R90,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q90" s="3">
+        <f>IF(R90&lt;&gt;"",VLOOKUP(R90,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R90" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S90" s="3" t="str">
-        <f>IF(T90&lt;&gt;"",VLOOKUP(T90,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T90&lt;&gt;"",VLOOKUP(T90,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U90" s="3" t="str">
-        <f>IF(V90&lt;&gt;"",VLOOKUP(V90,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V90&lt;&gt;"",VLOOKUP(V90,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W90" s="3">
@@ -15173,7 +15176,7 @@
       </c>
       <c r="Z90" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Wrothgar}, veteran=false</v>
+        <v>, zoneIds={677}, veteran=false</v>
       </c>
       <c r="AA90" s="7" t="str">
         <f t="shared" si="7"/>
@@ -15224,15 +15227,15 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3" t="str">
-        <f>IF(R91&lt;&gt;"",VLOOKUP(R91,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R91&lt;&gt;"",VLOOKUP(R91,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S91" s="3" t="str">
-        <f>IF(T91&lt;&gt;"",VLOOKUP(T91,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T91&lt;&gt;"",VLOOKUP(T91,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U91" s="3" t="str">
-        <f>IF(V91&lt;&gt;"",VLOOKUP(V91,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V91&lt;&gt;"",VLOOKUP(V91,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W91" s="3">
@@ -15299,15 +15302,15 @@
         <v>0</v>
       </c>
       <c r="Q92" s="3" t="str">
-        <f>IF(R92&lt;&gt;"",VLOOKUP(R92,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R92&lt;&gt;"",VLOOKUP(R92,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S92" s="3" t="str">
-        <f>IF(T92&lt;&gt;"",VLOOKUP(T92,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T92&lt;&gt;"",VLOOKUP(T92,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U92" s="3" t="str">
-        <f>IF(V92&lt;&gt;"",VLOOKUP(V92,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V92&lt;&gt;"",VLOOKUP(V92,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W92" s="3">
@@ -15373,19 +15376,19 @@
       <c r="P93">
         <v>0</v>
       </c>
-      <c r="Q93" s="3" t="str">
-        <f>IF(R93&lt;&gt;"",VLOOKUP(R93,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Reaper's March</v>
+      <c r="Q93" s="3">
+        <f>IF(R93&lt;&gt;"",VLOOKUP(R93,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1052</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>73</v>
       </c>
       <c r="S93" s="3" t="str">
-        <f>IF(T93&lt;&gt;"",VLOOKUP(T93,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T93&lt;&gt;"",VLOOKUP(T93,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U93" s="3" t="str">
-        <f>IF(V93&lt;&gt;"",VLOOKUP(V93,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V93&lt;&gt;"",VLOOKUP(V93,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W93" s="3">
@@ -15401,7 +15404,7 @@
       </c>
       <c r="Z93" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Reaper's March}, veteran=false</v>
+        <v>, zoneIds={1052}, veteran=false</v>
       </c>
       <c r="AA93" s="7" t="str">
         <f t="shared" si="7"/>
@@ -15455,15 +15458,15 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3" t="str">
-        <f>IF(R94&lt;&gt;"",VLOOKUP(R94,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R94&lt;&gt;"",VLOOKUP(R94,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S94" s="3" t="str">
-        <f>IF(T94&lt;&gt;"",VLOOKUP(T94,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T94&lt;&gt;"",VLOOKUP(T94,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U94" s="3" t="str">
-        <f>IF(V94&lt;&gt;"",VLOOKUP(V94,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V94&lt;&gt;"",VLOOKUP(V94,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W94" s="3">
@@ -15529,19 +15532,19 @@
       <c r="P95">
         <v>0</v>
       </c>
-      <c r="Q95" s="3" t="str">
-        <f>IF(R95&lt;&gt;"",VLOOKUP(R95,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q95" s="3">
+        <f>IF(R95&lt;&gt;"",VLOOKUP(R95,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>974</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S95" s="3" t="str">
-        <f>IF(T95&lt;&gt;"",VLOOKUP(T95,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T95&lt;&gt;"",VLOOKUP(T95,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U95" s="3" t="str">
-        <f>IF(V95&lt;&gt;"",VLOOKUP(V95,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V95&lt;&gt;"",VLOOKUP(V95,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W95" s="3">
@@ -15557,7 +15560,7 @@
       </c>
       <c r="Z95" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Craglorn}, veteran=false</v>
+        <v>, zoneIds={974}, veteran=false</v>
       </c>
       <c r="AA95" s="7" t="str">
         <f t="shared" si="7"/>
@@ -15608,15 +15611,15 @@
         <v>9</v>
       </c>
       <c r="Q96" s="3" t="str">
-        <f>IF(R96&lt;&gt;"",VLOOKUP(R96,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R96&lt;&gt;"",VLOOKUP(R96,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S96" s="3" t="str">
-        <f>IF(T96&lt;&gt;"",VLOOKUP(T96,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T96&lt;&gt;"",VLOOKUP(T96,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U96" s="3" t="str">
-        <f>IF(V96&lt;&gt;"",VLOOKUP(V96,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V96&lt;&gt;"",VLOOKUP(V96,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W96" s="3">
@@ -15683,15 +15686,15 @@
         <v>0</v>
       </c>
       <c r="Q97" s="3" t="str">
-        <f>IF(R97&lt;&gt;"",VLOOKUP(R97,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R97&lt;&gt;"",VLOOKUP(R97,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S97" s="3" t="str">
-        <f>IF(T97&lt;&gt;"",VLOOKUP(T97,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T97&lt;&gt;"",VLOOKUP(T97,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U97" s="3" t="str">
-        <f>IF(V97&lt;&gt;"",VLOOKUP(V97,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V97&lt;&gt;"",VLOOKUP(V97,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W97" s="3">
@@ -15758,15 +15761,15 @@
         <v>8</v>
       </c>
       <c r="Q98" s="3" t="str">
-        <f>IF(R98&lt;&gt;"",VLOOKUP(R98,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R98&lt;&gt;"",VLOOKUP(R98,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S98" s="3" t="str">
-        <f>IF(T98&lt;&gt;"",VLOOKUP(T98,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T98&lt;&gt;"",VLOOKUP(T98,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U98" s="3" t="str">
-        <f>IF(V98&lt;&gt;"",VLOOKUP(V98,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V98&lt;&gt;"",VLOOKUP(V98,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W98" s="3">
@@ -15833,15 +15836,15 @@
         <v>0</v>
       </c>
       <c r="Q99" s="3" t="str">
-        <f>IF(R99&lt;&gt;"",VLOOKUP(R99,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R99&lt;&gt;"",VLOOKUP(R99,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S99" s="3" t="str">
-        <f>IF(T99&lt;&gt;"",VLOOKUP(T99,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T99&lt;&gt;"",VLOOKUP(T99,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U99" s="3" t="str">
-        <f>IF(V99&lt;&gt;"",VLOOKUP(V99,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V99&lt;&gt;"",VLOOKUP(V99,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W99" s="3">
@@ -15908,15 +15911,15 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3" t="str">
-        <f>IF(R100&lt;&gt;"",VLOOKUP(R100,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R100&lt;&gt;"",VLOOKUP(R100,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S100" s="3" t="str">
-        <f>IF(T100&lt;&gt;"",VLOOKUP(T100,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T100&lt;&gt;"",VLOOKUP(T100,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U100" s="3" t="str">
-        <f>IF(V100&lt;&gt;"",VLOOKUP(V100,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V100&lt;&gt;"",VLOOKUP(V100,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W100" s="3">
@@ -15983,15 +15986,15 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3" t="str">
-        <f>IF(R101&lt;&gt;"",VLOOKUP(R101,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R101&lt;&gt;"",VLOOKUP(R101,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S101" s="3" t="str">
-        <f>IF(T101&lt;&gt;"",VLOOKUP(T101,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T101&lt;&gt;"",VLOOKUP(T101,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U101" s="3" t="str">
-        <f>IF(V101&lt;&gt;"",VLOOKUP(V101,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V101&lt;&gt;"",VLOOKUP(V101,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W101" s="3">
@@ -16058,15 +16061,15 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3" t="str">
-        <f>IF(R102&lt;&gt;"",VLOOKUP(R102,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R102&lt;&gt;"",VLOOKUP(R102,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S102" s="3" t="str">
-        <f>IF(T102&lt;&gt;"",VLOOKUP(T102,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T102&lt;&gt;"",VLOOKUP(T102,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U102" s="3" t="str">
-        <f>IF(V102&lt;&gt;"",VLOOKUP(V102,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V102&lt;&gt;"",VLOOKUP(V102,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W102" s="3">
@@ -16131,19 +16134,19 @@
       <c r="P103">
         <v>0</v>
       </c>
-      <c r="Q103" s="3" t="str">
-        <f>IF(R103&lt;&gt;"",VLOOKUP(R103,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q103" s="3">
+        <f>IF(R103&lt;&gt;"",VLOOKUP(R103,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R103" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S103" s="3" t="str">
-        <f>IF(T103&lt;&gt;"",VLOOKUP(T103,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T103&lt;&gt;"",VLOOKUP(T103,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U103" s="3" t="str">
-        <f>IF(V103&lt;&gt;"",VLOOKUP(V103,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V103&lt;&gt;"",VLOOKUP(V103,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W103" s="3">
@@ -16159,7 +16162,7 @@
       </c>
       <c r="Z103" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Craglorn}, veteran=false</v>
+        <v>, zoneIds={635}, veteran=false</v>
       </c>
       <c r="AA103" s="7" t="str">
         <f t="shared" si="7"/>
@@ -16210,15 +16213,15 @@
         <v>2</v>
       </c>
       <c r="Q104" s="3" t="str">
-        <f>IF(R104&lt;&gt;"",VLOOKUP(R104,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R104&lt;&gt;"",VLOOKUP(R104,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S104" s="3" t="str">
-        <f>IF(T104&lt;&gt;"",VLOOKUP(T104,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T104&lt;&gt;"",VLOOKUP(T104,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U104" s="3" t="str">
-        <f>IF(V104&lt;&gt;"",VLOOKUP(V104,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V104&lt;&gt;"",VLOOKUP(V104,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W104" s="3">
@@ -16284,19 +16287,19 @@
       <c r="P105">
         <v>0</v>
       </c>
-      <c r="Q105" s="3" t="str">
-        <f>IF(R105&lt;&gt;"",VLOOKUP(R105,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Gold Coast</v>
+      <c r="Q105" s="3">
+        <f>IF(R105&lt;&gt;"",VLOOKUP(R105,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1081</v>
       </c>
       <c r="R105" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S105" s="3" t="str">
-        <f>IF(T105&lt;&gt;"",VLOOKUP(T105,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T105&lt;&gt;"",VLOOKUP(T105,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U105" s="3" t="str">
-        <f>IF(V105&lt;&gt;"",VLOOKUP(V105,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V105&lt;&gt;"",VLOOKUP(V105,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W105" s="3">
@@ -16312,7 +16315,7 @@
       </c>
       <c r="Z105" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Gold Coast}, veteran=false</v>
+        <v>, zoneIds={1081}, veteran=false</v>
       </c>
       <c r="AA105" s="7" t="str">
         <f t="shared" si="7"/>
@@ -16363,15 +16366,15 @@
         <v>0</v>
       </c>
       <c r="Q106" s="3" t="str">
-        <f>IF(R106&lt;&gt;"",VLOOKUP(R106,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R106&lt;&gt;"",VLOOKUP(R106,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S106" s="3" t="str">
-        <f>IF(T106&lt;&gt;"",VLOOKUP(T106,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T106&lt;&gt;"",VLOOKUP(T106,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U106" s="3" t="str">
-        <f>IF(V106&lt;&gt;"",VLOOKUP(V106,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V106&lt;&gt;"",VLOOKUP(V106,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W106" s="3">
@@ -16436,19 +16439,19 @@
       <c r="P107">
         <v>0</v>
       </c>
-      <c r="Q107" s="3" t="str">
-        <f>IF(R107&lt;&gt;"",VLOOKUP(R107,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q107" s="3">
+        <f>IF(R107&lt;&gt;"",VLOOKUP(R107,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R107" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S107" s="3" t="str">
-        <f>IF(T107&lt;&gt;"",VLOOKUP(T107,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T107&lt;&gt;"",VLOOKUP(T107,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U107" s="3" t="str">
-        <f>IF(V107&lt;&gt;"",VLOOKUP(V107,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V107&lt;&gt;"",VLOOKUP(V107,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W107" s="3">
@@ -16464,7 +16467,7 @@
       </c>
       <c r="Z107" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Murkmire}, veteran=false</v>
+        <v>, zoneIds={1082}, veteran=false</v>
       </c>
       <c r="AA107" s="7" t="str">
         <f t="shared" si="7"/>
@@ -16522,16 +16525,16 @@
         <v>0</v>
       </c>
       <c r="Q108" s="3" t="str">
-        <f>IF(R108&lt;&gt;"",VLOOKUP(R108,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R108&lt;&gt;"",VLOOKUP(R108,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S108" s="3" t="str">
-        <f>IF(T108&lt;&gt;"",VLOOKUP(T108,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T108&lt;&gt;"",VLOOKUP(T108,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="T108" s="22"/>
       <c r="U108" s="3" t="str">
-        <f>IF(V108&lt;&gt;"",VLOOKUP(V108,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V108&lt;&gt;"",VLOOKUP(V108,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="V108" s="22"/>
@@ -16597,19 +16600,19 @@
       <c r="P109">
         <v>0</v>
       </c>
-      <c r="Q109" s="3" t="str">
-        <f>IF(R109&lt;&gt;"",VLOOKUP(R109,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q109" s="3">
+        <f>IF(R109&lt;&gt;"",VLOOKUP(R109,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R109" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S109" s="3" t="str">
-        <f>IF(T109&lt;&gt;"",VLOOKUP(T109,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T109&lt;&gt;"",VLOOKUP(T109,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U109" s="3" t="str">
-        <f>IF(V109&lt;&gt;"",VLOOKUP(V109,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V109&lt;&gt;"",VLOOKUP(V109,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W109" s="3">
@@ -16625,7 +16628,7 @@
       </c>
       <c r="Z109" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Wrothgar}, veteran=false</v>
+        <v>, zoneIds={677}, veteran=false</v>
       </c>
       <c r="AA109" s="7" t="str">
         <f t="shared" si="7"/>
@@ -16676,15 +16679,15 @@
         <v>0</v>
       </c>
       <c r="Q110" s="3" t="str">
-        <f>IF(R110&lt;&gt;"",VLOOKUP(R110,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R110&lt;&gt;"",VLOOKUP(R110,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S110" s="3" t="str">
-        <f>IF(T110&lt;&gt;"",VLOOKUP(T110,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T110&lt;&gt;"",VLOOKUP(T110,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U110" s="3" t="str">
-        <f>IF(V110&lt;&gt;"",VLOOKUP(V110,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V110&lt;&gt;"",VLOOKUP(V110,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W110" s="3">
@@ -16751,15 +16754,15 @@
         <v>0</v>
       </c>
       <c r="Q111" s="3" t="str">
-        <f>IF(R111&lt;&gt;"",VLOOKUP(R111,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R111&lt;&gt;"",VLOOKUP(R111,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S111" s="3" t="str">
-        <f>IF(T111&lt;&gt;"",VLOOKUP(T111,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T111&lt;&gt;"",VLOOKUP(T111,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U111" s="3" t="str">
-        <f>IF(V111&lt;&gt;"",VLOOKUP(V111,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V111&lt;&gt;"",VLOOKUP(V111,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W111" s="3">
@@ -16826,15 +16829,15 @@
         <v>0</v>
       </c>
       <c r="Q112" s="3" t="str">
-        <f>IF(R112&lt;&gt;"",VLOOKUP(R112,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R112&lt;&gt;"",VLOOKUP(R112,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S112" s="3" t="str">
-        <f>IF(T112&lt;&gt;"",VLOOKUP(T112,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T112&lt;&gt;"",VLOOKUP(T112,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U112" s="3" t="str">
-        <f>IF(V112&lt;&gt;"",VLOOKUP(V112,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V112&lt;&gt;"",VLOOKUP(V112,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W112" s="3">
@@ -16899,19 +16902,19 @@
       <c r="P113">
         <v>0</v>
       </c>
-      <c r="Q113" s="3" t="str">
-        <f>IF(R113&lt;&gt;"",VLOOKUP(R113,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q113" s="3">
+        <f>IF(R113&lt;&gt;"",VLOOKUP(R113,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R113" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S113" s="3" t="str">
-        <f>IF(T113&lt;&gt;"",VLOOKUP(T113,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T113&lt;&gt;"",VLOOKUP(T113,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U113" s="3" t="str">
-        <f>IF(V113&lt;&gt;"",VLOOKUP(V113,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V113&lt;&gt;"",VLOOKUP(V113,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W113" s="3">
@@ -16927,7 +16930,7 @@
       </c>
       <c r="Z113" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA113" s="7" t="str">
         <f t="shared" si="7"/>
@@ -16978,15 +16981,15 @@
         <v>0</v>
       </c>
       <c r="Q114" s="3" t="str">
-        <f>IF(R114&lt;&gt;"",VLOOKUP(R114,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R114&lt;&gt;"",VLOOKUP(R114,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S114" s="3" t="str">
-        <f>IF(T114&lt;&gt;"",VLOOKUP(T114,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T114&lt;&gt;"",VLOOKUP(T114,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U114" s="3" t="str">
-        <f>IF(V114&lt;&gt;"",VLOOKUP(V114,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V114&lt;&gt;"",VLOOKUP(V114,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W114" s="3">
@@ -17053,15 +17056,15 @@
         <v>0</v>
       </c>
       <c r="Q115" s="3" t="str">
-        <f>IF(R115&lt;&gt;"",VLOOKUP(R115,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R115&lt;&gt;"",VLOOKUP(R115,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S115" s="3" t="str">
-        <f>IF(T115&lt;&gt;"",VLOOKUP(T115,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T115&lt;&gt;"",VLOOKUP(T115,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U115" s="3" t="str">
-        <f>IF(V115&lt;&gt;"",VLOOKUP(V115,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V115&lt;&gt;"",VLOOKUP(V115,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W115" s="3">
@@ -17131,15 +17134,15 @@
         <v>0</v>
       </c>
       <c r="Q116" s="3" t="str">
-        <f>IF(R116&lt;&gt;"",VLOOKUP(R116,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R116&lt;&gt;"",VLOOKUP(R116,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S116" s="3" t="str">
-        <f>IF(T116&lt;&gt;"",VLOOKUP(T116,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T116&lt;&gt;"",VLOOKUP(T116,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U116" s="3" t="str">
-        <f>IF(V116&lt;&gt;"",VLOOKUP(V116,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V116&lt;&gt;"",VLOOKUP(V116,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W116" s="3">
@@ -17206,15 +17209,15 @@
         <v>0</v>
       </c>
       <c r="Q117" s="3" t="str">
-        <f>IF(R117&lt;&gt;"",VLOOKUP(R117,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R117&lt;&gt;"",VLOOKUP(R117,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S117" s="3" t="str">
-        <f>IF(T117&lt;&gt;"",VLOOKUP(T117,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T117&lt;&gt;"",VLOOKUP(T117,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U117" s="3" t="str">
-        <f>IF(V117&lt;&gt;"",VLOOKUP(V117,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V117&lt;&gt;"",VLOOKUP(V117,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W117" s="3">
@@ -17281,15 +17284,15 @@
         <v>0</v>
       </c>
       <c r="Q118" s="3" t="str">
-        <f>IF(R118&lt;&gt;"",VLOOKUP(R118,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R118&lt;&gt;"",VLOOKUP(R118,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S118" s="3" t="str">
-        <f>IF(T118&lt;&gt;"",VLOOKUP(T118,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T118&lt;&gt;"",VLOOKUP(T118,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U118" s="3" t="str">
-        <f>IF(V118&lt;&gt;"",VLOOKUP(V118,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V118&lt;&gt;"",VLOOKUP(V118,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W118" s="3">
@@ -17356,15 +17359,15 @@
         <v>0</v>
       </c>
       <c r="Q119" s="3" t="str">
-        <f>IF(R119&lt;&gt;"",VLOOKUP(R119,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R119&lt;&gt;"",VLOOKUP(R119,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S119" s="3" t="str">
-        <f>IF(T119&lt;&gt;"",VLOOKUP(T119,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T119&lt;&gt;"",VLOOKUP(T119,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U119" s="3" t="str">
-        <f>IF(V119&lt;&gt;"",VLOOKUP(V119,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V119&lt;&gt;"",VLOOKUP(V119,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W119" s="3">
@@ -17431,15 +17434,15 @@
         <v>0</v>
       </c>
       <c r="Q120" s="3" t="str">
-        <f>IF(R120&lt;&gt;"",VLOOKUP(R120,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R120&lt;&gt;"",VLOOKUP(R120,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S120" s="3" t="str">
-        <f>IF(T120&lt;&gt;"",VLOOKUP(T120,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T120&lt;&gt;"",VLOOKUP(T120,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U120" s="3" t="str">
-        <f>IF(V120&lt;&gt;"",VLOOKUP(V120,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V120&lt;&gt;"",VLOOKUP(V120,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W120" s="3">
@@ -17506,15 +17509,15 @@
         <v>0</v>
       </c>
       <c r="Q121" s="3" t="str">
-        <f>IF(R121&lt;&gt;"",VLOOKUP(R121,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R121&lt;&gt;"",VLOOKUP(R121,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S121" s="3" t="str">
-        <f>IF(T121&lt;&gt;"",VLOOKUP(T121,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T121&lt;&gt;"",VLOOKUP(T121,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U121" s="3" t="str">
-        <f>IF(V121&lt;&gt;"",VLOOKUP(V121,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V121&lt;&gt;"",VLOOKUP(V121,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W121" s="3">
@@ -17581,15 +17584,15 @@
         <v>0</v>
       </c>
       <c r="Q122" s="3" t="str">
-        <f>IF(R122&lt;&gt;"",VLOOKUP(R122,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R122&lt;&gt;"",VLOOKUP(R122,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S122" s="3" t="str">
-        <f>IF(T122&lt;&gt;"",VLOOKUP(T122,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T122&lt;&gt;"",VLOOKUP(T122,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U122" s="3" t="str">
-        <f>IF(V122&lt;&gt;"",VLOOKUP(V122,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V122&lt;&gt;"",VLOOKUP(V122,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W122" s="3">
@@ -17656,15 +17659,15 @@
         <v>0</v>
       </c>
       <c r="Q123" s="3" t="str">
-        <f>IF(R123&lt;&gt;"",VLOOKUP(R123,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R123&lt;&gt;"",VLOOKUP(R123,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S123" s="3" t="str">
-        <f>IF(T123&lt;&gt;"",VLOOKUP(T123,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T123&lt;&gt;"",VLOOKUP(T123,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U123" s="3" t="str">
-        <f>IF(V123&lt;&gt;"",VLOOKUP(V123,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V123&lt;&gt;"",VLOOKUP(V123,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W123" s="3">
@@ -17729,19 +17732,19 @@
       <c r="P124">
         <v>0</v>
       </c>
-      <c r="Q124" s="3" t="str">
-        <f>IF(R124&lt;&gt;"",VLOOKUP(R124,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q124" s="3">
+        <f>IF(R124&lt;&gt;"",VLOOKUP(R124,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R124" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S124" s="3" t="str">
-        <f>IF(T124&lt;&gt;"",VLOOKUP(T124,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T124&lt;&gt;"",VLOOKUP(T124,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U124" s="3" t="str">
-        <f>IF(V124&lt;&gt;"",VLOOKUP(V124,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V124&lt;&gt;"",VLOOKUP(V124,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W124" s="3">
@@ -17757,7 +17760,7 @@
       </c>
       <c r="Z124" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>, zoneIds={Craglorn}, veteran=false</v>
+        <v>, zoneIds={635}, veteran=false</v>
       </c>
       <c r="AA124" s="7" t="str">
         <f t="shared" si="7"/>
@@ -17808,15 +17811,15 @@
         <v>0</v>
       </c>
       <c r="Q125" s="3" t="str">
-        <f>IF(R125&lt;&gt;"",VLOOKUP(R125,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R125&lt;&gt;"",VLOOKUP(R125,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S125" s="3" t="str">
-        <f>IF(T125&lt;&gt;"",VLOOKUP(T125,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T125&lt;&gt;"",VLOOKUP(T125,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U125" s="3" t="str">
-        <f>IF(V125&lt;&gt;"",VLOOKUP(V125,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V125&lt;&gt;"",VLOOKUP(V125,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W125" s="3">
@@ -17883,15 +17886,15 @@
         <v>0</v>
       </c>
       <c r="Q126" s="3" t="str">
-        <f>IF(R126&lt;&gt;"",VLOOKUP(R126,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R126&lt;&gt;"",VLOOKUP(R126,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S126" s="3" t="str">
-        <f>IF(T126&lt;&gt;"",VLOOKUP(T126,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T126&lt;&gt;"",VLOOKUP(T126,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U126" s="3" t="str">
-        <f>IF(V126&lt;&gt;"",VLOOKUP(V126,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V126&lt;&gt;"",VLOOKUP(V126,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W126" s="3">
@@ -17958,15 +17961,15 @@
         <v>0</v>
       </c>
       <c r="Q127" s="3" t="str">
-        <f>IF(R127&lt;&gt;"",VLOOKUP(R127,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R127&lt;&gt;"",VLOOKUP(R127,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S127" s="3" t="str">
-        <f>IF(T127&lt;&gt;"",VLOOKUP(T127,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T127&lt;&gt;"",VLOOKUP(T127,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U127" s="3" t="str">
-        <f>IF(V127&lt;&gt;"",VLOOKUP(V127,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V127&lt;&gt;"",VLOOKUP(V127,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W127" s="3">
@@ -18033,15 +18036,15 @@
         <v>0</v>
       </c>
       <c r="Q128" s="3" t="str">
-        <f>IF(R128&lt;&gt;"",VLOOKUP(R128,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R128&lt;&gt;"",VLOOKUP(R128,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S128" s="3" t="str">
-        <f>IF(T128&lt;&gt;"",VLOOKUP(T128,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T128&lt;&gt;"",VLOOKUP(T128,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U128" s="3" t="str">
-        <f>IF(V128&lt;&gt;"",VLOOKUP(V128,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V128&lt;&gt;"",VLOOKUP(V128,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W128" s="3">
@@ -18108,15 +18111,15 @@
         <v>0</v>
       </c>
       <c r="Q129" s="3" t="str">
-        <f>IF(R129&lt;&gt;"",VLOOKUP(R129,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R129&lt;&gt;"",VLOOKUP(R129,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S129" s="3" t="str">
-        <f>IF(T129&lt;&gt;"",VLOOKUP(T129,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T129&lt;&gt;"",VLOOKUP(T129,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U129" s="3" t="str">
-        <f>IF(V129&lt;&gt;"",VLOOKUP(V129,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V129&lt;&gt;"",VLOOKUP(V129,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W129" s="3">
@@ -18183,15 +18186,15 @@
         <v>4</v>
       </c>
       <c r="Q130" s="3" t="str">
-        <f>IF(R130&lt;&gt;"",VLOOKUP(R130,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R130&lt;&gt;"",VLOOKUP(R130,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S130" s="3" t="str">
-        <f>IF(T130&lt;&gt;"",VLOOKUP(T130,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T130&lt;&gt;"",VLOOKUP(T130,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U130" s="3" t="str">
-        <f>IF(V130&lt;&gt;"",VLOOKUP(V130,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V130&lt;&gt;"",VLOOKUP(V130,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W130" s="3">
@@ -18258,15 +18261,15 @@
         <v>6</v>
       </c>
       <c r="Q131" s="3" t="str">
-        <f>IF(R131&lt;&gt;"",VLOOKUP(R131,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R131&lt;&gt;"",VLOOKUP(R131,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S131" s="3" t="str">
-        <f>IF(T131&lt;&gt;"",VLOOKUP(T131,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T131&lt;&gt;"",VLOOKUP(T131,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U131" s="3" t="str">
-        <f>IF(V131&lt;&gt;"",VLOOKUP(V131,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V131&lt;&gt;"",VLOOKUP(V131,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W131" s="3">
@@ -18331,19 +18334,19 @@
       <c r="P132">
         <v>0</v>
       </c>
-      <c r="Q132" s="3" t="str">
-        <f>IF(R132&lt;&gt;"",VLOOKUP(R132,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q132" s="3">
+        <f>IF(R132&lt;&gt;"",VLOOKUP(R132,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R132" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S132" s="3" t="str">
-        <f>IF(T132&lt;&gt;"",VLOOKUP(T132,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T132&lt;&gt;"",VLOOKUP(T132,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U132" s="3" t="str">
-        <f>IF(V132&lt;&gt;"",VLOOKUP(V132,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V132&lt;&gt;"",VLOOKUP(V132,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W132" s="3">
@@ -18359,7 +18362,7 @@
       </c>
       <c r="Z132" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>, zoneIds={Wrothgar}, veteran=false</v>
+        <v>, zoneIds={677}, veteran=false</v>
       </c>
       <c r="AA132" s="7" t="str">
         <f t="shared" si="12"/>
@@ -18413,15 +18416,15 @@
         <v>0</v>
       </c>
       <c r="Q133" s="3" t="str">
-        <f>IF(R133&lt;&gt;"",VLOOKUP(R133,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R133&lt;&gt;"",VLOOKUP(R133,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S133" s="3" t="str">
-        <f>IF(T133&lt;&gt;"",VLOOKUP(T133,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T133&lt;&gt;"",VLOOKUP(T133,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U133" s="3" t="str">
-        <f>IF(V133&lt;&gt;"",VLOOKUP(V133,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V133&lt;&gt;"",VLOOKUP(V133,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W133" s="3">
@@ -18465,9 +18468,8 @@
       <c r="D134" t="s">
         <v>2447</v>
       </c>
-      <c r="I134" t="str">
-        <f t="array" ref="I134">IF(VALUE(P134)&gt;0,"Crafted",IF(OR(EXACT(A134,'LibSets constants'!$G$2:$G$99)),"Monster",IF(OR(EXACT(A134,'LibSets constants'!$I$2:$I$99)),"Trial",IF(OR(EXACT(A134,'LibSets constants'!$K$2:$K$99)),"Arena",IF(OR(EXACT(A134,'LibSets constants'!$M$2:$M$99)),"Overland","")))))</f>
-        <v/>
+      <c r="I134" t="s">
+        <v>2574</v>
       </c>
       <c r="K134" t="s">
         <v>105</v>
@@ -18487,16 +18489,19 @@
       <c r="P134">
         <v>0</v>
       </c>
-      <c r="Q134" s="3" t="str">
-        <f>IF(R134&lt;&gt;"",VLOOKUP(R134,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q134" s="3">
+        <f>IF(R134&lt;&gt;"",VLOOKUP(R134,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1080</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="S134" s="3" t="str">
-        <f>IF(T134&lt;&gt;"",VLOOKUP(T134,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T134&lt;&gt;"",VLOOKUP(T134,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U134" s="3" t="str">
-        <f>IF(V134&lt;&gt;"",VLOOKUP(V134,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V134&lt;&gt;"",VLOOKUP(V134,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W134" s="3">
@@ -18512,7 +18517,7 @@
       </c>
       <c r="Z134" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>, veteran=false</v>
+        <v>, zoneIds={1080}, veteran=false</v>
       </c>
       <c r="AA134" s="7" t="str">
         <f t="shared" si="12"/>
@@ -18566,15 +18571,15 @@
         <v>0</v>
       </c>
       <c r="Q135" s="3" t="str">
-        <f>IF(R135&lt;&gt;"",VLOOKUP(R135,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R135&lt;&gt;"",VLOOKUP(R135,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S135" s="3" t="str">
-        <f>IF(T135&lt;&gt;"",VLOOKUP(T135,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T135&lt;&gt;"",VLOOKUP(T135,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U135" s="3" t="str">
-        <f>IF(V135&lt;&gt;"",VLOOKUP(V135,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V135&lt;&gt;"",VLOOKUP(V135,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W135" s="3">
@@ -18641,15 +18646,15 @@
         <v>0</v>
       </c>
       <c r="Q136" s="3" t="str">
-        <f>IF(R136&lt;&gt;"",VLOOKUP(R136,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R136&lt;&gt;"",VLOOKUP(R136,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S136" s="3" t="str">
-        <f>IF(T136&lt;&gt;"",VLOOKUP(T136,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T136&lt;&gt;"",VLOOKUP(T136,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U136" s="3" t="str">
-        <f>IF(V136&lt;&gt;"",VLOOKUP(V136,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V136&lt;&gt;"",VLOOKUP(V136,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W136" s="3">
@@ -18716,15 +18721,15 @@
         <v>0</v>
       </c>
       <c r="Q137" s="3" t="str">
-        <f>IF(R137&lt;&gt;"",VLOOKUP(R137,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R137&lt;&gt;"",VLOOKUP(R137,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S137" s="3" t="str">
-        <f>IF(T137&lt;&gt;"",VLOOKUP(T137,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T137&lt;&gt;"",VLOOKUP(T137,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U137" s="3" t="str">
-        <f>IF(V137&lt;&gt;"",VLOOKUP(V137,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V137&lt;&gt;"",VLOOKUP(V137,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W137" s="3">
@@ -18791,15 +18796,15 @@
         <v>0</v>
       </c>
       <c r="Q138" s="3" t="str">
-        <f>IF(R138&lt;&gt;"",VLOOKUP(R138,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R138&lt;&gt;"",VLOOKUP(R138,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S138" s="3" t="str">
-        <f>IF(T138&lt;&gt;"",VLOOKUP(T138,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T138&lt;&gt;"",VLOOKUP(T138,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U138" s="3" t="str">
-        <f>IF(V138&lt;&gt;"",VLOOKUP(V138,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V138&lt;&gt;"",VLOOKUP(V138,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W138" s="3">
@@ -18866,15 +18871,15 @@
         <v>0</v>
       </c>
       <c r="Q139" s="3" t="str">
-        <f>IF(R139&lt;&gt;"",VLOOKUP(R139,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R139&lt;&gt;"",VLOOKUP(R139,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S139" s="3" t="str">
-        <f>IF(T139&lt;&gt;"",VLOOKUP(T139,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T139&lt;&gt;"",VLOOKUP(T139,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U139" s="3" t="str">
-        <f>IF(V139&lt;&gt;"",VLOOKUP(V139,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V139&lt;&gt;"",VLOOKUP(V139,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W139" s="3">
@@ -18940,19 +18945,19 @@
       <c r="P140">
         <v>0</v>
       </c>
-      <c r="Q140" s="3" t="str">
-        <f>IF(R140&lt;&gt;"",VLOOKUP(R140,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Shadowfen</v>
+      <c r="Q140" s="3">
+        <f>IF(R140&lt;&gt;"",VLOOKUP(R140,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>843</v>
       </c>
       <c r="R140" s="3" t="s">
         <v>53</v>
       </c>
       <c r="S140" s="3" t="str">
-        <f>IF(T140&lt;&gt;"",VLOOKUP(T140,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T140&lt;&gt;"",VLOOKUP(T140,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U140" s="3" t="str">
-        <f>IF(V140&lt;&gt;"",VLOOKUP(V140,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V140&lt;&gt;"",VLOOKUP(V140,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W140" s="3">
@@ -18968,7 +18973,7 @@
       </c>
       <c r="Z140" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>, zoneIds={Shadowfen}, veteran=false</v>
+        <v>, zoneIds={843}, veteran=false</v>
       </c>
       <c r="AA140" s="7" t="str">
         <f t="shared" si="12"/>
@@ -19022,15 +19027,15 @@
         <v>0</v>
       </c>
       <c r="Q141" s="3" t="str">
-        <f>IF(R141&lt;&gt;"",VLOOKUP(R141,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R141&lt;&gt;"",VLOOKUP(R141,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S141" s="3" t="str">
-        <f>IF(T141&lt;&gt;"",VLOOKUP(T141,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T141&lt;&gt;"",VLOOKUP(T141,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U141" s="3" t="str">
-        <f>IF(V141&lt;&gt;"",VLOOKUP(V141,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V141&lt;&gt;"",VLOOKUP(V141,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W141" s="3">
@@ -19097,15 +19102,15 @@
         <v>6</v>
       </c>
       <c r="Q142" s="3" t="str">
-        <f>IF(R142&lt;&gt;"",VLOOKUP(R142,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R142&lt;&gt;"",VLOOKUP(R142,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S142" s="3" t="str">
-        <f>IF(T142&lt;&gt;"",VLOOKUP(T142,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T142&lt;&gt;"",VLOOKUP(T142,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U142" s="3" t="str">
-        <f>IF(V142&lt;&gt;"",VLOOKUP(V142,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V142&lt;&gt;"",VLOOKUP(V142,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W142" s="3">
@@ -19172,15 +19177,15 @@
         <v>0</v>
       </c>
       <c r="Q143" s="3" t="str">
-        <f>IF(R143&lt;&gt;"",VLOOKUP(R143,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R143&lt;&gt;"",VLOOKUP(R143,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S143" s="3" t="str">
-        <f>IF(T143&lt;&gt;"",VLOOKUP(T143,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T143&lt;&gt;"",VLOOKUP(T143,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U143" s="3" t="str">
-        <f>IF(V143&lt;&gt;"",VLOOKUP(V143,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V143&lt;&gt;"",VLOOKUP(V143,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W143" s="3">
@@ -19247,15 +19252,15 @@
         <v>0</v>
       </c>
       <c r="Q144" s="3" t="str">
-        <f>IF(R144&lt;&gt;"",VLOOKUP(R144,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R144&lt;&gt;"",VLOOKUP(R144,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S144" s="3" t="str">
-        <f>IF(T144&lt;&gt;"",VLOOKUP(T144,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T144&lt;&gt;"",VLOOKUP(T144,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U144" s="3" t="str">
-        <f>IF(V144&lt;&gt;"",VLOOKUP(V144,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V144&lt;&gt;"",VLOOKUP(V144,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W144" s="3">
@@ -19322,15 +19327,15 @@
         <v>0</v>
       </c>
       <c r="Q145" s="3" t="str">
-        <f>IF(R145&lt;&gt;"",VLOOKUP(R145,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R145&lt;&gt;"",VLOOKUP(R145,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S145" s="3" t="str">
-        <f>IF(T145&lt;&gt;"",VLOOKUP(T145,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T145&lt;&gt;"",VLOOKUP(T145,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U145" s="3" t="str">
-        <f>IF(V145&lt;&gt;"",VLOOKUP(V145,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V145&lt;&gt;"",VLOOKUP(V145,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W145" s="3">
@@ -19397,15 +19402,15 @@
         <v>0</v>
       </c>
       <c r="Q146" s="3" t="str">
-        <f>IF(R146&lt;&gt;"",VLOOKUP(R146,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R146&lt;&gt;"",VLOOKUP(R146,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S146" s="3" t="str">
-        <f>IF(T146&lt;&gt;"",VLOOKUP(T146,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T146&lt;&gt;"",VLOOKUP(T146,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U146" s="3" t="str">
-        <f>IF(V146&lt;&gt;"",VLOOKUP(V146,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V146&lt;&gt;"",VLOOKUP(V146,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W146" s="3">
@@ -19471,19 +19476,19 @@
       <c r="P147">
         <v>0</v>
       </c>
-      <c r="Q147" s="3" t="str">
-        <f>IF(R147&lt;&gt;"",VLOOKUP(R147,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Rivenspire</v>
+      <c r="Q147" s="3">
+        <f>IF(R147&lt;&gt;"",VLOOKUP(R147,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>130</v>
       </c>
       <c r="R147" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S147" s="3" t="str">
-        <f>IF(T147&lt;&gt;"",VLOOKUP(T147,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T147&lt;&gt;"",VLOOKUP(T147,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U147" s="3" t="str">
-        <f>IF(V147&lt;&gt;"",VLOOKUP(V147,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V147&lt;&gt;"",VLOOKUP(V147,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W147" s="3">
@@ -19499,7 +19504,7 @@
       </c>
       <c r="Z147" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>, zoneIds={Rivenspire}, veteran=false</v>
+        <v>, zoneIds={130}, veteran=false</v>
       </c>
       <c r="AA147" s="7" t="str">
         <f t="shared" si="12"/>
@@ -19550,15 +19555,15 @@
         <v>0</v>
       </c>
       <c r="Q148" s="3" t="str">
-        <f>IF(R148&lt;&gt;"",VLOOKUP(R148,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R148&lt;&gt;"",VLOOKUP(R148,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S148" s="3" t="str">
-        <f>IF(T148&lt;&gt;"",VLOOKUP(T148,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T148&lt;&gt;"",VLOOKUP(T148,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U148" s="3" t="str">
-        <f>IF(V148&lt;&gt;"",VLOOKUP(V148,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V148&lt;&gt;"",VLOOKUP(V148,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W148" s="3">
@@ -19625,15 +19630,15 @@
         <v>8</v>
       </c>
       <c r="Q149" s="3" t="str">
-        <f>IF(R149&lt;&gt;"",VLOOKUP(R149,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R149&lt;&gt;"",VLOOKUP(R149,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S149" s="3" t="str">
-        <f>IF(T149&lt;&gt;"",VLOOKUP(T149,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T149&lt;&gt;"",VLOOKUP(T149,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U149" s="3" t="str">
-        <f>IF(V149&lt;&gt;"",VLOOKUP(V149,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V149&lt;&gt;"",VLOOKUP(V149,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W149" s="3">
@@ -19700,15 +19705,15 @@
         <v>0</v>
       </c>
       <c r="Q150" s="3" t="str">
-        <f>IF(R150&lt;&gt;"",VLOOKUP(R150,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R150&lt;&gt;"",VLOOKUP(R150,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S150" s="3" t="str">
-        <f>IF(T150&lt;&gt;"",VLOOKUP(T150,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T150&lt;&gt;"",VLOOKUP(T150,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U150" s="3" t="str">
-        <f>IF(V150&lt;&gt;"",VLOOKUP(V150,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V150&lt;&gt;"",VLOOKUP(V150,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W150" s="3">
@@ -19775,15 +19780,15 @@
         <v>0</v>
       </c>
       <c r="Q151" s="3" t="str">
-        <f>IF(R151&lt;&gt;"",VLOOKUP(R151,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R151&lt;&gt;"",VLOOKUP(R151,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S151" s="3" t="str">
-        <f>IF(T151&lt;&gt;"",VLOOKUP(T151,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T151&lt;&gt;"",VLOOKUP(T151,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U151" s="3" t="str">
-        <f>IF(V151&lt;&gt;"",VLOOKUP(V151,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V151&lt;&gt;"",VLOOKUP(V151,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W151" s="3">
@@ -19850,15 +19855,15 @@
         <v>0</v>
       </c>
       <c r="Q152" s="3" t="str">
-        <f>IF(R152&lt;&gt;"",VLOOKUP(R152,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R152&lt;&gt;"",VLOOKUP(R152,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S152" s="3" t="str">
-        <f>IF(T152&lt;&gt;"",VLOOKUP(T152,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T152&lt;&gt;"",VLOOKUP(T152,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U152" s="3" t="str">
-        <f>IF(V152&lt;&gt;"",VLOOKUP(V152,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V152&lt;&gt;"",VLOOKUP(V152,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W152" s="3">
@@ -19928,15 +19933,15 @@
         <v>0</v>
       </c>
       <c r="Q153" s="3" t="str">
-        <f>IF(R153&lt;&gt;"",VLOOKUP(R153,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R153&lt;&gt;"",VLOOKUP(R153,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S153" s="3" t="str">
-        <f>IF(T153&lt;&gt;"",VLOOKUP(T153,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T153&lt;&gt;"",VLOOKUP(T153,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U153" s="3" t="str">
-        <f>IF(V153&lt;&gt;"",VLOOKUP(V153,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V153&lt;&gt;"",VLOOKUP(V153,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W153" s="3">
@@ -20003,15 +20008,15 @@
         <v>5</v>
       </c>
       <c r="Q154" s="3" t="str">
-        <f>IF(R154&lt;&gt;"",VLOOKUP(R154,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R154&lt;&gt;"",VLOOKUP(R154,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S154" s="3" t="str">
-        <f>IF(T154&lt;&gt;"",VLOOKUP(T154,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T154&lt;&gt;"",VLOOKUP(T154,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U154" s="3" t="str">
-        <f>IF(V154&lt;&gt;"",VLOOKUP(V154,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V154&lt;&gt;"",VLOOKUP(V154,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W154" s="3">
@@ -20078,15 +20083,15 @@
         <v>0</v>
       </c>
       <c r="Q155" s="3" t="str">
-        <f>IF(R155&lt;&gt;"",VLOOKUP(R155,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R155&lt;&gt;"",VLOOKUP(R155,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S155" s="3" t="str">
-        <f>IF(T155&lt;&gt;"",VLOOKUP(T155,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T155&lt;&gt;"",VLOOKUP(T155,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U155" s="3" t="str">
-        <f>IF(V155&lt;&gt;"",VLOOKUP(V155,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V155&lt;&gt;"",VLOOKUP(V155,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W155" s="3">
@@ -20153,15 +20158,15 @@
         <v>0</v>
       </c>
       <c r="Q156" s="3" t="str">
-        <f>IF(R156&lt;&gt;"",VLOOKUP(R156,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R156&lt;&gt;"",VLOOKUP(R156,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S156" s="3" t="str">
-        <f>IF(T156&lt;&gt;"",VLOOKUP(T156,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T156&lt;&gt;"",VLOOKUP(T156,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U156" s="3" t="str">
-        <f>IF(V156&lt;&gt;"",VLOOKUP(V156,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V156&lt;&gt;"",VLOOKUP(V156,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W156" s="3">
@@ -20228,15 +20233,15 @@
         <v>6</v>
       </c>
       <c r="Q157" s="3" t="str">
-        <f>IF(R157&lt;&gt;"",VLOOKUP(R157,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R157&lt;&gt;"",VLOOKUP(R157,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S157" s="3" t="str">
-        <f>IF(T157&lt;&gt;"",VLOOKUP(T157,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T157&lt;&gt;"",VLOOKUP(T157,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U157" s="3" t="str">
-        <f>IF(V157&lt;&gt;"",VLOOKUP(V157,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V157&lt;&gt;"",VLOOKUP(V157,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W157" s="3">
@@ -20302,19 +20307,19 @@
       <c r="P158">
         <v>0</v>
       </c>
-      <c r="Q158" s="3" t="str">
-        <f>IF(R158&lt;&gt;"",VLOOKUP(R158,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Coldharbour</v>
+      <c r="Q158" s="3">
+        <f>IF(R158&lt;&gt;"",VLOOKUP(R158,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>11</v>
       </c>
       <c r="R158" s="3" t="s">
         <v>47</v>
       </c>
       <c r="S158" s="3" t="str">
-        <f>IF(T158&lt;&gt;"",VLOOKUP(T158,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T158&lt;&gt;"",VLOOKUP(T158,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U158" s="3" t="str">
-        <f>IF(V158&lt;&gt;"",VLOOKUP(V158,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V158&lt;&gt;"",VLOOKUP(V158,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W158" s="3">
@@ -20330,7 +20335,7 @@
       </c>
       <c r="Z158" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>, zoneIds={Coldharbour}, veteran=false</v>
+        <v>, zoneIds={11}, veteran=false</v>
       </c>
       <c r="AA158" s="7" t="str">
         <f t="shared" si="12"/>
@@ -20381,15 +20386,15 @@
         <v>0</v>
       </c>
       <c r="Q159" s="3" t="str">
-        <f>IF(R159&lt;&gt;"",VLOOKUP(R159,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R159&lt;&gt;"",VLOOKUP(R159,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S159" s="3" t="str">
-        <f>IF(T159&lt;&gt;"",VLOOKUP(T159,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T159&lt;&gt;"",VLOOKUP(T159,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U159" s="3" t="str">
-        <f>IF(V159&lt;&gt;"",VLOOKUP(V159,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V159&lt;&gt;"",VLOOKUP(V159,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W159" s="3">
@@ -20456,15 +20461,15 @@
         <v>0</v>
       </c>
       <c r="Q160" s="3" t="str">
-        <f>IF(R160&lt;&gt;"",VLOOKUP(R160,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R160&lt;&gt;"",VLOOKUP(R160,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S160" s="3" t="str">
-        <f>IF(T160&lt;&gt;"",VLOOKUP(T160,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T160&lt;&gt;"",VLOOKUP(T160,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U160" s="3" t="str">
-        <f>IF(V160&lt;&gt;"",VLOOKUP(V160,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V160&lt;&gt;"",VLOOKUP(V160,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W160" s="3">
@@ -20531,15 +20536,15 @@
         <v>0</v>
       </c>
       <c r="Q161" s="3" t="str">
-        <f>IF(R161&lt;&gt;"",VLOOKUP(R161,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R161&lt;&gt;"",VLOOKUP(R161,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S161" s="3" t="str">
-        <f>IF(T161&lt;&gt;"",VLOOKUP(T161,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T161&lt;&gt;"",VLOOKUP(T161,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U161" s="3" t="str">
-        <f>IF(V161&lt;&gt;"",VLOOKUP(V161,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V161&lt;&gt;"",VLOOKUP(V161,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W161" s="3">
@@ -20606,15 +20611,15 @@
         <v>0</v>
       </c>
       <c r="Q162" s="3" t="str">
-        <f>IF(R162&lt;&gt;"",VLOOKUP(R162,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R162&lt;&gt;"",VLOOKUP(R162,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S162" s="3" t="str">
-        <f>IF(T162&lt;&gt;"",VLOOKUP(T162,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T162&lt;&gt;"",VLOOKUP(T162,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U162" s="3" t="str">
-        <f>IF(V162&lt;&gt;"",VLOOKUP(V162,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V162&lt;&gt;"",VLOOKUP(V162,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W162" s="3">
@@ -20681,15 +20686,15 @@
         <v>0</v>
       </c>
       <c r="Q163" s="3" t="str">
-        <f>IF(R163&lt;&gt;"",VLOOKUP(R163,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R163&lt;&gt;"",VLOOKUP(R163,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S163" s="3" t="str">
-        <f>IF(T163&lt;&gt;"",VLOOKUP(T163,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T163&lt;&gt;"",VLOOKUP(T163,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U163" s="3" t="str">
-        <f>IF(V163&lt;&gt;"",VLOOKUP(V163,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V163&lt;&gt;"",VLOOKUP(V163,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W163" s="3">
@@ -20759,15 +20764,15 @@
         <v>0</v>
       </c>
       <c r="Q164" s="3" t="str">
-        <f>IF(R164&lt;&gt;"",VLOOKUP(R164,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R164&lt;&gt;"",VLOOKUP(R164,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S164" s="3" t="str">
-        <f>IF(T164&lt;&gt;"",VLOOKUP(T164,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T164&lt;&gt;"",VLOOKUP(T164,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U164" s="3" t="str">
-        <f>IF(V164&lt;&gt;"",VLOOKUP(V164,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V164&lt;&gt;"",VLOOKUP(V164,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W164" s="3">
@@ -20834,15 +20839,15 @@
         <v>0</v>
       </c>
       <c r="Q165" s="3" t="str">
-        <f>IF(R165&lt;&gt;"",VLOOKUP(R165,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R165&lt;&gt;"",VLOOKUP(R165,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S165" s="3" t="str">
-        <f>IF(T165&lt;&gt;"",VLOOKUP(T165,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T165&lt;&gt;"",VLOOKUP(T165,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U165" s="3" t="str">
-        <f>IF(V165&lt;&gt;"",VLOOKUP(V165,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V165&lt;&gt;"",VLOOKUP(V165,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W165" s="3">
@@ -20908,19 +20913,19 @@
       <c r="P166">
         <v>0</v>
       </c>
-      <c r="Q166" s="3" t="str">
-        <f>IF(R166&lt;&gt;"",VLOOKUP(R166,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Gold Coast</v>
+      <c r="Q166" s="3">
+        <f>IF(R166&lt;&gt;"",VLOOKUP(R166,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1081</v>
       </c>
       <c r="R166" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S166" s="3" t="str">
-        <f>IF(T166&lt;&gt;"",VLOOKUP(T166,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T166&lt;&gt;"",VLOOKUP(T166,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U166" s="3" t="str">
-        <f>IF(V166&lt;&gt;"",VLOOKUP(V166,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V166&lt;&gt;"",VLOOKUP(V166,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W166" s="3">
@@ -20936,7 +20941,7 @@
       </c>
       <c r="Z166" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>, zoneIds={Gold Coast}, veteran=false</v>
+        <v>, zoneIds={1081}, veteran=false</v>
       </c>
       <c r="AA166" s="7" t="str">
         <f t="shared" si="12"/>
@@ -20987,15 +20992,15 @@
         <v>0</v>
       </c>
       <c r="Q167" s="3" t="str">
-        <f>IF(R167&lt;&gt;"",VLOOKUP(R167,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R167&lt;&gt;"",VLOOKUP(R167,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S167" s="3" t="str">
-        <f>IF(T167&lt;&gt;"",VLOOKUP(T167,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T167&lt;&gt;"",VLOOKUP(T167,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U167" s="3" t="str">
-        <f>IF(V167&lt;&gt;"",VLOOKUP(V167,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V167&lt;&gt;"",VLOOKUP(V167,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W167" s="3">
@@ -21062,15 +21067,15 @@
         <v>4</v>
       </c>
       <c r="Q168" s="3" t="str">
-        <f>IF(R168&lt;&gt;"",VLOOKUP(R168,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R168&lt;&gt;"",VLOOKUP(R168,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S168" s="3" t="str">
-        <f>IF(T168&lt;&gt;"",VLOOKUP(T168,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T168&lt;&gt;"",VLOOKUP(T168,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U168" s="3" t="str">
-        <f>IF(V168&lt;&gt;"",VLOOKUP(V168,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V168&lt;&gt;"",VLOOKUP(V168,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W168" s="3">
@@ -21137,15 +21142,15 @@
         <v>0</v>
       </c>
       <c r="Q169" s="3" t="str">
-        <f>IF(R169&lt;&gt;"",VLOOKUP(R169,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R169&lt;&gt;"",VLOOKUP(R169,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S169" s="3" t="str">
-        <f>IF(T169&lt;&gt;"",VLOOKUP(T169,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T169&lt;&gt;"",VLOOKUP(T169,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U169" s="3" t="str">
-        <f>IF(V169&lt;&gt;"",VLOOKUP(V169,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V169&lt;&gt;"",VLOOKUP(V169,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W169" s="3">
@@ -21212,15 +21217,15 @@
         <v>0</v>
       </c>
       <c r="Q170" s="3" t="str">
-        <f>IF(R170&lt;&gt;"",VLOOKUP(R170,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R170&lt;&gt;"",VLOOKUP(R170,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S170" s="3" t="str">
-        <f>IF(T170&lt;&gt;"",VLOOKUP(T170,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T170&lt;&gt;"",VLOOKUP(T170,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U170" s="3" t="str">
-        <f>IF(V170&lt;&gt;"",VLOOKUP(V170,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V170&lt;&gt;"",VLOOKUP(V170,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W170" s="3">
@@ -21287,15 +21292,15 @@
         <v>0</v>
       </c>
       <c r="Q171" s="3" t="str">
-        <f>IF(R171&lt;&gt;"",VLOOKUP(R171,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R171&lt;&gt;"",VLOOKUP(R171,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S171" s="3" t="str">
-        <f>IF(T171&lt;&gt;"",VLOOKUP(T171,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T171&lt;&gt;"",VLOOKUP(T171,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U171" s="3" t="str">
-        <f>IF(V171&lt;&gt;"",VLOOKUP(V171,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V171&lt;&gt;"",VLOOKUP(V171,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W171" s="3">
@@ -21362,15 +21367,15 @@
         <v>0</v>
       </c>
       <c r="Q172" s="3" t="str">
-        <f>IF(R172&lt;&gt;"",VLOOKUP(R172,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R172&lt;&gt;"",VLOOKUP(R172,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S172" s="3" t="str">
-        <f>IF(T172&lt;&gt;"",VLOOKUP(T172,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T172&lt;&gt;"",VLOOKUP(T172,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U172" s="3" t="str">
-        <f>IF(V172&lt;&gt;"",VLOOKUP(V172,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V172&lt;&gt;"",VLOOKUP(V172,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W172" s="3">
@@ -21440,15 +21445,15 @@
         <v>0</v>
       </c>
       <c r="Q173" s="3" t="str">
-        <f>IF(R173&lt;&gt;"",VLOOKUP(R173,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R173&lt;&gt;"",VLOOKUP(R173,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S173" s="3" t="str">
-        <f>IF(T173&lt;&gt;"",VLOOKUP(T173,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T173&lt;&gt;"",VLOOKUP(T173,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U173" s="3" t="str">
-        <f>IF(V173&lt;&gt;"",VLOOKUP(V173,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V173&lt;&gt;"",VLOOKUP(V173,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W173" s="3">
@@ -21515,15 +21520,15 @@
         <v>4</v>
       </c>
       <c r="Q174" s="3" t="str">
-        <f>IF(R174&lt;&gt;"",VLOOKUP(R174,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R174&lt;&gt;"",VLOOKUP(R174,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S174" s="3" t="str">
-        <f>IF(T174&lt;&gt;"",VLOOKUP(T174,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T174&lt;&gt;"",VLOOKUP(T174,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U174" s="3" t="str">
-        <f>IF(V174&lt;&gt;"",VLOOKUP(V174,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V174&lt;&gt;"",VLOOKUP(V174,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W174" s="3">
@@ -21590,15 +21595,15 @@
         <v>0</v>
       </c>
       <c r="Q175" s="3" t="str">
-        <f>IF(R175&lt;&gt;"",VLOOKUP(R175,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R175&lt;&gt;"",VLOOKUP(R175,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S175" s="3" t="str">
-        <f>IF(T175&lt;&gt;"",VLOOKUP(T175,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T175&lt;&gt;"",VLOOKUP(T175,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U175" s="3" t="str">
-        <f>IF(V175&lt;&gt;"",VLOOKUP(V175,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V175&lt;&gt;"",VLOOKUP(V175,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W175" s="3">
@@ -21663,19 +21668,19 @@
       <c r="P176">
         <v>0</v>
       </c>
-      <c r="Q176" s="3" t="str">
-        <f>IF(R176&lt;&gt;"",VLOOKUP(R176,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q176" s="3">
+        <f>IF(R176&lt;&gt;"",VLOOKUP(R176,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R176" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S176" s="3" t="str">
-        <f>IF(T176&lt;&gt;"",VLOOKUP(T176,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T176&lt;&gt;"",VLOOKUP(T176,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U176" s="3" t="str">
-        <f>IF(V176&lt;&gt;"",VLOOKUP(V176,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V176&lt;&gt;"",VLOOKUP(V176,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W176" s="3">
@@ -21691,7 +21696,7 @@
       </c>
       <c r="Z176" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>, zoneIds={Murkmire}, veteran=false</v>
+        <v>, zoneIds={1082}, veteran=false</v>
       </c>
       <c r="AA176" s="7" t="str">
         <f t="shared" si="12"/>
@@ -21742,15 +21747,15 @@
         <v>0</v>
       </c>
       <c r="Q177" s="3" t="str">
-        <f>IF(R177&lt;&gt;"",VLOOKUP(R177,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R177&lt;&gt;"",VLOOKUP(R177,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S177" s="3" t="str">
-        <f>IF(T177&lt;&gt;"",VLOOKUP(T177,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T177&lt;&gt;"",VLOOKUP(T177,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U177" s="3" t="str">
-        <f>IF(V177&lt;&gt;"",VLOOKUP(V177,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V177&lt;&gt;"",VLOOKUP(V177,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W177" s="3">
@@ -21817,15 +21822,15 @@
         <v>0</v>
       </c>
       <c r="Q178" s="3" t="str">
-        <f>IF(R178&lt;&gt;"",VLOOKUP(R178,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R178&lt;&gt;"",VLOOKUP(R178,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S178" s="3" t="str">
-        <f>IF(T178&lt;&gt;"",VLOOKUP(T178,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T178&lt;&gt;"",VLOOKUP(T178,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U178" s="3" t="str">
-        <f>IF(V178&lt;&gt;"",VLOOKUP(V178,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V178&lt;&gt;"",VLOOKUP(V178,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W178" s="3">
@@ -21891,19 +21896,19 @@
       <c r="P179">
         <v>0</v>
       </c>
-      <c r="Q179" s="3" t="str">
-        <f>IF(R179&lt;&gt;"",VLOOKUP(R179,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Grahtwood</v>
+      <c r="Q179" s="3">
+        <f>IF(R179&lt;&gt;"",VLOOKUP(R179,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>126</v>
       </c>
       <c r="R179" s="3" t="s">
         <v>43</v>
       </c>
       <c r="S179" s="3" t="str">
-        <f>IF(T179&lt;&gt;"",VLOOKUP(T179,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T179&lt;&gt;"",VLOOKUP(T179,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U179" s="3" t="str">
-        <f>IF(V179&lt;&gt;"",VLOOKUP(V179,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V179&lt;&gt;"",VLOOKUP(V179,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W179" s="3">
@@ -21919,7 +21924,7 @@
       </c>
       <c r="Z179" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>, zoneIds={Grahtwood}, veteran=false</v>
+        <v>, zoneIds={126}, veteran=false</v>
       </c>
       <c r="AA179" s="7" t="str">
         <f t="shared" si="12"/>
@@ -21970,15 +21975,15 @@
         <v>0</v>
       </c>
       <c r="Q180" s="3" t="str">
-        <f>IF(R180&lt;&gt;"",VLOOKUP(R180,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R180&lt;&gt;"",VLOOKUP(R180,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S180" s="3" t="str">
-        <f>IF(T180&lt;&gt;"",VLOOKUP(T180,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T180&lt;&gt;"",VLOOKUP(T180,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U180" s="3" t="str">
-        <f>IF(V180&lt;&gt;"",VLOOKUP(V180,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V180&lt;&gt;"",VLOOKUP(V180,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W180" s="3">
@@ -22048,15 +22053,15 @@
         <v>0</v>
       </c>
       <c r="Q181" s="3" t="str">
-        <f>IF(R181&lt;&gt;"",VLOOKUP(R181,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R181&lt;&gt;"",VLOOKUP(R181,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S181" s="3" t="str">
-        <f>IF(T181&lt;&gt;"",VLOOKUP(T181,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T181&lt;&gt;"",VLOOKUP(T181,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U181" s="3" t="str">
-        <f>IF(V181&lt;&gt;"",VLOOKUP(V181,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V181&lt;&gt;"",VLOOKUP(V181,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W181" s="3">
@@ -22123,15 +22128,15 @@
         <v>0</v>
       </c>
       <c r="Q182" s="3" t="str">
-        <f>IF(R182&lt;&gt;"",VLOOKUP(R182,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R182&lt;&gt;"",VLOOKUP(R182,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S182" s="3" t="str">
-        <f>IF(T182&lt;&gt;"",VLOOKUP(T182,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T182&lt;&gt;"",VLOOKUP(T182,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U182" s="3" t="str">
-        <f>IF(V182&lt;&gt;"",VLOOKUP(V182,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V182&lt;&gt;"",VLOOKUP(V182,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W182" s="3">
@@ -22201,15 +22206,15 @@
         <v>0</v>
       </c>
       <c r="Q183" s="3" t="str">
-        <f>IF(R183&lt;&gt;"",VLOOKUP(R183,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R183&lt;&gt;"",VLOOKUP(R183,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S183" s="3" t="str">
-        <f>IF(T183&lt;&gt;"",VLOOKUP(T183,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T183&lt;&gt;"",VLOOKUP(T183,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U183" s="3" t="str">
-        <f>IF(V183&lt;&gt;"",VLOOKUP(V183,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V183&lt;&gt;"",VLOOKUP(V183,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W183" s="3">
@@ -22276,15 +22281,15 @@
         <v>0</v>
       </c>
       <c r="Q184" s="3" t="str">
-        <f>IF(R184&lt;&gt;"",VLOOKUP(R184,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R184&lt;&gt;"",VLOOKUP(R184,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S184" s="3" t="str">
-        <f>IF(T184&lt;&gt;"",VLOOKUP(T184,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T184&lt;&gt;"",VLOOKUP(T184,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U184" s="3" t="str">
-        <f>IF(V184&lt;&gt;"",VLOOKUP(V184,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V184&lt;&gt;"",VLOOKUP(V184,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W184" s="3">
@@ -22351,15 +22356,15 @@
         <v>0</v>
       </c>
       <c r="Q185" s="3" t="str">
-        <f>IF(R185&lt;&gt;"",VLOOKUP(R185,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R185&lt;&gt;"",VLOOKUP(R185,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S185" s="3" t="str">
-        <f>IF(T185&lt;&gt;"",VLOOKUP(T185,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T185&lt;&gt;"",VLOOKUP(T185,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U185" s="3" t="str">
-        <f>IF(V185&lt;&gt;"",VLOOKUP(V185,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V185&lt;&gt;"",VLOOKUP(V185,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W185" s="3">
@@ -22426,15 +22431,15 @@
         <v>9</v>
       </c>
       <c r="Q186" s="3" t="str">
-        <f>IF(R186&lt;&gt;"",VLOOKUP(R186,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R186&lt;&gt;"",VLOOKUP(R186,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S186" s="3" t="str">
-        <f>IF(T186&lt;&gt;"",VLOOKUP(T186,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T186&lt;&gt;"",VLOOKUP(T186,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U186" s="3" t="str">
-        <f>IF(V186&lt;&gt;"",VLOOKUP(V186,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V186&lt;&gt;"",VLOOKUP(V186,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W186" s="3">
@@ -22501,15 +22506,15 @@
         <v>0</v>
       </c>
       <c r="Q187" s="3" t="str">
-        <f>IF(R187&lt;&gt;"",VLOOKUP(R187,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R187&lt;&gt;"",VLOOKUP(R187,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S187" s="3" t="str">
-        <f>IF(T187&lt;&gt;"",VLOOKUP(T187,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T187&lt;&gt;"",VLOOKUP(T187,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U187" s="3" t="str">
-        <f>IF(V187&lt;&gt;"",VLOOKUP(V187,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V187&lt;&gt;"",VLOOKUP(V187,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W187" s="3">
@@ -22576,15 +22581,15 @@
         <v>0</v>
       </c>
       <c r="Q188" s="3" t="str">
-        <f>IF(R188&lt;&gt;"",VLOOKUP(R188,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R188&lt;&gt;"",VLOOKUP(R188,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S188" s="3" t="str">
-        <f>IF(T188&lt;&gt;"",VLOOKUP(T188,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T188&lt;&gt;"",VLOOKUP(T188,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U188" s="3" t="str">
-        <f>IF(V188&lt;&gt;"",VLOOKUP(V188,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V188&lt;&gt;"",VLOOKUP(V188,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W188" s="3">
@@ -22651,15 +22656,15 @@
         <v>0</v>
       </c>
       <c r="Q189" s="3" t="str">
-        <f>IF(R189&lt;&gt;"",VLOOKUP(R189,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R189&lt;&gt;"",VLOOKUP(R189,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S189" s="3" t="str">
-        <f>IF(T189&lt;&gt;"",VLOOKUP(T189,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T189&lt;&gt;"",VLOOKUP(T189,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U189" s="3" t="str">
-        <f>IF(V189&lt;&gt;"",VLOOKUP(V189,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V189&lt;&gt;"",VLOOKUP(V189,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W189" s="3">
@@ -22729,15 +22734,15 @@
         <v>0</v>
       </c>
       <c r="Q190" s="3" t="str">
-        <f>IF(R190&lt;&gt;"",VLOOKUP(R190,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R190&lt;&gt;"",VLOOKUP(R190,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S190" s="3" t="str">
-        <f>IF(T190&lt;&gt;"",VLOOKUP(T190,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T190&lt;&gt;"",VLOOKUP(T190,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U190" s="3" t="str">
-        <f>IF(V190&lt;&gt;"",VLOOKUP(V190,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V190&lt;&gt;"",VLOOKUP(V190,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W190" s="3">
@@ -22804,15 +22809,15 @@
         <v>0</v>
       </c>
       <c r="Q191" s="3" t="str">
-        <f>IF(R191&lt;&gt;"",VLOOKUP(R191,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R191&lt;&gt;"",VLOOKUP(R191,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S191" s="3" t="str">
-        <f>IF(T191&lt;&gt;"",VLOOKUP(T191,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T191&lt;&gt;"",VLOOKUP(T191,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U191" s="3" t="str">
-        <f>IF(V191&lt;&gt;"",VLOOKUP(V191,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V191&lt;&gt;"",VLOOKUP(V191,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W191" s="3">
@@ -22879,15 +22884,15 @@
         <v>0</v>
       </c>
       <c r="Q192" s="3" t="str">
-        <f>IF(R192&lt;&gt;"",VLOOKUP(R192,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R192&lt;&gt;"",VLOOKUP(R192,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S192" s="3" t="str">
-        <f>IF(T192&lt;&gt;"",VLOOKUP(T192,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T192&lt;&gt;"",VLOOKUP(T192,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U192" s="3" t="str">
-        <f>IF(V192&lt;&gt;"",VLOOKUP(V192,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V192&lt;&gt;"",VLOOKUP(V192,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W192" s="3">
@@ -22954,15 +22959,15 @@
         <v>6</v>
       </c>
       <c r="Q193" s="3" t="str">
-        <f>IF(R193&lt;&gt;"",VLOOKUP(R193,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R193&lt;&gt;"",VLOOKUP(R193,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S193" s="3" t="str">
-        <f>IF(T193&lt;&gt;"",VLOOKUP(T193,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T193&lt;&gt;"",VLOOKUP(T193,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U193" s="3" t="str">
-        <f>IF(V193&lt;&gt;"",VLOOKUP(V193,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V193&lt;&gt;"",VLOOKUP(V193,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W193" s="3">
@@ -23029,15 +23034,15 @@
         <v>0</v>
       </c>
       <c r="Q194" s="3" t="str">
-        <f>IF(R194&lt;&gt;"",VLOOKUP(R194,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R194&lt;&gt;"",VLOOKUP(R194,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S194" s="3" t="str">
-        <f>IF(T194&lt;&gt;"",VLOOKUP(T194,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T194&lt;&gt;"",VLOOKUP(T194,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U194" s="3" t="str">
-        <f>IF(V194&lt;&gt;"",VLOOKUP(V194,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V194&lt;&gt;"",VLOOKUP(V194,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W194" s="3">
@@ -23107,15 +23112,15 @@
         <v>0</v>
       </c>
       <c r="Q195" s="3" t="str">
-        <f>IF(R195&lt;&gt;"",VLOOKUP(R195,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R195&lt;&gt;"",VLOOKUP(R195,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S195" s="3" t="str">
-        <f>IF(T195&lt;&gt;"",VLOOKUP(T195,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T195&lt;&gt;"",VLOOKUP(T195,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U195" s="3" t="str">
-        <f>IF(V195&lt;&gt;"",VLOOKUP(V195,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V195&lt;&gt;"",VLOOKUP(V195,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W195" s="3">
@@ -23182,15 +23187,15 @@
         <v>2</v>
       </c>
       <c r="Q196" s="3" t="str">
-        <f>IF(R196&lt;&gt;"",VLOOKUP(R196,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R196&lt;&gt;"",VLOOKUP(R196,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S196" s="3" t="str">
-        <f>IF(T196&lt;&gt;"",VLOOKUP(T196,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T196&lt;&gt;"",VLOOKUP(T196,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U196" s="3" t="str">
-        <f>IF(V196&lt;&gt;"",VLOOKUP(V196,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V196&lt;&gt;"",VLOOKUP(V196,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W196" s="3">
@@ -23257,15 +23262,15 @@
         <v>0</v>
       </c>
       <c r="Q197" s="3" t="str">
-        <f>IF(R197&lt;&gt;"",VLOOKUP(R197,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R197&lt;&gt;"",VLOOKUP(R197,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S197" s="3" t="str">
-        <f>IF(T197&lt;&gt;"",VLOOKUP(T197,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T197&lt;&gt;"",VLOOKUP(T197,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U197" s="3" t="str">
-        <f>IF(V197&lt;&gt;"",VLOOKUP(V197,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V197&lt;&gt;"",VLOOKUP(V197,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W197" s="3">
@@ -23332,15 +23337,15 @@
         <v>0</v>
       </c>
       <c r="Q198" s="3" t="str">
-        <f>IF(R198&lt;&gt;"",VLOOKUP(R198,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R198&lt;&gt;"",VLOOKUP(R198,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S198" s="3" t="str">
-        <f>IF(T198&lt;&gt;"",VLOOKUP(T198,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T198&lt;&gt;"",VLOOKUP(T198,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U198" s="3" t="str">
-        <f>IF(V198&lt;&gt;"",VLOOKUP(V198,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V198&lt;&gt;"",VLOOKUP(V198,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W198" s="3">
@@ -23407,15 +23412,15 @@
         <v>7</v>
       </c>
       <c r="Q199" s="3" t="str">
-        <f>IF(R199&lt;&gt;"",VLOOKUP(R199,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R199&lt;&gt;"",VLOOKUP(R199,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S199" s="3" t="str">
-        <f>IF(T199&lt;&gt;"",VLOOKUP(T199,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T199&lt;&gt;"",VLOOKUP(T199,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U199" s="3" t="str">
-        <f>IF(V199&lt;&gt;"",VLOOKUP(V199,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V199&lt;&gt;"",VLOOKUP(V199,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W199" s="3">
@@ -23482,15 +23487,15 @@
         <v>9</v>
       </c>
       <c r="Q200" s="3" t="str">
-        <f>IF(R200&lt;&gt;"",VLOOKUP(R200,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R200&lt;&gt;"",VLOOKUP(R200,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S200" s="3" t="str">
-        <f>IF(T200&lt;&gt;"",VLOOKUP(T200,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T200&lt;&gt;"",VLOOKUP(T200,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U200" s="3" t="str">
-        <f>IF(V200&lt;&gt;"",VLOOKUP(V200,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V200&lt;&gt;"",VLOOKUP(V200,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W200" s="3">
@@ -23557,15 +23562,15 @@
         <v>0</v>
       </c>
       <c r="Q201" s="3" t="str">
-        <f>IF(R201&lt;&gt;"",VLOOKUP(R201,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R201&lt;&gt;"",VLOOKUP(R201,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S201" s="3" t="str">
-        <f>IF(T201&lt;&gt;"",VLOOKUP(T201,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T201&lt;&gt;"",VLOOKUP(T201,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U201" s="3" t="str">
-        <f>IF(V201&lt;&gt;"",VLOOKUP(V201,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V201&lt;&gt;"",VLOOKUP(V201,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W201" s="3">
@@ -23632,15 +23637,15 @@
         <v>8</v>
       </c>
       <c r="Q202" s="3" t="str">
-        <f>IF(R202&lt;&gt;"",VLOOKUP(R202,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R202&lt;&gt;"",VLOOKUP(R202,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S202" s="3" t="str">
-        <f>IF(T202&lt;&gt;"",VLOOKUP(T202,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T202&lt;&gt;"",VLOOKUP(T202,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U202" s="3" t="str">
-        <f>IF(V202&lt;&gt;"",VLOOKUP(V202,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V202&lt;&gt;"",VLOOKUP(V202,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W202" s="3">
@@ -23707,15 +23712,15 @@
         <v>0</v>
       </c>
       <c r="Q203" s="3" t="str">
-        <f>IF(R203&lt;&gt;"",VLOOKUP(R203,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R203&lt;&gt;"",VLOOKUP(R203,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S203" s="3" t="str">
-        <f>IF(T203&lt;&gt;"",VLOOKUP(T203,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T203&lt;&gt;"",VLOOKUP(T203,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U203" s="3" t="str">
-        <f>IF(V203&lt;&gt;"",VLOOKUP(V203,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V203&lt;&gt;"",VLOOKUP(V203,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W203" s="3">
@@ -23782,15 +23787,15 @@
         <v>8</v>
       </c>
       <c r="Q204" s="3" t="str">
-        <f>IF(R204&lt;&gt;"",VLOOKUP(R204,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R204&lt;&gt;"",VLOOKUP(R204,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S204" s="3" t="str">
-        <f>IF(T204&lt;&gt;"",VLOOKUP(T204,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T204&lt;&gt;"",VLOOKUP(T204,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U204" s="3" t="str">
-        <f>IF(V204&lt;&gt;"",VLOOKUP(V204,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V204&lt;&gt;"",VLOOKUP(V204,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W204" s="3">
@@ -23856,19 +23861,19 @@
       <c r="P205">
         <v>0</v>
       </c>
-      <c r="Q205" s="3" t="str">
-        <f>IF(R205&lt;&gt;"",VLOOKUP(R205,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Bangkorai</v>
+      <c r="Q205" s="3">
+        <f>IF(R205&lt;&gt;"",VLOOKUP(R205,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>38</v>
       </c>
       <c r="R205" s="3" t="s">
         <v>57</v>
       </c>
       <c r="S205" s="3" t="str">
-        <f>IF(T205&lt;&gt;"",VLOOKUP(T205,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T205&lt;&gt;"",VLOOKUP(T205,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U205" s="3" t="str">
-        <f>IF(V205&lt;&gt;"",VLOOKUP(V205,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V205&lt;&gt;"",VLOOKUP(V205,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W205" s="3">
@@ -23884,7 +23889,7 @@
       </c>
       <c r="Z205" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Bangkorai}, veteran=false</v>
+        <v>, zoneIds={38}, veteran=false</v>
       </c>
       <c r="AA205" s="7" t="str">
         <f t="shared" si="17"/>
@@ -23933,19 +23938,19 @@
       <c r="P206">
         <v>0</v>
       </c>
-      <c r="Q206" s="3" t="str">
-        <f>IF(R206&lt;&gt;"",VLOOKUP(R206,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q206" s="3">
+        <f>IF(R206&lt;&gt;"",VLOOKUP(R206,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R206" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S206" s="3" t="str">
-        <f>IF(T206&lt;&gt;"",VLOOKUP(T206,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T206&lt;&gt;"",VLOOKUP(T206,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U206" s="3" t="str">
-        <f>IF(V206&lt;&gt;"",VLOOKUP(V206,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V206&lt;&gt;"",VLOOKUP(V206,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W206" s="3">
@@ -23961,7 +23966,7 @@
       </c>
       <c r="Z206" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Wrothgar}, veteran=false</v>
+        <v>, zoneIds={677}, veteran=false</v>
       </c>
       <c r="AA206" s="7" t="str">
         <f t="shared" si="17"/>
@@ -24012,15 +24017,15 @@
         <v>9</v>
       </c>
       <c r="Q207" s="3" t="str">
-        <f>IF(R207&lt;&gt;"",VLOOKUP(R207,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R207&lt;&gt;"",VLOOKUP(R207,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S207" s="3" t="str">
-        <f>IF(T207&lt;&gt;"",VLOOKUP(T207,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T207&lt;&gt;"",VLOOKUP(T207,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U207" s="3" t="str">
-        <f>IF(V207&lt;&gt;"",VLOOKUP(V207,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V207&lt;&gt;"",VLOOKUP(V207,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W207" s="3">
@@ -24087,15 +24092,15 @@
         <v>0</v>
       </c>
       <c r="Q208" s="3" t="str">
-        <f>IF(R208&lt;&gt;"",VLOOKUP(R208,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R208&lt;&gt;"",VLOOKUP(R208,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S208" s="3" t="str">
-        <f>IF(T208&lt;&gt;"",VLOOKUP(T208,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T208&lt;&gt;"",VLOOKUP(T208,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U208" s="3" t="str">
-        <f>IF(V208&lt;&gt;"",VLOOKUP(V208,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V208&lt;&gt;"",VLOOKUP(V208,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W208" s="3">
@@ -24162,15 +24167,15 @@
         <v>0</v>
       </c>
       <c r="Q209" s="3" t="str">
-        <f>IF(R209&lt;&gt;"",VLOOKUP(R209,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R209&lt;&gt;"",VLOOKUP(R209,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S209" s="3" t="str">
-        <f>IF(T209&lt;&gt;"",VLOOKUP(T209,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T209&lt;&gt;"",VLOOKUP(T209,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U209" s="3" t="str">
-        <f>IF(V209&lt;&gt;"",VLOOKUP(V209,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V209&lt;&gt;"",VLOOKUP(V209,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W209" s="3">
@@ -24235,19 +24240,19 @@
       <c r="P210">
         <v>0</v>
       </c>
-      <c r="Q210" s="3" t="str">
-        <f>IF(R210&lt;&gt;"",VLOOKUP(R210,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q210" s="3">
+        <f>IF(R210&lt;&gt;"",VLOOKUP(R210,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R210" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S210" s="3" t="str">
-        <f>IF(T210&lt;&gt;"",VLOOKUP(T210,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T210&lt;&gt;"",VLOOKUP(T210,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U210" s="3" t="str">
-        <f>IF(V210&lt;&gt;"",VLOOKUP(V210,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V210&lt;&gt;"",VLOOKUP(V210,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W210" s="3">
@@ -24263,7 +24268,7 @@
       </c>
       <c r="Z210" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Murkmire}, veteran=true</v>
+        <v>, zoneIds={1082}, veteran=true</v>
       </c>
       <c r="AA210" s="7" t="str">
         <f t="shared" si="17"/>
@@ -24314,15 +24319,15 @@
         <v>0</v>
       </c>
       <c r="Q211" s="3" t="str">
-        <f>IF(R211&lt;&gt;"",VLOOKUP(R211,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R211&lt;&gt;"",VLOOKUP(R211,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S211" s="3" t="str">
-        <f>IF(T211&lt;&gt;"",VLOOKUP(T211,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T211&lt;&gt;"",VLOOKUP(T211,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U211" s="3" t="str">
-        <f>IF(V211&lt;&gt;"",VLOOKUP(V211,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V211&lt;&gt;"",VLOOKUP(V211,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W211" s="3">
@@ -24387,19 +24392,19 @@
       <c r="P212">
         <v>0</v>
       </c>
-      <c r="Q212" s="3" t="str">
-        <f>IF(R212&lt;&gt;"",VLOOKUP(R212,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q212" s="3">
+        <f>IF(R212&lt;&gt;"",VLOOKUP(R212,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R212" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S212" s="3" t="str">
-        <f>IF(T212&lt;&gt;"",VLOOKUP(T212,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T212&lt;&gt;"",VLOOKUP(T212,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U212" s="3" t="str">
-        <f>IF(V212&lt;&gt;"",VLOOKUP(V212,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V212&lt;&gt;"",VLOOKUP(V212,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W212" s="3">
@@ -24415,7 +24420,7 @@
       </c>
       <c r="Z212" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Murkmire}, veteran=true</v>
+        <v>, zoneIds={1082}, veteran=true</v>
       </c>
       <c r="AA212" s="7" t="str">
         <f t="shared" si="17"/>
@@ -24464,19 +24469,19 @@
       <c r="P213">
         <v>0</v>
       </c>
-      <c r="Q213" s="3" t="str">
-        <f>IF(R213&lt;&gt;"",VLOOKUP(R213,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q213" s="3">
+        <f>IF(R213&lt;&gt;"",VLOOKUP(R213,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R213" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S213" s="3" t="str">
-        <f>IF(T213&lt;&gt;"",VLOOKUP(T213,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T213&lt;&gt;"",VLOOKUP(T213,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U213" s="3" t="str">
-        <f>IF(V213&lt;&gt;"",VLOOKUP(V213,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V213&lt;&gt;"",VLOOKUP(V213,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W213" s="3">
@@ -24492,7 +24497,7 @@
       </c>
       <c r="Z213" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Murkmire}, veteran=true</v>
+        <v>, zoneIds={1082}, veteran=true</v>
       </c>
       <c r="AA213" s="7" t="str">
         <f t="shared" si="17"/>
@@ -24541,19 +24546,19 @@
       <c r="P214">
         <v>0</v>
       </c>
-      <c r="Q214" s="3" t="str">
-        <f>IF(R214&lt;&gt;"",VLOOKUP(R214,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q214" s="3">
+        <f>IF(R214&lt;&gt;"",VLOOKUP(R214,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R214" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S214" s="3" t="str">
-        <f>IF(T214&lt;&gt;"",VLOOKUP(T214,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T214&lt;&gt;"",VLOOKUP(T214,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U214" s="3" t="str">
-        <f>IF(V214&lt;&gt;"",VLOOKUP(V214,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V214&lt;&gt;"",VLOOKUP(V214,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W214" s="3">
@@ -24569,7 +24574,7 @@
       </c>
       <c r="Z214" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Murkmire}, veteran=true</v>
+        <v>, zoneIds={1082}, veteran=true</v>
       </c>
       <c r="AA214" s="7" t="str">
         <f t="shared" si="17"/>
@@ -24620,15 +24625,15 @@
         <v>0</v>
       </c>
       <c r="Q215" s="3" t="str">
-        <f>IF(R215&lt;&gt;"",VLOOKUP(R215,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R215&lt;&gt;"",VLOOKUP(R215,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S215" s="3" t="str">
-        <f>IF(T215&lt;&gt;"",VLOOKUP(T215,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T215&lt;&gt;"",VLOOKUP(T215,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U215" s="3" t="str">
-        <f>IF(V215&lt;&gt;"",VLOOKUP(V215,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V215&lt;&gt;"",VLOOKUP(V215,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W215" s="3">
@@ -24693,19 +24698,19 @@
       <c r="P216">
         <v>0</v>
       </c>
-      <c r="Q216" s="3" t="str">
-        <f>IF(R216&lt;&gt;"",VLOOKUP(R216,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q216" s="3">
+        <f>IF(R216&lt;&gt;"",VLOOKUP(R216,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R216" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S216" s="3" t="str">
-        <f>IF(T216&lt;&gt;"",VLOOKUP(T216,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T216&lt;&gt;"",VLOOKUP(T216,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U216" s="3" t="str">
-        <f>IF(V216&lt;&gt;"",VLOOKUP(V216,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V216&lt;&gt;"",VLOOKUP(V216,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W216" s="3">
@@ -24721,7 +24726,7 @@
       </c>
       <c r="Z216" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Murkmire}, veteran=true</v>
+        <v>, zoneIds={1082}, veteran=true</v>
       </c>
       <c r="AA216" s="7" t="str">
         <f t="shared" si="17"/>
@@ -24770,19 +24775,19 @@
       <c r="P217">
         <v>0</v>
       </c>
-      <c r="Q217" s="3" t="str">
-        <f>IF(R217&lt;&gt;"",VLOOKUP(R217,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q217" s="3">
+        <f>IF(R217&lt;&gt;"",VLOOKUP(R217,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R217" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S217" s="3" t="str">
-        <f>IF(T217&lt;&gt;"",VLOOKUP(T217,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T217&lt;&gt;"",VLOOKUP(T217,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U217" s="3" t="str">
-        <f>IF(V217&lt;&gt;"",VLOOKUP(V217,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V217&lt;&gt;"",VLOOKUP(V217,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W217" s="3">
@@ -24798,7 +24803,7 @@
       </c>
       <c r="Z217" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Murkmire}, veteran=true</v>
+        <v>, zoneIds={1082}, veteran=true</v>
       </c>
       <c r="AA217" s="7" t="str">
         <f t="shared" si="17"/>
@@ -24847,19 +24852,19 @@
       <c r="P218">
         <v>0</v>
       </c>
-      <c r="Q218" s="3" t="str">
-        <f>IF(R218&lt;&gt;"",VLOOKUP(R218,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q218" s="3">
+        <f>IF(R218&lt;&gt;"",VLOOKUP(R218,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R218" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S218" s="3" t="str">
-        <f>IF(T218&lt;&gt;"",VLOOKUP(T218,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T218&lt;&gt;"",VLOOKUP(T218,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U218" s="3" t="str">
-        <f>IF(V218&lt;&gt;"",VLOOKUP(V218,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V218&lt;&gt;"",VLOOKUP(V218,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W218" s="3">
@@ -24875,7 +24880,7 @@
       </c>
       <c r="Z218" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Wrothgar}, veteran=false</v>
+        <v>, zoneIds={677}, veteran=false</v>
       </c>
       <c r="AA218" s="7" t="str">
         <f t="shared" si="17"/>
@@ -24925,19 +24930,19 @@
       <c r="P219">
         <v>0</v>
       </c>
-      <c r="Q219" s="3" t="str">
-        <f>IF(R219&lt;&gt;"",VLOOKUP(R219,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Stormhaven</v>
+      <c r="Q219" s="3">
+        <f>IF(R219&lt;&gt;"",VLOOKUP(R219,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1010</v>
       </c>
       <c r="R219" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S219" s="3" t="str">
-        <f>IF(T219&lt;&gt;"",VLOOKUP(T219,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T219&lt;&gt;"",VLOOKUP(T219,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U219" s="3" t="str">
-        <f>IF(V219&lt;&gt;"",VLOOKUP(V219,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V219&lt;&gt;"",VLOOKUP(V219,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W219" s="3">
@@ -24953,7 +24958,7 @@
       </c>
       <c r="Z219" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Stormhaven}, veteran=false</v>
+        <v>, zoneIds={1010}, veteran=false</v>
       </c>
       <c r="AA219" s="7" t="str">
         <f t="shared" si="17"/>
@@ -25004,15 +25009,15 @@
         <v>0</v>
       </c>
       <c r="Q220" s="3" t="str">
-        <f>IF(R220&lt;&gt;"",VLOOKUP(R220,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R220&lt;&gt;"",VLOOKUP(R220,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S220" s="3" t="str">
-        <f>IF(T220&lt;&gt;"",VLOOKUP(T220,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T220&lt;&gt;"",VLOOKUP(T220,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U220" s="3" t="str">
-        <f>IF(V220&lt;&gt;"",VLOOKUP(V220,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V220&lt;&gt;"",VLOOKUP(V220,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W220" s="3">
@@ -25079,15 +25084,15 @@
         <v>0</v>
       </c>
       <c r="Q221" s="3" t="str">
-        <f>IF(R221&lt;&gt;"",VLOOKUP(R221,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R221&lt;&gt;"",VLOOKUP(R221,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S221" s="3" t="str">
-        <f>IF(T221&lt;&gt;"",VLOOKUP(T221,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T221&lt;&gt;"",VLOOKUP(T221,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U221" s="3" t="str">
-        <f>IF(V221&lt;&gt;"",VLOOKUP(V221,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V221&lt;&gt;"",VLOOKUP(V221,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W221" s="3">
@@ -25154,15 +25159,15 @@
         <v>0</v>
       </c>
       <c r="Q222" s="3" t="str">
-        <f>IF(R222&lt;&gt;"",VLOOKUP(R222,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R222&lt;&gt;"",VLOOKUP(R222,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S222" s="3" t="str">
-        <f>IF(T222&lt;&gt;"",VLOOKUP(T222,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T222&lt;&gt;"",VLOOKUP(T222,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U222" s="3" t="str">
-        <f>IF(V222&lt;&gt;"",VLOOKUP(V222,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V222&lt;&gt;"",VLOOKUP(V222,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W222" s="3">
@@ -25232,15 +25237,15 @@
         <v>0</v>
       </c>
       <c r="Q223" s="3" t="str">
-        <f>IF(R223&lt;&gt;"",VLOOKUP(R223,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R223&lt;&gt;"",VLOOKUP(R223,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S223" s="3" t="str">
-        <f>IF(T223&lt;&gt;"",VLOOKUP(T223,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T223&lt;&gt;"",VLOOKUP(T223,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U223" s="3" t="str">
-        <f>IF(V223&lt;&gt;"",VLOOKUP(V223,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V223&lt;&gt;"",VLOOKUP(V223,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W223" s="3">
@@ -25307,15 +25312,15 @@
         <v>0</v>
       </c>
       <c r="Q224" s="3" t="str">
-        <f>IF(R224&lt;&gt;"",VLOOKUP(R224,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R224&lt;&gt;"",VLOOKUP(R224,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S224" s="3" t="str">
-        <f>IF(T224&lt;&gt;"",VLOOKUP(T224,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T224&lt;&gt;"",VLOOKUP(T224,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U224" s="3" t="str">
-        <f>IF(V224&lt;&gt;"",VLOOKUP(V224,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V224&lt;&gt;"",VLOOKUP(V224,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W224" s="3">
@@ -25382,15 +25387,15 @@
         <v>0</v>
       </c>
       <c r="Q225" s="3" t="str">
-        <f>IF(R225&lt;&gt;"",VLOOKUP(R225,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R225&lt;&gt;"",VLOOKUP(R225,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S225" s="3" t="str">
-        <f>IF(T225&lt;&gt;"",VLOOKUP(T225,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T225&lt;&gt;"",VLOOKUP(T225,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U225" s="3" t="str">
-        <f>IF(V225&lt;&gt;"",VLOOKUP(V225,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V225&lt;&gt;"",VLOOKUP(V225,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W225" s="3">
@@ -25457,15 +25462,15 @@
         <v>0</v>
       </c>
       <c r="Q226" s="3" t="str">
-        <f>IF(R226&lt;&gt;"",VLOOKUP(R226,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R226&lt;&gt;"",VLOOKUP(R226,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S226" s="3" t="str">
-        <f>IF(T226&lt;&gt;"",VLOOKUP(T226,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T226&lt;&gt;"",VLOOKUP(T226,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U226" s="3" t="str">
-        <f>IF(V226&lt;&gt;"",VLOOKUP(V226,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V226&lt;&gt;"",VLOOKUP(V226,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W226" s="3">
@@ -25531,19 +25536,19 @@
       <c r="P227">
         <v>0</v>
       </c>
-      <c r="Q227" s="3" t="str">
-        <f>IF(R227&lt;&gt;"",VLOOKUP(R227,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Deshaan</v>
+      <c r="Q227" s="3">
+        <f>IF(R227&lt;&gt;"",VLOOKUP(R227,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>63</v>
       </c>
       <c r="R227" s="3" t="s">
         <v>61</v>
       </c>
       <c r="S227" s="3" t="str">
-        <f>IF(T227&lt;&gt;"",VLOOKUP(T227,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T227&lt;&gt;"",VLOOKUP(T227,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U227" s="3" t="str">
-        <f>IF(V227&lt;&gt;"",VLOOKUP(V227,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V227&lt;&gt;"",VLOOKUP(V227,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W227" s="3">
@@ -25559,7 +25564,7 @@
       </c>
       <c r="Z227" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Deshaan}, veteran=false</v>
+        <v>, zoneIds={63}, veteran=false</v>
       </c>
       <c r="AA227" s="7" t="str">
         <f t="shared" si="17"/>
@@ -25610,15 +25615,15 @@
         <v>0</v>
       </c>
       <c r="Q228" s="3" t="str">
-        <f>IF(R228&lt;&gt;"",VLOOKUP(R228,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R228&lt;&gt;"",VLOOKUP(R228,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S228" s="3" t="str">
-        <f>IF(T228&lt;&gt;"",VLOOKUP(T228,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T228&lt;&gt;"",VLOOKUP(T228,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U228" s="3" t="str">
-        <f>IF(V228&lt;&gt;"",VLOOKUP(V228,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V228&lt;&gt;"",VLOOKUP(V228,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W228" s="3">
@@ -25685,15 +25690,15 @@
         <v>0</v>
       </c>
       <c r="Q229" s="3" t="str">
-        <f>IF(R229&lt;&gt;"",VLOOKUP(R229,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R229&lt;&gt;"",VLOOKUP(R229,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S229" s="3" t="str">
-        <f>IF(T229&lt;&gt;"",VLOOKUP(T229,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T229&lt;&gt;"",VLOOKUP(T229,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U229" s="3" t="str">
-        <f>IF(V229&lt;&gt;"",VLOOKUP(V229,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V229&lt;&gt;"",VLOOKUP(V229,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W229" s="3">
@@ -25760,15 +25765,15 @@
         <v>0</v>
       </c>
       <c r="Q230" s="3" t="str">
-        <f>IF(R230&lt;&gt;"",VLOOKUP(R230,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R230&lt;&gt;"",VLOOKUP(R230,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S230" s="3" t="str">
-        <f>IF(T230&lt;&gt;"",VLOOKUP(T230,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T230&lt;&gt;"",VLOOKUP(T230,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U230" s="3" t="str">
-        <f>IF(V230&lt;&gt;"",VLOOKUP(V230,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V230&lt;&gt;"",VLOOKUP(V230,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W230" s="3">
@@ -25835,15 +25840,15 @@
         <v>0</v>
       </c>
       <c r="Q231" s="3" t="str">
-        <f>IF(R231&lt;&gt;"",VLOOKUP(R231,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R231&lt;&gt;"",VLOOKUP(R231,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S231" s="3" t="str">
-        <f>IF(T231&lt;&gt;"",VLOOKUP(T231,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T231&lt;&gt;"",VLOOKUP(T231,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U231" s="3" t="str">
-        <f>IF(V231&lt;&gt;"",VLOOKUP(V231,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V231&lt;&gt;"",VLOOKUP(V231,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W231" s="3">
@@ -25908,19 +25913,19 @@
       <c r="P232">
         <v>0</v>
       </c>
-      <c r="Q232" s="3" t="str">
-        <f>IF(R232&lt;&gt;"",VLOOKUP(R232,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q232" s="3">
+        <f>IF(R232&lt;&gt;"",VLOOKUP(R232,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R232" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S232" s="3" t="str">
-        <f>IF(T232&lt;&gt;"",VLOOKUP(T232,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T232&lt;&gt;"",VLOOKUP(T232,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U232" s="3" t="str">
-        <f>IF(V232&lt;&gt;"",VLOOKUP(V232,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V232&lt;&gt;"",VLOOKUP(V232,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W232" s="3">
@@ -25936,7 +25941,7 @@
       </c>
       <c r="Z232" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA232" s="7" t="str">
         <f t="shared" si="17"/>
@@ -25987,15 +25992,15 @@
         <v>0</v>
       </c>
       <c r="Q233" s="3" t="str">
-        <f>IF(R233&lt;&gt;"",VLOOKUP(R233,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R233&lt;&gt;"",VLOOKUP(R233,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S233" s="3" t="str">
-        <f>IF(T233&lt;&gt;"",VLOOKUP(T233,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T233&lt;&gt;"",VLOOKUP(T233,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U233" s="3" t="str">
-        <f>IF(V233&lt;&gt;"",VLOOKUP(V233,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V233&lt;&gt;"",VLOOKUP(V233,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W233" s="3">
@@ -26062,15 +26067,15 @@
         <v>0</v>
       </c>
       <c r="Q234" s="3" t="str">
-        <f>IF(R234&lt;&gt;"",VLOOKUP(R234,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R234&lt;&gt;"",VLOOKUP(R234,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S234" s="3" t="str">
-        <f>IF(T234&lt;&gt;"",VLOOKUP(T234,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T234&lt;&gt;"",VLOOKUP(T234,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U234" s="3" t="str">
-        <f>IF(V234&lt;&gt;"",VLOOKUP(V234,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V234&lt;&gt;"",VLOOKUP(V234,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W234" s="3">
@@ -26135,19 +26140,19 @@
       <c r="P235">
         <v>0</v>
       </c>
-      <c r="Q235" s="3" t="str">
-        <f>IF(R235&lt;&gt;"",VLOOKUP(R235,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q235" s="3">
+        <f>IF(R235&lt;&gt;"",VLOOKUP(R235,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R235" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S235" s="3" t="str">
-        <f>IF(T235&lt;&gt;"",VLOOKUP(T235,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T235&lt;&gt;"",VLOOKUP(T235,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U235" s="3" t="str">
-        <f>IF(V235&lt;&gt;"",VLOOKUP(V235,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V235&lt;&gt;"",VLOOKUP(V235,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W235" s="3">
@@ -26163,7 +26168,7 @@
       </c>
       <c r="Z235" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Murkmire}, veteran=false</v>
+        <v>, zoneIds={1082}, veteran=false</v>
       </c>
       <c r="AA235" s="7" t="str">
         <f t="shared" si="17"/>
@@ -26214,15 +26219,15 @@
         <v>0</v>
       </c>
       <c r="Q236" s="3" t="str">
-        <f>IF(R236&lt;&gt;"",VLOOKUP(R236,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R236&lt;&gt;"",VLOOKUP(R236,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S236" s="3" t="str">
-        <f>IF(T236&lt;&gt;"",VLOOKUP(T236,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T236&lt;&gt;"",VLOOKUP(T236,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U236" s="3" t="str">
-        <f>IF(V236&lt;&gt;"",VLOOKUP(V236,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V236&lt;&gt;"",VLOOKUP(V236,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W236" s="3">
@@ -26289,15 +26294,15 @@
         <v>0</v>
       </c>
       <c r="Q237" s="3" t="str">
-        <f>IF(R237&lt;&gt;"",VLOOKUP(R237,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R237&lt;&gt;"",VLOOKUP(R237,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S237" s="3" t="str">
-        <f>IF(T237&lt;&gt;"",VLOOKUP(T237,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T237&lt;&gt;"",VLOOKUP(T237,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U237" s="3" t="str">
-        <f>IF(V237&lt;&gt;"",VLOOKUP(V237,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V237&lt;&gt;"",VLOOKUP(V237,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W237" s="3">
@@ -26364,15 +26369,15 @@
         <v>0</v>
       </c>
       <c r="Q238" s="3" t="str">
-        <f>IF(R238&lt;&gt;"",VLOOKUP(R238,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R238&lt;&gt;"",VLOOKUP(R238,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S238" s="3" t="str">
-        <f>IF(T238&lt;&gt;"",VLOOKUP(T238,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T238&lt;&gt;"",VLOOKUP(T238,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U238" s="3" t="str">
-        <f>IF(V238&lt;&gt;"",VLOOKUP(V238,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V238&lt;&gt;"",VLOOKUP(V238,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W238" s="3">
@@ -26439,15 +26444,15 @@
         <v>0</v>
       </c>
       <c r="Q239" s="3" t="str">
-        <f>IF(R239&lt;&gt;"",VLOOKUP(R239,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R239&lt;&gt;"",VLOOKUP(R239,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S239" s="3" t="str">
-        <f>IF(T239&lt;&gt;"",VLOOKUP(T239,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T239&lt;&gt;"",VLOOKUP(T239,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U239" s="3" t="str">
-        <f>IF(V239&lt;&gt;"",VLOOKUP(V239,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V239&lt;&gt;"",VLOOKUP(V239,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W239" s="3">
@@ -26513,19 +26518,19 @@
       <c r="P240">
         <v>0</v>
       </c>
-      <c r="Q240" s="3" t="str">
-        <f>IF(R240&lt;&gt;"",VLOOKUP(R240,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Greenshade</v>
+      <c r="Q240" s="3">
+        <f>IF(R240&lt;&gt;"",VLOOKUP(R240,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1055</v>
       </c>
       <c r="R240" s="3" t="s">
         <v>41</v>
       </c>
       <c r="S240" s="3" t="str">
-        <f>IF(T240&lt;&gt;"",VLOOKUP(T240,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T240&lt;&gt;"",VLOOKUP(T240,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U240" s="3" t="str">
-        <f>IF(V240&lt;&gt;"",VLOOKUP(V240,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V240&lt;&gt;"",VLOOKUP(V240,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W240" s="3">
@@ -26541,7 +26546,7 @@
       </c>
       <c r="Z240" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Greenshade}, veteran=false</v>
+        <v>, zoneIds={1055}, veteran=false</v>
       </c>
       <c r="AA240" s="7" t="str">
         <f t="shared" si="17"/>
@@ -26592,15 +26597,15 @@
         <v>5</v>
       </c>
       <c r="Q241" s="3" t="str">
-        <f>IF(R241&lt;&gt;"",VLOOKUP(R241,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R241&lt;&gt;"",VLOOKUP(R241,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S241" s="3" t="str">
-        <f>IF(T241&lt;&gt;"",VLOOKUP(T241,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T241&lt;&gt;"",VLOOKUP(T241,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U241" s="3" t="str">
-        <f>IF(V241&lt;&gt;"",VLOOKUP(V241,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V241&lt;&gt;"",VLOOKUP(V241,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W241" s="3">
@@ -26667,15 +26672,15 @@
         <v>0</v>
       </c>
       <c r="Q242" s="3" t="str">
-        <f>IF(R242&lt;&gt;"",VLOOKUP(R242,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R242&lt;&gt;"",VLOOKUP(R242,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S242" s="3" t="str">
-        <f>IF(T242&lt;&gt;"",VLOOKUP(T242,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T242&lt;&gt;"",VLOOKUP(T242,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U242" s="3" t="str">
-        <f>IF(V242&lt;&gt;"",VLOOKUP(V242,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V242&lt;&gt;"",VLOOKUP(V242,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W242" s="3">
@@ -26747,17 +26752,17 @@
         <v>0</v>
       </c>
       <c r="Q243" s="3" t="str">
-        <f>IF(R243&lt;&gt;"",VLOOKUP(R243,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R243&lt;&gt;"",VLOOKUP(R243,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="R243" s="3"/>
       <c r="S243" s="3" t="str">
-        <f>IF(T243&lt;&gt;"",VLOOKUP(T243,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T243&lt;&gt;"",VLOOKUP(T243,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="T243" s="3"/>
       <c r="U243" s="3" t="str">
-        <f>IF(V243&lt;&gt;"",VLOOKUP(V243,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V243&lt;&gt;"",VLOOKUP(V243,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="V243" s="3"/>
@@ -26825,15 +26830,15 @@
         <v>0</v>
       </c>
       <c r="Q244" s="3" t="str">
-        <f>IF(R244&lt;&gt;"",VLOOKUP(R244,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R244&lt;&gt;"",VLOOKUP(R244,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S244" s="3" t="str">
-        <f>IF(T244&lt;&gt;"",VLOOKUP(T244,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T244&lt;&gt;"",VLOOKUP(T244,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U244" s="3" t="str">
-        <f>IF(V244&lt;&gt;"",VLOOKUP(V244,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V244&lt;&gt;"",VLOOKUP(V244,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W244" s="3">
@@ -26900,15 +26905,15 @@
         <v>0</v>
       </c>
       <c r="Q245" s="3" t="str">
-        <f>IF(R245&lt;&gt;"",VLOOKUP(R245,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R245&lt;&gt;"",VLOOKUP(R245,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S245" s="3" t="str">
-        <f>IF(T245&lt;&gt;"",VLOOKUP(T245,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T245&lt;&gt;"",VLOOKUP(T245,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U245" s="3" t="str">
-        <f>IF(V245&lt;&gt;"",VLOOKUP(V245,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V245&lt;&gt;"",VLOOKUP(V245,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W245" s="3">
@@ -26973,19 +26978,19 @@
       <c r="P246">
         <v>0</v>
       </c>
-      <c r="Q246" s="3" t="str">
-        <f>IF(R246&lt;&gt;"",VLOOKUP(R246,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q246" s="3">
+        <f>IF(R246&lt;&gt;"",VLOOKUP(R246,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R246" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S246" s="3" t="str">
-        <f>IF(T246&lt;&gt;"",VLOOKUP(T246,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T246&lt;&gt;"",VLOOKUP(T246,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U246" s="3" t="str">
-        <f>IF(V246&lt;&gt;"",VLOOKUP(V246,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V246&lt;&gt;"",VLOOKUP(V246,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W246" s="3">
@@ -27001,7 +27006,7 @@
       </c>
       <c r="Z246" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Craglorn}, veteran=false</v>
+        <v>, zoneIds={635}, veteran=false</v>
       </c>
       <c r="AA246" s="7" t="str">
         <f t="shared" si="17"/>
@@ -27052,15 +27057,15 @@
         <v>0</v>
       </c>
       <c r="Q247" s="3" t="str">
-        <f>IF(R247&lt;&gt;"",VLOOKUP(R247,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R247&lt;&gt;"",VLOOKUP(R247,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S247" s="3" t="str">
-        <f>IF(T247&lt;&gt;"",VLOOKUP(T247,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T247&lt;&gt;"",VLOOKUP(T247,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U247" s="3" t="str">
-        <f>IF(V247&lt;&gt;"",VLOOKUP(V247,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V247&lt;&gt;"",VLOOKUP(V247,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W247" s="3">
@@ -27127,15 +27132,15 @@
         <v>0</v>
       </c>
       <c r="Q248" s="3" t="str">
-        <f>IF(R248&lt;&gt;"",VLOOKUP(R248,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R248&lt;&gt;"",VLOOKUP(R248,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S248" s="3" t="str">
-        <f>IF(T248&lt;&gt;"",VLOOKUP(T248,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T248&lt;&gt;"",VLOOKUP(T248,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U248" s="3" t="str">
-        <f>IF(V248&lt;&gt;"",VLOOKUP(V248,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V248&lt;&gt;"",VLOOKUP(V248,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W248" s="3">
@@ -27202,15 +27207,15 @@
         <v>0</v>
       </c>
       <c r="Q249" s="3" t="str">
-        <f>IF(R249&lt;&gt;"",VLOOKUP(R249,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R249&lt;&gt;"",VLOOKUP(R249,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S249" s="3" t="str">
-        <f>IF(T249&lt;&gt;"",VLOOKUP(T249,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T249&lt;&gt;"",VLOOKUP(T249,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U249" s="3" t="str">
-        <f>IF(V249&lt;&gt;"",VLOOKUP(V249,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V249&lt;&gt;"",VLOOKUP(V249,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W249" s="3">
@@ -27277,15 +27282,15 @@
         <v>0</v>
       </c>
       <c r="Q250" s="3" t="str">
-        <f>IF(R250&lt;&gt;"",VLOOKUP(R250,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R250&lt;&gt;"",VLOOKUP(R250,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S250" s="3" t="str">
-        <f>IF(T250&lt;&gt;"",VLOOKUP(T250,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T250&lt;&gt;"",VLOOKUP(T250,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U250" s="3" t="str">
-        <f>IF(V250&lt;&gt;"",VLOOKUP(V250,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V250&lt;&gt;"",VLOOKUP(V250,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W250" s="3">
@@ -27352,15 +27357,15 @@
         <v>0</v>
       </c>
       <c r="Q251" s="3" t="str">
-        <f>IF(R251&lt;&gt;"",VLOOKUP(R251,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R251&lt;&gt;"",VLOOKUP(R251,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S251" s="3" t="str">
-        <f>IF(T251&lt;&gt;"",VLOOKUP(T251,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T251&lt;&gt;"",VLOOKUP(T251,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U251" s="3" t="str">
-        <f>IF(V251&lt;&gt;"",VLOOKUP(V251,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V251&lt;&gt;"",VLOOKUP(V251,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W251" s="3">
@@ -27427,15 +27432,15 @@
         <v>0</v>
       </c>
       <c r="Q252" s="3" t="str">
-        <f>IF(R252&lt;&gt;"",VLOOKUP(R252,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R252&lt;&gt;"",VLOOKUP(R252,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S252" s="3" t="str">
-        <f>IF(T252&lt;&gt;"",VLOOKUP(T252,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T252&lt;&gt;"",VLOOKUP(T252,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U252" s="3" t="str">
-        <f>IF(V252&lt;&gt;"",VLOOKUP(V252,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V252&lt;&gt;"",VLOOKUP(V252,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W252" s="3">
@@ -27501,19 +27506,19 @@
       <c r="P253">
         <v>0</v>
       </c>
-      <c r="Q253" s="3" t="str">
-        <f>IF(R253&lt;&gt;"",VLOOKUP(R253,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Alik'r Desert</v>
+      <c r="Q253" s="3">
+        <f>IF(R253&lt;&gt;"",VLOOKUP(R253,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>22</v>
       </c>
       <c r="R253" s="3" t="s">
         <v>68</v>
       </c>
       <c r="S253" s="3" t="str">
-        <f>IF(T253&lt;&gt;"",VLOOKUP(T253,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T253&lt;&gt;"",VLOOKUP(T253,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U253" s="3" t="str">
-        <f>IF(V253&lt;&gt;"",VLOOKUP(V253,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V253&lt;&gt;"",VLOOKUP(V253,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W253" s="3">
@@ -27529,7 +27534,7 @@
       </c>
       <c r="Z253" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>, zoneIds={Alik'r Desert}, veteran=false</v>
+        <v>, zoneIds={22}, veteran=false</v>
       </c>
       <c r="AA253" s="7" t="str">
         <f t="shared" si="17"/>
@@ -27580,15 +27585,15 @@
         <v>0</v>
       </c>
       <c r="Q254" s="3" t="str">
-        <f>IF(R254&lt;&gt;"",VLOOKUP(R254,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R254&lt;&gt;"",VLOOKUP(R254,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S254" s="3" t="str">
-        <f>IF(T254&lt;&gt;"",VLOOKUP(T254,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T254&lt;&gt;"",VLOOKUP(T254,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U254" s="3" t="str">
-        <f>IF(V254&lt;&gt;"",VLOOKUP(V254,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V254&lt;&gt;"",VLOOKUP(V254,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W254" s="3">
@@ -27658,15 +27663,15 @@
         <v>0</v>
       </c>
       <c r="Q255" s="3" t="str">
-        <f>IF(R255&lt;&gt;"",VLOOKUP(R255,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R255&lt;&gt;"",VLOOKUP(R255,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S255" s="3" t="str">
-        <f>IF(T255&lt;&gt;"",VLOOKUP(T255,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T255&lt;&gt;"",VLOOKUP(T255,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U255" s="3" t="str">
-        <f>IF(V255&lt;&gt;"",VLOOKUP(V255,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V255&lt;&gt;"",VLOOKUP(V255,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W255" s="3">
@@ -27736,15 +27741,15 @@
         <v>0</v>
       </c>
       <c r="Q256" s="3" t="str">
-        <f>IF(R256&lt;&gt;"",VLOOKUP(R256,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R256&lt;&gt;"",VLOOKUP(R256,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S256" s="3" t="str">
-        <f>IF(T256&lt;&gt;"",VLOOKUP(T256,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T256&lt;&gt;"",VLOOKUP(T256,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U256" s="3" t="str">
-        <f>IF(V256&lt;&gt;"",VLOOKUP(V256,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V256&lt;&gt;"",VLOOKUP(V256,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W256" s="3">
@@ -27814,15 +27819,15 @@
         <v>0</v>
       </c>
       <c r="Q257" s="3" t="str">
-        <f>IF(R257&lt;&gt;"",VLOOKUP(R257,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R257&lt;&gt;"",VLOOKUP(R257,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S257" s="3" t="str">
-        <f>IF(T257&lt;&gt;"",VLOOKUP(T257,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T257&lt;&gt;"",VLOOKUP(T257,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U257" s="3" t="str">
-        <f>IF(V257&lt;&gt;"",VLOOKUP(V257,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V257&lt;&gt;"",VLOOKUP(V257,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W257" s="3">
@@ -27889,15 +27894,15 @@
         <v>0</v>
       </c>
       <c r="Q258" s="3" t="str">
-        <f>IF(R258&lt;&gt;"",VLOOKUP(R258,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R258&lt;&gt;"",VLOOKUP(R258,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S258" s="3" t="str">
-        <f>IF(T258&lt;&gt;"",VLOOKUP(T258,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T258&lt;&gt;"",VLOOKUP(T258,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U258" s="3" t="str">
-        <f>IF(V258&lt;&gt;"",VLOOKUP(V258,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V258&lt;&gt;"",VLOOKUP(V258,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W258" s="3">
@@ -27967,15 +27972,15 @@
         <v>0</v>
       </c>
       <c r="Q259" s="3" t="str">
-        <f>IF(R259&lt;&gt;"",VLOOKUP(R259,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R259&lt;&gt;"",VLOOKUP(R259,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S259" s="3" t="str">
-        <f>IF(T259&lt;&gt;"",VLOOKUP(T259,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T259&lt;&gt;"",VLOOKUP(T259,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U259" s="3" t="str">
-        <f>IF(V259&lt;&gt;"",VLOOKUP(V259,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V259&lt;&gt;"",VLOOKUP(V259,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W259" s="3">
@@ -28042,15 +28047,15 @@
         <v>0</v>
       </c>
       <c r="Q260" s="3" t="str">
-        <f>IF(R260&lt;&gt;"",VLOOKUP(R260,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R260&lt;&gt;"",VLOOKUP(R260,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S260" s="3" t="str">
-        <f>IF(T260&lt;&gt;"",VLOOKUP(T260,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T260&lt;&gt;"",VLOOKUP(T260,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U260" s="3" t="str">
-        <f>IF(V260&lt;&gt;"",VLOOKUP(V260,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V260&lt;&gt;"",VLOOKUP(V260,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W260" s="3">
@@ -28117,15 +28122,15 @@
         <v>0</v>
       </c>
       <c r="Q261" s="3" t="str">
-        <f>IF(R261&lt;&gt;"",VLOOKUP(R261,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R261&lt;&gt;"",VLOOKUP(R261,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S261" s="3" t="str">
-        <f>IF(T261&lt;&gt;"",VLOOKUP(T261,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T261&lt;&gt;"",VLOOKUP(T261,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U261" s="3" t="str">
-        <f>IF(V261&lt;&gt;"",VLOOKUP(V261,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V261&lt;&gt;"",VLOOKUP(V261,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W261" s="3">
@@ -28192,15 +28197,15 @@
         <v>0</v>
       </c>
       <c r="Q262" s="3" t="str">
-        <f>IF(R262&lt;&gt;"",VLOOKUP(R262,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R262&lt;&gt;"",VLOOKUP(R262,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S262" s="3" t="str">
-        <f>IF(T262&lt;&gt;"",VLOOKUP(T262,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T262&lt;&gt;"",VLOOKUP(T262,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U262" s="3" t="str">
-        <f>IF(V262&lt;&gt;"",VLOOKUP(V262,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V262&lt;&gt;"",VLOOKUP(V262,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W262" s="3">
@@ -28267,15 +28272,15 @@
         <v>6</v>
       </c>
       <c r="Q263" s="3" t="str">
-        <f>IF(R263&lt;&gt;"",VLOOKUP(R263,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R263&lt;&gt;"",VLOOKUP(R263,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S263" s="3" t="str">
-        <f>IF(T263&lt;&gt;"",VLOOKUP(T263,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T263&lt;&gt;"",VLOOKUP(T263,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U263" s="3" t="str">
-        <f>IF(V263&lt;&gt;"",VLOOKUP(V263,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V263&lt;&gt;"",VLOOKUP(V263,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W263" s="3">
@@ -28342,15 +28347,15 @@
         <v>0</v>
       </c>
       <c r="Q264" s="3" t="str">
-        <f>IF(R264&lt;&gt;"",VLOOKUP(R264,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R264&lt;&gt;"",VLOOKUP(R264,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S264" s="3" t="str">
-        <f>IF(T264&lt;&gt;"",VLOOKUP(T264,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T264&lt;&gt;"",VLOOKUP(T264,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U264" s="3" t="str">
-        <f>IF(V264&lt;&gt;"",VLOOKUP(V264,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V264&lt;&gt;"",VLOOKUP(V264,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W264" s="3">
@@ -28417,15 +28422,15 @@
         <v>0</v>
       </c>
       <c r="Q265" s="3" t="str">
-        <f>IF(R265&lt;&gt;"",VLOOKUP(R265,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R265&lt;&gt;"",VLOOKUP(R265,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S265" s="3" t="str">
-        <f>IF(T265&lt;&gt;"",VLOOKUP(T265,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T265&lt;&gt;"",VLOOKUP(T265,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U265" s="3" t="str">
-        <f>IF(V265&lt;&gt;"",VLOOKUP(V265,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V265&lt;&gt;"",VLOOKUP(V265,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W265" s="3">
@@ -28492,15 +28497,15 @@
         <v>0</v>
       </c>
       <c r="Q266" s="3" t="str">
-        <f>IF(R266&lt;&gt;"",VLOOKUP(R266,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R266&lt;&gt;"",VLOOKUP(R266,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S266" s="3" t="str">
-        <f>IF(T266&lt;&gt;"",VLOOKUP(T266,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T266&lt;&gt;"",VLOOKUP(T266,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U266" s="3" t="str">
-        <f>IF(V266&lt;&gt;"",VLOOKUP(V266,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V266&lt;&gt;"",VLOOKUP(V266,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W266" s="3">
@@ -28570,15 +28575,15 @@
         <v>0</v>
       </c>
       <c r="Q267" s="3" t="str">
-        <f>IF(R267&lt;&gt;"",VLOOKUP(R267,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R267&lt;&gt;"",VLOOKUP(R267,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S267" s="3" t="str">
-        <f>IF(T267&lt;&gt;"",VLOOKUP(T267,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T267&lt;&gt;"",VLOOKUP(T267,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U267" s="3" t="str">
-        <f>IF(V267&lt;&gt;"",VLOOKUP(V267,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V267&lt;&gt;"",VLOOKUP(V267,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W267" s="3">
@@ -28645,15 +28650,15 @@
         <v>8</v>
       </c>
       <c r="Q268" s="3" t="str">
-        <f>IF(R268&lt;&gt;"",VLOOKUP(R268,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R268&lt;&gt;"",VLOOKUP(R268,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S268" s="3" t="str">
-        <f>IF(T268&lt;&gt;"",VLOOKUP(T268,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T268&lt;&gt;"",VLOOKUP(T268,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U268" s="3" t="str">
-        <f>IF(V268&lt;&gt;"",VLOOKUP(V268,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V268&lt;&gt;"",VLOOKUP(V268,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W268" s="3">
@@ -28720,15 +28725,15 @@
         <v>0</v>
       </c>
       <c r="Q269" s="3" t="str">
-        <f>IF(R269&lt;&gt;"",VLOOKUP(R269,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R269&lt;&gt;"",VLOOKUP(R269,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S269" s="3" t="str">
-        <f>IF(T269&lt;&gt;"",VLOOKUP(T269,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T269&lt;&gt;"",VLOOKUP(T269,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U269" s="3" t="str">
-        <f>IF(V269&lt;&gt;"",VLOOKUP(V269,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V269&lt;&gt;"",VLOOKUP(V269,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W269" s="3">
@@ -28794,19 +28799,19 @@
       <c r="P270">
         <v>0</v>
       </c>
-      <c r="Q270" s="3" t="str">
-        <f>IF(R270&lt;&gt;"",VLOOKUP(R270,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Reaper's March</v>
+      <c r="Q270" s="3">
+        <f>IF(R270&lt;&gt;"",VLOOKUP(R270,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>31</v>
       </c>
       <c r="R270" s="3" t="s">
         <v>59</v>
       </c>
       <c r="S270" s="3" t="str">
-        <f>IF(T270&lt;&gt;"",VLOOKUP(T270,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T270&lt;&gt;"",VLOOKUP(T270,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U270" s="3" t="str">
-        <f>IF(V270&lt;&gt;"",VLOOKUP(V270,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V270&lt;&gt;"",VLOOKUP(V270,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W270" s="3">
@@ -28822,7 +28827,7 @@
       </c>
       <c r="Z270" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Reaper's March}, veteran=false</v>
+        <v>, zoneIds={31}, veteran=false</v>
       </c>
       <c r="AA270" s="7" t="str">
         <f t="shared" si="22"/>
@@ -28872,19 +28877,19 @@
       <c r="P271">
         <v>0</v>
       </c>
-      <c r="Q271" s="3" t="str">
-        <f>IF(R271&lt;&gt;"",VLOOKUP(R271,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Bangkorai</v>
+      <c r="Q271" s="3">
+        <f>IF(R271&lt;&gt;"",VLOOKUP(R271,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1009</v>
       </c>
       <c r="R271" s="3" t="s">
         <v>69</v>
       </c>
       <c r="S271" s="3" t="str">
-        <f>IF(T271&lt;&gt;"",VLOOKUP(T271,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T271&lt;&gt;"",VLOOKUP(T271,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U271" s="3" t="str">
-        <f>IF(V271&lt;&gt;"",VLOOKUP(V271,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V271&lt;&gt;"",VLOOKUP(V271,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W271" s="3">
@@ -28900,7 +28905,7 @@
       </c>
       <c r="Z271" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Bangkorai}, veteran=false</v>
+        <v>, zoneIds={1009}, veteran=false</v>
       </c>
       <c r="AA271" s="7" t="str">
         <f t="shared" si="22"/>
@@ -28951,15 +28956,15 @@
         <v>0</v>
       </c>
       <c r="Q272" s="3" t="str">
-        <f>IF(R272&lt;&gt;"",VLOOKUP(R272,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R272&lt;&gt;"",VLOOKUP(R272,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S272" s="3" t="str">
-        <f>IF(T272&lt;&gt;"",VLOOKUP(T272,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T272&lt;&gt;"",VLOOKUP(T272,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U272" s="3" t="str">
-        <f>IF(V272&lt;&gt;"",VLOOKUP(V272,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V272&lt;&gt;"",VLOOKUP(V272,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W272" s="3">
@@ -29026,15 +29031,15 @@
         <v>0</v>
       </c>
       <c r="Q273" s="3" t="str">
-        <f>IF(R273&lt;&gt;"",VLOOKUP(R273,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R273&lt;&gt;"",VLOOKUP(R273,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S273" s="3" t="str">
-        <f>IF(T273&lt;&gt;"",VLOOKUP(T273,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T273&lt;&gt;"",VLOOKUP(T273,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U273" s="3" t="str">
-        <f>IF(V273&lt;&gt;"",VLOOKUP(V273,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V273&lt;&gt;"",VLOOKUP(V273,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W273" s="3">
@@ -29101,15 +29106,15 @@
         <v>0</v>
       </c>
       <c r="Q274" s="3" t="str">
-        <f>IF(R274&lt;&gt;"",VLOOKUP(R274,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R274&lt;&gt;"",VLOOKUP(R274,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S274" s="3" t="str">
-        <f>IF(T274&lt;&gt;"",VLOOKUP(T274,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T274&lt;&gt;"",VLOOKUP(T274,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U274" s="3" t="str">
-        <f>IF(V274&lt;&gt;"",VLOOKUP(V274,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V274&lt;&gt;"",VLOOKUP(V274,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W274" s="3">
@@ -29176,15 +29181,15 @@
         <v>0</v>
       </c>
       <c r="Q275" s="3" t="str">
-        <f>IF(R275&lt;&gt;"",VLOOKUP(R275,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R275&lt;&gt;"",VLOOKUP(R275,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S275" s="3" t="str">
-        <f>IF(T275&lt;&gt;"",VLOOKUP(T275,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T275&lt;&gt;"",VLOOKUP(T275,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U275" s="3" t="str">
-        <f>IF(V275&lt;&gt;"",VLOOKUP(V275,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V275&lt;&gt;"",VLOOKUP(V275,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W275" s="3">
@@ -29251,15 +29256,15 @@
         <v>0</v>
       </c>
       <c r="Q276" s="3" t="str">
-        <f>IF(R276&lt;&gt;"",VLOOKUP(R276,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R276&lt;&gt;"",VLOOKUP(R276,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S276" s="3" t="str">
-        <f>IF(T276&lt;&gt;"",VLOOKUP(T276,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T276&lt;&gt;"",VLOOKUP(T276,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U276" s="3" t="str">
-        <f>IF(V276&lt;&gt;"",VLOOKUP(V276,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V276&lt;&gt;"",VLOOKUP(V276,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W276" s="3">
@@ -29329,15 +29334,15 @@
         <v>0</v>
       </c>
       <c r="Q277" s="3" t="str">
-        <f>IF(R277&lt;&gt;"",VLOOKUP(R277,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R277&lt;&gt;"",VLOOKUP(R277,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S277" s="3" t="str">
-        <f>IF(T277&lt;&gt;"",VLOOKUP(T277,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T277&lt;&gt;"",VLOOKUP(T277,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U277" s="3" t="str">
-        <f>IF(V277&lt;&gt;"",VLOOKUP(V277,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V277&lt;&gt;"",VLOOKUP(V277,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W277" s="3">
@@ -29404,15 +29409,15 @@
         <v>6</v>
       </c>
       <c r="Q278" s="3" t="str">
-        <f>IF(R278&lt;&gt;"",VLOOKUP(R278,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R278&lt;&gt;"",VLOOKUP(R278,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S278" s="3" t="str">
-        <f>IF(T278&lt;&gt;"",VLOOKUP(T278,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T278&lt;&gt;"",VLOOKUP(T278,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U278" s="3" t="str">
-        <f>IF(V278&lt;&gt;"",VLOOKUP(V278,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V278&lt;&gt;"",VLOOKUP(V278,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W278" s="3">
@@ -29479,15 +29484,15 @@
         <v>0</v>
       </c>
       <c r="Q279" s="3" t="str">
-        <f>IF(R279&lt;&gt;"",VLOOKUP(R279,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R279&lt;&gt;"",VLOOKUP(R279,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S279" s="3" t="str">
-        <f>IF(T279&lt;&gt;"",VLOOKUP(T279,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T279&lt;&gt;"",VLOOKUP(T279,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U279" s="3" t="str">
-        <f>IF(V279&lt;&gt;"",VLOOKUP(V279,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V279&lt;&gt;"",VLOOKUP(V279,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W279" s="3">
@@ -29554,15 +29559,15 @@
         <v>5</v>
       </c>
       <c r="Q280" s="3" t="str">
-        <f>IF(R280&lt;&gt;"",VLOOKUP(R280,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R280&lt;&gt;"",VLOOKUP(R280,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S280" s="3" t="str">
-        <f>IF(T280&lt;&gt;"",VLOOKUP(T280,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T280&lt;&gt;"",VLOOKUP(T280,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U280" s="3" t="str">
-        <f>IF(V280&lt;&gt;"",VLOOKUP(V280,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V280&lt;&gt;"",VLOOKUP(V280,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W280" s="3">
@@ -29629,15 +29634,15 @@
         <v>0</v>
       </c>
       <c r="Q281" s="3" t="str">
-        <f>IF(R281&lt;&gt;"",VLOOKUP(R281,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R281&lt;&gt;"",VLOOKUP(R281,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S281" s="3" t="str">
-        <f>IF(T281&lt;&gt;"",VLOOKUP(T281,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T281&lt;&gt;"",VLOOKUP(T281,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U281" s="3" t="str">
-        <f>IF(V281&lt;&gt;"",VLOOKUP(V281,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V281&lt;&gt;"",VLOOKUP(V281,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W281" s="3">
@@ -29707,15 +29712,15 @@
         <v>0</v>
       </c>
       <c r="Q282" s="3" t="str">
-        <f>IF(R282&lt;&gt;"",VLOOKUP(R282,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R282&lt;&gt;"",VLOOKUP(R282,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S282" s="3" t="str">
-        <f>IF(T282&lt;&gt;"",VLOOKUP(T282,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T282&lt;&gt;"",VLOOKUP(T282,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U282" s="3" t="str">
-        <f>IF(V282&lt;&gt;"",VLOOKUP(V282,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V282&lt;&gt;"",VLOOKUP(V282,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W282" s="3">
@@ -29780,19 +29785,19 @@
       <c r="P283">
         <v>0</v>
       </c>
-      <c r="Q283" s="3" t="str">
-        <f>IF(R283&lt;&gt;"",VLOOKUP(R283,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q283" s="3">
+        <f>IF(R283&lt;&gt;"",VLOOKUP(R283,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R283" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S283" s="3" t="str">
-        <f>IF(T283&lt;&gt;"",VLOOKUP(T283,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T283&lt;&gt;"",VLOOKUP(T283,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U283" s="3" t="str">
-        <f>IF(V283&lt;&gt;"",VLOOKUP(V283,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V283&lt;&gt;"",VLOOKUP(V283,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W283" s="3">
@@ -29808,7 +29813,7 @@
       </c>
       <c r="Z283" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Murkmire}, veteran=false</v>
+        <v>, zoneIds={1082}, veteran=false</v>
       </c>
       <c r="AA283" s="7" t="str">
         <f t="shared" si="22"/>
@@ -29859,15 +29864,15 @@
         <v>8</v>
       </c>
       <c r="Q284" s="3" t="str">
-        <f>IF(R284&lt;&gt;"",VLOOKUP(R284,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R284&lt;&gt;"",VLOOKUP(R284,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S284" s="3" t="str">
-        <f>IF(T284&lt;&gt;"",VLOOKUP(T284,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T284&lt;&gt;"",VLOOKUP(T284,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U284" s="3" t="str">
-        <f>IF(V284&lt;&gt;"",VLOOKUP(V284,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V284&lt;&gt;"",VLOOKUP(V284,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W284" s="3">
@@ -29933,19 +29938,19 @@
       <c r="P285">
         <v>0</v>
       </c>
-      <c r="Q285" s="3" t="str">
-        <f>IF(R285&lt;&gt;"",VLOOKUP(R285,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Shadowfen</v>
+      <c r="Q285" s="3">
+        <f>IF(R285&lt;&gt;"",VLOOKUP(R285,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>848</v>
       </c>
       <c r="R285" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S285" s="3" t="str">
-        <f>IF(T285&lt;&gt;"",VLOOKUP(T285,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T285&lt;&gt;"",VLOOKUP(T285,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U285" s="3" t="str">
-        <f>IF(V285&lt;&gt;"",VLOOKUP(V285,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V285&lt;&gt;"",VLOOKUP(V285,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W285" s="3">
@@ -29961,7 +29966,7 @@
       </c>
       <c r="Z285" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Shadowfen}, veteran=false</v>
+        <v>, zoneIds={848}, veteran=false</v>
       </c>
       <c r="AA285" s="7" t="str">
         <f t="shared" si="22"/>
@@ -30012,15 +30017,15 @@
         <v>0</v>
       </c>
       <c r="Q286" s="3" t="str">
-        <f>IF(R286&lt;&gt;"",VLOOKUP(R286,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R286&lt;&gt;"",VLOOKUP(R286,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S286" s="3" t="str">
-        <f>IF(T286&lt;&gt;"",VLOOKUP(T286,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T286&lt;&gt;"",VLOOKUP(T286,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U286" s="3" t="str">
-        <f>IF(V286&lt;&gt;"",VLOOKUP(V286,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V286&lt;&gt;"",VLOOKUP(V286,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W286" s="3">
@@ -30087,15 +30092,15 @@
         <v>0</v>
       </c>
       <c r="Q287" s="3" t="str">
-        <f>IF(R287&lt;&gt;"",VLOOKUP(R287,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R287&lt;&gt;"",VLOOKUP(R287,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S287" s="3" t="str">
-        <f>IF(T287&lt;&gt;"",VLOOKUP(T287,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T287&lt;&gt;"",VLOOKUP(T287,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U287" s="3" t="str">
-        <f>IF(V287&lt;&gt;"",VLOOKUP(V287,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V287&lt;&gt;"",VLOOKUP(V287,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W287" s="3">
@@ -30162,15 +30167,15 @@
         <v>0</v>
       </c>
       <c r="Q288" s="3" t="str">
-        <f>IF(R288&lt;&gt;"",VLOOKUP(R288,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R288&lt;&gt;"",VLOOKUP(R288,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S288" s="3" t="str">
-        <f>IF(T288&lt;&gt;"",VLOOKUP(T288,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T288&lt;&gt;"",VLOOKUP(T288,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U288" s="3" t="str">
-        <f>IF(V288&lt;&gt;"",VLOOKUP(V288,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V288&lt;&gt;"",VLOOKUP(V288,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W288" s="3">
@@ -30237,15 +30242,15 @@
         <v>0</v>
       </c>
       <c r="Q289" s="3" t="str">
-        <f>IF(R289&lt;&gt;"",VLOOKUP(R289,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R289&lt;&gt;"",VLOOKUP(R289,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S289" s="3" t="str">
-        <f>IF(T289&lt;&gt;"",VLOOKUP(T289,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T289&lt;&gt;"",VLOOKUP(T289,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U289" s="3" t="str">
-        <f>IF(V289&lt;&gt;"",VLOOKUP(V289,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V289&lt;&gt;"",VLOOKUP(V289,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W289" s="3">
@@ -30312,15 +30317,15 @@
         <v>0</v>
       </c>
       <c r="Q290" s="3" t="str">
-        <f>IF(R290&lt;&gt;"",VLOOKUP(R290,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R290&lt;&gt;"",VLOOKUP(R290,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S290" s="3" t="str">
-        <f>IF(T290&lt;&gt;"",VLOOKUP(T290,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T290&lt;&gt;"",VLOOKUP(T290,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U290" s="3" t="str">
-        <f>IF(V290&lt;&gt;"",VLOOKUP(V290,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V290&lt;&gt;"",VLOOKUP(V290,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W290" s="3">
@@ -30387,15 +30392,15 @@
         <v>0</v>
       </c>
       <c r="Q291" s="3" t="str">
-        <f>IF(R291&lt;&gt;"",VLOOKUP(R291,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R291&lt;&gt;"",VLOOKUP(R291,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S291" s="3" t="str">
-        <f>IF(T291&lt;&gt;"",VLOOKUP(T291,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T291&lt;&gt;"",VLOOKUP(T291,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U291" s="3" t="str">
-        <f>IF(V291&lt;&gt;"",VLOOKUP(V291,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V291&lt;&gt;"",VLOOKUP(V291,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W291" s="3">
@@ -30462,15 +30467,15 @@
         <v>0</v>
       </c>
       <c r="Q292" s="3" t="str">
-        <f>IF(R292&lt;&gt;"",VLOOKUP(R292,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R292&lt;&gt;"",VLOOKUP(R292,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S292" s="3" t="str">
-        <f>IF(T292&lt;&gt;"",VLOOKUP(T292,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T292&lt;&gt;"",VLOOKUP(T292,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U292" s="3" t="str">
-        <f>IF(V292&lt;&gt;"",VLOOKUP(V292,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V292&lt;&gt;"",VLOOKUP(V292,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W292" s="3">
@@ -30535,19 +30540,19 @@
       <c r="P293">
         <v>0</v>
       </c>
-      <c r="Q293" s="3" t="str">
-        <f>IF(R293&lt;&gt;"",VLOOKUP(R293,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q293" s="3">
+        <f>IF(R293&lt;&gt;"",VLOOKUP(R293,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R293" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S293" s="3" t="str">
-        <f>IF(T293&lt;&gt;"",VLOOKUP(T293,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T293&lt;&gt;"",VLOOKUP(T293,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U293" s="3" t="str">
-        <f>IF(V293&lt;&gt;"",VLOOKUP(V293,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V293&lt;&gt;"",VLOOKUP(V293,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W293" s="3">
@@ -30563,7 +30568,7 @@
       </c>
       <c r="Z293" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA293" s="7" t="str">
         <f t="shared" si="22"/>
@@ -30617,15 +30622,15 @@
         <v>0</v>
       </c>
       <c r="Q294" s="3" t="str">
-        <f>IF(R294&lt;&gt;"",VLOOKUP(R294,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R294&lt;&gt;"",VLOOKUP(R294,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S294" s="3" t="str">
-        <f>IF(T294&lt;&gt;"",VLOOKUP(T294,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T294&lt;&gt;"",VLOOKUP(T294,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U294" s="3" t="str">
-        <f>IF(V294&lt;&gt;"",VLOOKUP(V294,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V294&lt;&gt;"",VLOOKUP(V294,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W294" s="3">
@@ -30692,15 +30697,15 @@
         <v>0</v>
       </c>
       <c r="Q295" s="3" t="str">
-        <f>IF(R295&lt;&gt;"",VLOOKUP(R295,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R295&lt;&gt;"",VLOOKUP(R295,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S295" s="3" t="str">
-        <f>IF(T295&lt;&gt;"",VLOOKUP(T295,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T295&lt;&gt;"",VLOOKUP(T295,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U295" s="3" t="str">
-        <f>IF(V295&lt;&gt;"",VLOOKUP(V295,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V295&lt;&gt;"",VLOOKUP(V295,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W295" s="3">
@@ -30766,19 +30771,19 @@
       <c r="P296">
         <v>0</v>
       </c>
-      <c r="Q296" s="3" t="str">
-        <f>IF(R296&lt;&gt;"",VLOOKUP(R296,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Malabal Tor</v>
+      <c r="Q296" s="3">
+        <f>IF(R296&lt;&gt;"",VLOOKUP(R296,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>131</v>
       </c>
       <c r="R296" s="3" t="s">
         <v>65</v>
       </c>
       <c r="S296" s="3" t="str">
-        <f>IF(T296&lt;&gt;"",VLOOKUP(T296,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T296&lt;&gt;"",VLOOKUP(T296,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U296" s="3" t="str">
-        <f>IF(V296&lt;&gt;"",VLOOKUP(V296,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V296&lt;&gt;"",VLOOKUP(V296,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W296" s="3">
@@ -30794,7 +30799,7 @@
       </c>
       <c r="Z296" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Malabal Tor}, veteran=false</v>
+        <v>, zoneIds={131}, veteran=false</v>
       </c>
       <c r="AA296" s="7" t="str">
         <f t="shared" si="22"/>
@@ -30848,15 +30853,15 @@
         <v>0</v>
       </c>
       <c r="Q297" s="3" t="str">
-        <f>IF(R297&lt;&gt;"",VLOOKUP(R297,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R297&lt;&gt;"",VLOOKUP(R297,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S297" s="3" t="str">
-        <f>IF(T297&lt;&gt;"",VLOOKUP(T297,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T297&lt;&gt;"",VLOOKUP(T297,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U297" s="3" t="str">
-        <f>IF(V297&lt;&gt;"",VLOOKUP(V297,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V297&lt;&gt;"",VLOOKUP(V297,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W297" s="3">
@@ -30923,15 +30928,15 @@
         <v>0</v>
       </c>
       <c r="Q298" s="3" t="str">
-        <f>IF(R298&lt;&gt;"",VLOOKUP(R298,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R298&lt;&gt;"",VLOOKUP(R298,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S298" s="3" t="str">
-        <f>IF(T298&lt;&gt;"",VLOOKUP(T298,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T298&lt;&gt;"",VLOOKUP(T298,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U298" s="3" t="str">
-        <f>IF(V298&lt;&gt;"",VLOOKUP(V298,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V298&lt;&gt;"",VLOOKUP(V298,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W298" s="3">
@@ -30998,15 +31003,15 @@
         <v>0</v>
       </c>
       <c r="Q299" s="3" t="str">
-        <f>IF(R299&lt;&gt;"",VLOOKUP(R299,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R299&lt;&gt;"",VLOOKUP(R299,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S299" s="3" t="str">
-        <f>IF(T299&lt;&gt;"",VLOOKUP(T299,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T299&lt;&gt;"",VLOOKUP(T299,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U299" s="3" t="str">
-        <f>IF(V299&lt;&gt;"",VLOOKUP(V299,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V299&lt;&gt;"",VLOOKUP(V299,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W299" s="3">
@@ -31073,15 +31078,15 @@
         <v>0</v>
       </c>
       <c r="Q300" s="3" t="str">
-        <f>IF(R300&lt;&gt;"",VLOOKUP(R300,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R300&lt;&gt;"",VLOOKUP(R300,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S300" s="3" t="str">
-        <f>IF(T300&lt;&gt;"",VLOOKUP(T300,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T300&lt;&gt;"",VLOOKUP(T300,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U300" s="3" t="str">
-        <f>IF(V300&lt;&gt;"",VLOOKUP(V300,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V300&lt;&gt;"",VLOOKUP(V300,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W300" s="3">
@@ -31147,19 +31152,19 @@
       <c r="P301">
         <v>0</v>
       </c>
-      <c r="Q301" s="3" t="str">
-        <f>IF(R301&lt;&gt;"",VLOOKUP(R301,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Eastmarch</v>
+      <c r="Q301" s="3">
+        <f>IF(R301&lt;&gt;"",VLOOKUP(R301,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>449</v>
       </c>
       <c r="R301" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S301" s="3" t="str">
-        <f>IF(T301&lt;&gt;"",VLOOKUP(T301,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T301&lt;&gt;"",VLOOKUP(T301,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U301" s="3" t="str">
-        <f>IF(V301&lt;&gt;"",VLOOKUP(V301,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V301&lt;&gt;"",VLOOKUP(V301,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W301" s="3">
@@ -31175,7 +31180,7 @@
       </c>
       <c r="Z301" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Eastmarch}, veteran=false</v>
+        <v>, zoneIds={449}, veteran=false</v>
       </c>
       <c r="AA301" s="7" t="str">
         <f t="shared" si="22"/>
@@ -31229,15 +31234,15 @@
         <v>0</v>
       </c>
       <c r="Q302" s="3" t="str">
-        <f>IF(R302&lt;&gt;"",VLOOKUP(R302,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R302&lt;&gt;"",VLOOKUP(R302,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S302" s="3" t="str">
-        <f>IF(T302&lt;&gt;"",VLOOKUP(T302,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T302&lt;&gt;"",VLOOKUP(T302,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U302" s="3" t="str">
-        <f>IF(V302&lt;&gt;"",VLOOKUP(V302,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V302&lt;&gt;"",VLOOKUP(V302,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W302" s="3">
@@ -31304,15 +31309,15 @@
         <v>0</v>
       </c>
       <c r="Q303" s="3" t="str">
-        <f>IF(R303&lt;&gt;"",VLOOKUP(R303,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R303&lt;&gt;"",VLOOKUP(R303,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S303" s="3" t="str">
-        <f>IF(T303&lt;&gt;"",VLOOKUP(T303,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T303&lt;&gt;"",VLOOKUP(T303,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U303" s="3" t="str">
-        <f>IF(V303&lt;&gt;"",VLOOKUP(V303,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V303&lt;&gt;"",VLOOKUP(V303,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W303" s="3">
@@ -31379,15 +31384,15 @@
         <v>0</v>
       </c>
       <c r="Q304" s="3" t="str">
-        <f>IF(R304&lt;&gt;"",VLOOKUP(R304,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R304&lt;&gt;"",VLOOKUP(R304,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S304" s="3" t="str">
-        <f>IF(T304&lt;&gt;"",VLOOKUP(T304,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T304&lt;&gt;"",VLOOKUP(T304,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U304" s="3" t="str">
-        <f>IF(V304&lt;&gt;"",VLOOKUP(V304,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V304&lt;&gt;"",VLOOKUP(V304,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W304" s="3">
@@ -31457,15 +31462,15 @@
         <v>0</v>
       </c>
       <c r="Q305" s="3" t="str">
-        <f>IF(R305&lt;&gt;"",VLOOKUP(R305,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R305&lt;&gt;"",VLOOKUP(R305,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S305" s="3" t="str">
-        <f>IF(T305&lt;&gt;"",VLOOKUP(T305,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T305&lt;&gt;"",VLOOKUP(T305,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U305" s="3" t="str">
-        <f>IF(V305&lt;&gt;"",VLOOKUP(V305,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V305&lt;&gt;"",VLOOKUP(V305,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W305" s="3">
@@ -31532,15 +31537,15 @@
         <v>0</v>
       </c>
       <c r="Q306" s="3" t="str">
-        <f>IF(R306&lt;&gt;"",VLOOKUP(R306,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R306&lt;&gt;"",VLOOKUP(R306,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S306" s="3" t="str">
-        <f>IF(T306&lt;&gt;"",VLOOKUP(T306,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T306&lt;&gt;"",VLOOKUP(T306,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U306" s="3" t="str">
-        <f>IF(V306&lt;&gt;"",VLOOKUP(V306,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V306&lt;&gt;"",VLOOKUP(V306,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W306" s="3">
@@ -31607,15 +31612,15 @@
         <v>0</v>
       </c>
       <c r="Q307" s="3" t="str">
-        <f>IF(R307&lt;&gt;"",VLOOKUP(R307,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R307&lt;&gt;"",VLOOKUP(R307,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S307" s="3" t="str">
-        <f>IF(T307&lt;&gt;"",VLOOKUP(T307,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T307&lt;&gt;"",VLOOKUP(T307,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U307" s="3" t="str">
-        <f>IF(V307&lt;&gt;"",VLOOKUP(V307,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V307&lt;&gt;"",VLOOKUP(V307,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W307" s="3">
@@ -31682,15 +31687,15 @@
         <v>5</v>
       </c>
       <c r="Q308" s="3" t="str">
-        <f>IF(R308&lt;&gt;"",VLOOKUP(R308,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R308&lt;&gt;"",VLOOKUP(R308,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S308" s="3" t="str">
-        <f>IF(T308&lt;&gt;"",VLOOKUP(T308,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T308&lt;&gt;"",VLOOKUP(T308,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U308" s="3" t="str">
-        <f>IF(V308&lt;&gt;"",VLOOKUP(V308,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V308&lt;&gt;"",VLOOKUP(V308,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W308" s="3">
@@ -31757,15 +31762,15 @@
         <v>0</v>
       </c>
       <c r="Q309" s="3" t="str">
-        <f>IF(R309&lt;&gt;"",VLOOKUP(R309,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R309&lt;&gt;"",VLOOKUP(R309,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S309" s="3" t="str">
-        <f>IF(T309&lt;&gt;"",VLOOKUP(T309,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T309&lt;&gt;"",VLOOKUP(T309,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U309" s="3" t="str">
-        <f>IF(V309&lt;&gt;"",VLOOKUP(V309,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V309&lt;&gt;"",VLOOKUP(V309,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W309" s="3">
@@ -31832,15 +31837,15 @@
         <v>0</v>
       </c>
       <c r="Q310" s="3" t="str">
-        <f>IF(R310&lt;&gt;"",VLOOKUP(R310,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R310&lt;&gt;"",VLOOKUP(R310,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S310" s="3" t="str">
-        <f>IF(T310&lt;&gt;"",VLOOKUP(T310,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T310&lt;&gt;"",VLOOKUP(T310,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U310" s="3" t="str">
-        <f>IF(V310&lt;&gt;"",VLOOKUP(V310,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V310&lt;&gt;"",VLOOKUP(V310,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W310" s="3">
@@ -31907,15 +31912,15 @@
         <v>0</v>
       </c>
       <c r="Q311" s="3" t="str">
-        <f>IF(R311&lt;&gt;"",VLOOKUP(R311,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R311&lt;&gt;"",VLOOKUP(R311,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S311" s="3" t="str">
-        <f>IF(T311&lt;&gt;"",VLOOKUP(T311,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T311&lt;&gt;"",VLOOKUP(T311,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U311" s="3" t="str">
-        <f>IF(V311&lt;&gt;"",VLOOKUP(V311,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V311&lt;&gt;"",VLOOKUP(V311,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W311" s="3">
@@ -31982,15 +31987,15 @@
         <v>0</v>
       </c>
       <c r="Q312" s="3" t="str">
-        <f>IF(R312&lt;&gt;"",VLOOKUP(R312,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R312&lt;&gt;"",VLOOKUP(R312,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S312" s="3" t="str">
-        <f>IF(T312&lt;&gt;"",VLOOKUP(T312,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T312&lt;&gt;"",VLOOKUP(T312,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U312" s="3" t="str">
-        <f>IF(V312&lt;&gt;"",VLOOKUP(V312,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V312&lt;&gt;"",VLOOKUP(V312,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W312" s="3">
@@ -32043,19 +32048,19 @@
       <c r="L313" t="s">
         <v>105</v>
       </c>
-      <c r="Q313" s="3" t="str">
-        <f>IF(R313&lt;&gt;"",VLOOKUP(R313,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q313" s="3">
+        <f>IF(R313&lt;&gt;"",VLOOKUP(R313,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R313" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S313" s="3" t="str">
-        <f>IF(T313&lt;&gt;"",VLOOKUP(T313,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T313&lt;&gt;"",VLOOKUP(T313,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U313" s="3" t="str">
-        <f>IF(V313&lt;&gt;"",VLOOKUP(V313,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V313&lt;&gt;"",VLOOKUP(V313,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y313" s="7" t="str">
@@ -32064,7 +32069,7 @@
       </c>
       <c r="Z313" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA313" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32101,19 +32106,19 @@
       <c r="L314" t="s">
         <v>105</v>
       </c>
-      <c r="Q314" s="3" t="str">
-        <f>IF(R314&lt;&gt;"",VLOOKUP(R314,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q314" s="3">
+        <f>IF(R314&lt;&gt;"",VLOOKUP(R314,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R314" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S314" s="3" t="str">
-        <f>IF(T314&lt;&gt;"",VLOOKUP(T314,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T314&lt;&gt;"",VLOOKUP(T314,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U314" s="3" t="str">
-        <f>IF(V314&lt;&gt;"",VLOOKUP(V314,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V314&lt;&gt;"",VLOOKUP(V314,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y314" s="7" t="str">
@@ -32122,7 +32127,7 @@
       </c>
       <c r="Z314" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA314" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32159,19 +32164,19 @@
       <c r="L315" t="s">
         <v>105</v>
       </c>
-      <c r="Q315" s="3" t="str">
-        <f>IF(R315&lt;&gt;"",VLOOKUP(R315,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q315" s="3">
+        <f>IF(R315&lt;&gt;"",VLOOKUP(R315,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R315" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S315" s="3" t="str">
-        <f>IF(T315&lt;&gt;"",VLOOKUP(T315,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T315&lt;&gt;"",VLOOKUP(T315,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U315" s="3" t="str">
-        <f>IF(V315&lt;&gt;"",VLOOKUP(V315,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V315&lt;&gt;"",VLOOKUP(V315,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y315" s="7" t="str">
@@ -32180,7 +32185,7 @@
       </c>
       <c r="Z315" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA315" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32217,19 +32222,19 @@
       <c r="L316" t="s">
         <v>105</v>
       </c>
-      <c r="Q316" s="3" t="str">
-        <f>IF(R316&lt;&gt;"",VLOOKUP(R316,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q316" s="3">
+        <f>IF(R316&lt;&gt;"",VLOOKUP(R316,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R316" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S316" s="3" t="str">
-        <f>IF(T316&lt;&gt;"",VLOOKUP(T316,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T316&lt;&gt;"",VLOOKUP(T316,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U316" s="3" t="str">
-        <f>IF(V316&lt;&gt;"",VLOOKUP(V316,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V316&lt;&gt;"",VLOOKUP(V316,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y316" s="7" t="str">
@@ -32238,7 +32243,7 @@
       </c>
       <c r="Z316" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA316" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32275,19 +32280,19 @@
       <c r="L317" t="s">
         <v>105</v>
       </c>
-      <c r="Q317" s="3" t="str">
-        <f>IF(R317&lt;&gt;"",VLOOKUP(R317,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q317" s="3">
+        <f>IF(R317&lt;&gt;"",VLOOKUP(R317,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R317" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S317" s="3" t="str">
-        <f>IF(T317&lt;&gt;"",VLOOKUP(T317,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T317&lt;&gt;"",VLOOKUP(T317,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U317" s="3" t="str">
-        <f>IF(V317&lt;&gt;"",VLOOKUP(V317,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V317&lt;&gt;"",VLOOKUP(V317,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y317" s="7" t="str">
@@ -32296,7 +32301,7 @@
       </c>
       <c r="Z317" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA317" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32333,19 +32338,19 @@
       <c r="L318" t="s">
         <v>105</v>
       </c>
-      <c r="Q318" s="3" t="str">
-        <f>IF(R318&lt;&gt;"",VLOOKUP(R318,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q318" s="3">
+        <f>IF(R318&lt;&gt;"",VLOOKUP(R318,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R318" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S318" s="3" t="str">
-        <f>IF(T318&lt;&gt;"",VLOOKUP(T318,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T318&lt;&gt;"",VLOOKUP(T318,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U318" s="3" t="str">
-        <f>IF(V318&lt;&gt;"",VLOOKUP(V318,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V318&lt;&gt;"",VLOOKUP(V318,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y318" s="7" t="str">
@@ -32354,7 +32359,7 @@
       </c>
       <c r="Z318" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA318" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32391,19 +32396,19 @@
       <c r="L319" t="s">
         <v>105</v>
       </c>
-      <c r="Q319" s="3" t="str">
-        <f>IF(R319&lt;&gt;"",VLOOKUP(R319,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q319" s="3">
+        <f>IF(R319&lt;&gt;"",VLOOKUP(R319,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R319" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S319" s="3" t="str">
-        <f>IF(T319&lt;&gt;"",VLOOKUP(T319,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T319&lt;&gt;"",VLOOKUP(T319,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U319" s="3" t="str">
-        <f>IF(V319&lt;&gt;"",VLOOKUP(V319,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V319&lt;&gt;"",VLOOKUP(V319,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y319" s="7" t="str">
@@ -32412,7 +32417,7 @@
       </c>
       <c r="Z319" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA319" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32449,19 +32454,19 @@
       <c r="L320" t="s">
         <v>105</v>
       </c>
-      <c r="Q320" s="3" t="str">
-        <f>IF(R320&lt;&gt;"",VLOOKUP(R320,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q320" s="3">
+        <f>IF(R320&lt;&gt;"",VLOOKUP(R320,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R320" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S320" s="3" t="str">
-        <f>IF(T320&lt;&gt;"",VLOOKUP(T320,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T320&lt;&gt;"",VLOOKUP(T320,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U320" s="3" t="str">
-        <f>IF(V320&lt;&gt;"",VLOOKUP(V320,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V320&lt;&gt;"",VLOOKUP(V320,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y320" s="7" t="str">
@@ -32470,7 +32475,7 @@
       </c>
       <c r="Z320" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA320" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32507,19 +32512,19 @@
       <c r="L321" t="s">
         <v>105</v>
       </c>
-      <c r="Q321" s="3" t="str">
-        <f>IF(R321&lt;&gt;"",VLOOKUP(R321,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q321" s="3">
+        <f>IF(R321&lt;&gt;"",VLOOKUP(R321,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R321" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S321" s="3" t="str">
-        <f>IF(T321&lt;&gt;"",VLOOKUP(T321,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T321&lt;&gt;"",VLOOKUP(T321,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U321" s="3" t="str">
-        <f>IF(V321&lt;&gt;"",VLOOKUP(V321,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V321&lt;&gt;"",VLOOKUP(V321,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y321" s="7" t="str">
@@ -32528,7 +32533,7 @@
       </c>
       <c r="Z321" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA321" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32565,19 +32570,19 @@
       <c r="L322" t="s">
         <v>105</v>
       </c>
-      <c r="Q322" s="3" t="str">
-        <f>IF(R322&lt;&gt;"",VLOOKUP(R322,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q322" s="3">
+        <f>IF(R322&lt;&gt;"",VLOOKUP(R322,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R322" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S322" s="3" t="str">
-        <f>IF(T322&lt;&gt;"",VLOOKUP(T322,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T322&lt;&gt;"",VLOOKUP(T322,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U322" s="3" t="str">
-        <f>IF(V322&lt;&gt;"",VLOOKUP(V322,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V322&lt;&gt;"",VLOOKUP(V322,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y322" s="7" t="str">
@@ -32586,7 +32591,7 @@
       </c>
       <c r="Z322" s="7" t="str">
         <f t="shared" si="21"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA322" s="7" t="str">
         <f t="shared" si="22"/>
@@ -32623,19 +32628,19 @@
       <c r="L323" t="s">
         <v>105</v>
       </c>
-      <c r="Q323" s="3" t="str">
-        <f>IF(R323&lt;&gt;"",VLOOKUP(R323,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q323" s="3">
+        <f>IF(R323&lt;&gt;"",VLOOKUP(R323,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R323" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S323" s="3" t="str">
-        <f>IF(T323&lt;&gt;"",VLOOKUP(T323,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T323&lt;&gt;"",VLOOKUP(T323,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U323" s="3" t="str">
-        <f>IF(V323&lt;&gt;"",VLOOKUP(V323,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V323&lt;&gt;"",VLOOKUP(V323,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y323" s="7" t="str">
@@ -32644,7 +32649,7 @@
       </c>
       <c r="Z323" s="7" t="str">
         <f t="shared" ref="Z323:Z386" si="26">IF(A323&lt;&gt;"",IF(Q323&lt;&gt;"",CONCATENATE(", zoneIds={",Q323),"")&amp;IF(S323&lt;&gt;"",CONCATENATE(",",S323),"")&amp;IF(U323&lt;&gt;"",CONCATENATE(",",U323),"")&amp;IF(Q323&lt;&gt;"",CONCATENATE("}",""),"")&amp;IF(OR(K323="true",K323="false",K323&lt;&gt;""), CONCATENATE(", veteran=", K323), ""),"")</f>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA323" s="7" t="str">
         <f t="shared" ref="AA323:AA386" si="27">IF(A323&lt;&gt;"",IF(I323="Trial",", isTrial=true",IF(I323="Arena",", isArena=true", IF(I323="Monster",", isMonster=true",""))) &amp; IF(L323="true", CONCATENATE(", multiTrialSet=true"), ""),"")</f>
@@ -32681,19 +32686,19 @@
       <c r="L324" t="s">
         <v>105</v>
       </c>
-      <c r="Q324" s="3" t="str">
-        <f>IF(R324&lt;&gt;"",VLOOKUP(R324,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q324" s="3">
+        <f>IF(R324&lt;&gt;"",VLOOKUP(R324,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R324" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S324" s="3" t="str">
-        <f>IF(T324&lt;&gt;"",VLOOKUP(T324,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T324&lt;&gt;"",VLOOKUP(T324,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U324" s="3" t="str">
-        <f>IF(V324&lt;&gt;"",VLOOKUP(V324,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V324&lt;&gt;"",VLOOKUP(V324,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y324" s="7" t="str">
@@ -32702,7 +32707,7 @@
       </c>
       <c r="Z324" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA324" s="7" t="str">
         <f t="shared" si="27"/>
@@ -32739,19 +32744,19 @@
       <c r="L325" t="s">
         <v>105</v>
       </c>
-      <c r="Q325" s="3" t="str">
-        <f>IF(R325&lt;&gt;"",VLOOKUP(R325,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q325" s="3">
+        <f>IF(R325&lt;&gt;"",VLOOKUP(R325,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R325" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S325" s="3" t="str">
-        <f>IF(T325&lt;&gt;"",VLOOKUP(T325,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T325&lt;&gt;"",VLOOKUP(T325,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U325" s="3" t="str">
-        <f>IF(V325&lt;&gt;"",VLOOKUP(V325,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V325&lt;&gt;"",VLOOKUP(V325,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y325" s="7" t="str">
@@ -32760,7 +32765,7 @@
       </c>
       <c r="Z325" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Wrothgar}, veteran=true</v>
+        <v>, zoneIds={677}, veteran=true</v>
       </c>
       <c r="AA325" s="7" t="str">
         <f t="shared" si="27"/>
@@ -32797,19 +32802,19 @@
       <c r="L326" t="s">
         <v>105</v>
       </c>
-      <c r="Q326" s="3" t="str">
-        <f>IF(R326&lt;&gt;"",VLOOKUP(R326,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q326" s="3">
+        <f>IF(R326&lt;&gt;"",VLOOKUP(R326,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R326" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S326" s="3" t="str">
-        <f>IF(T326&lt;&gt;"",VLOOKUP(T326,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T326&lt;&gt;"",VLOOKUP(T326,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U326" s="3" t="str">
-        <f>IF(V326&lt;&gt;"",VLOOKUP(V326,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V326&lt;&gt;"",VLOOKUP(V326,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y326" s="7" t="str">
@@ -32818,7 +32823,7 @@
       </c>
       <c r="Z326" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA326" s="7" t="str">
         <f t="shared" si="27"/>
@@ -32855,19 +32860,19 @@
       <c r="L327" t="s">
         <v>105</v>
       </c>
-      <c r="Q327" s="3" t="str">
-        <f>IF(R327&lt;&gt;"",VLOOKUP(R327,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q327" s="3">
+        <f>IF(R327&lt;&gt;"",VLOOKUP(R327,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R327" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S327" s="3" t="str">
-        <f>IF(T327&lt;&gt;"",VLOOKUP(T327,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T327&lt;&gt;"",VLOOKUP(T327,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U327" s="3" t="str">
-        <f>IF(V327&lt;&gt;"",VLOOKUP(V327,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V327&lt;&gt;"",VLOOKUP(V327,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y327" s="7" t="str">
@@ -32876,7 +32881,7 @@
       </c>
       <c r="Z327" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA327" s="7" t="str">
         <f t="shared" si="27"/>
@@ -32913,19 +32918,19 @@
       <c r="L328" t="s">
         <v>105</v>
       </c>
-      <c r="Q328" s="3" t="str">
-        <f>IF(R328&lt;&gt;"",VLOOKUP(R328,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q328" s="3">
+        <f>IF(R328&lt;&gt;"",VLOOKUP(R328,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R328" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S328" s="3" t="str">
-        <f>IF(T328&lt;&gt;"",VLOOKUP(T328,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T328&lt;&gt;"",VLOOKUP(T328,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U328" s="3" t="str">
-        <f>IF(V328&lt;&gt;"",VLOOKUP(V328,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V328&lt;&gt;"",VLOOKUP(V328,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y328" s="7" t="str">
@@ -32934,7 +32939,7 @@
       </c>
       <c r="Z328" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA328" s="7" t="str">
         <f t="shared" si="27"/>
@@ -32971,19 +32976,19 @@
       <c r="L329" t="s">
         <v>105</v>
       </c>
-      <c r="Q329" s="3" t="str">
-        <f>IF(R329&lt;&gt;"",VLOOKUP(R329,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q329" s="3">
+        <f>IF(R329&lt;&gt;"",VLOOKUP(R329,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R329" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S329" s="3" t="str">
-        <f>IF(T329&lt;&gt;"",VLOOKUP(T329,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T329&lt;&gt;"",VLOOKUP(T329,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U329" s="3" t="str">
-        <f>IF(V329&lt;&gt;"",VLOOKUP(V329,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V329&lt;&gt;"",VLOOKUP(V329,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y329" s="7" t="str">
@@ -32992,7 +32997,7 @@
       </c>
       <c r="Z329" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA329" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33029,19 +33034,19 @@
       <c r="L330" t="s">
         <v>105</v>
       </c>
-      <c r="Q330" s="3" t="str">
-        <f>IF(R330&lt;&gt;"",VLOOKUP(R330,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q330" s="3">
+        <f>IF(R330&lt;&gt;"",VLOOKUP(R330,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R330" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S330" s="3" t="str">
-        <f>IF(T330&lt;&gt;"",VLOOKUP(T330,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T330&lt;&gt;"",VLOOKUP(T330,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U330" s="3" t="str">
-        <f>IF(V330&lt;&gt;"",VLOOKUP(V330,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V330&lt;&gt;"",VLOOKUP(V330,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y330" s="7" t="str">
@@ -33050,7 +33055,7 @@
       </c>
       <c r="Z330" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA330" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33087,19 +33092,19 @@
       <c r="L331" t="s">
         <v>105</v>
       </c>
-      <c r="Q331" s="3" t="str">
-        <f>IF(R331&lt;&gt;"",VLOOKUP(R331,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q331" s="3">
+        <f>IF(R331&lt;&gt;"",VLOOKUP(R331,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R331" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S331" s="3" t="str">
-        <f>IF(T331&lt;&gt;"",VLOOKUP(T331,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T331&lt;&gt;"",VLOOKUP(T331,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U331" s="3" t="str">
-        <f>IF(V331&lt;&gt;"",VLOOKUP(V331,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V331&lt;&gt;"",VLOOKUP(V331,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y331" s="7" t="str">
@@ -33108,7 +33113,7 @@
       </c>
       <c r="Z331" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA331" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33145,19 +33150,19 @@
       <c r="L332" t="s">
         <v>105</v>
       </c>
-      <c r="Q332" s="3" t="str">
-        <f>IF(R332&lt;&gt;"",VLOOKUP(R332,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q332" s="3">
+        <f>IF(R332&lt;&gt;"",VLOOKUP(R332,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R332" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S332" s="3" t="str">
-        <f>IF(T332&lt;&gt;"",VLOOKUP(T332,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T332&lt;&gt;"",VLOOKUP(T332,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U332" s="3" t="str">
-        <f>IF(V332&lt;&gt;"",VLOOKUP(V332,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V332&lt;&gt;"",VLOOKUP(V332,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y332" s="7" t="str">
@@ -33166,7 +33171,7 @@
       </c>
       <c r="Z332" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA332" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33203,19 +33208,19 @@
       <c r="L333" t="s">
         <v>105</v>
       </c>
-      <c r="Q333" s="3" t="str">
-        <f>IF(R333&lt;&gt;"",VLOOKUP(R333,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q333" s="3">
+        <f>IF(R333&lt;&gt;"",VLOOKUP(R333,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R333" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S333" s="3" t="str">
-        <f>IF(T333&lt;&gt;"",VLOOKUP(T333,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T333&lt;&gt;"",VLOOKUP(T333,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U333" s="3" t="str">
-        <f>IF(V333&lt;&gt;"",VLOOKUP(V333,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V333&lt;&gt;"",VLOOKUP(V333,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y333" s="7" t="str">
@@ -33224,7 +33229,7 @@
       </c>
       <c r="Z333" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA333" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33261,19 +33266,19 @@
       <c r="L334" t="s">
         <v>105</v>
       </c>
-      <c r="Q334" s="3" t="str">
-        <f>IF(R334&lt;&gt;"",VLOOKUP(R334,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q334" s="3">
+        <f>IF(R334&lt;&gt;"",VLOOKUP(R334,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R334" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S334" s="3" t="str">
-        <f>IF(T334&lt;&gt;"",VLOOKUP(T334,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T334&lt;&gt;"",VLOOKUP(T334,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U334" s="3" t="str">
-        <f>IF(V334&lt;&gt;"",VLOOKUP(V334,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V334&lt;&gt;"",VLOOKUP(V334,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y334" s="7" t="str">
@@ -33282,7 +33287,7 @@
       </c>
       <c r="Z334" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA334" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33319,19 +33324,19 @@
       <c r="L335" t="s">
         <v>105</v>
       </c>
-      <c r="Q335" s="3" t="str">
-        <f>IF(R335&lt;&gt;"",VLOOKUP(R335,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q335" s="3">
+        <f>IF(R335&lt;&gt;"",VLOOKUP(R335,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R335" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S335" s="3" t="str">
-        <f>IF(T335&lt;&gt;"",VLOOKUP(T335,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T335&lt;&gt;"",VLOOKUP(T335,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U335" s="3" t="str">
-        <f>IF(V335&lt;&gt;"",VLOOKUP(V335,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V335&lt;&gt;"",VLOOKUP(V335,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y335" s="7" t="str">
@@ -33340,7 +33345,7 @@
       </c>
       <c r="Z335" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA335" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33377,19 +33382,19 @@
       <c r="L336" t="s">
         <v>105</v>
       </c>
-      <c r="Q336" s="3" t="str">
-        <f>IF(R336&lt;&gt;"",VLOOKUP(R336,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q336" s="3">
+        <f>IF(R336&lt;&gt;"",VLOOKUP(R336,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R336" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S336" s="3" t="str">
-        <f>IF(T336&lt;&gt;"",VLOOKUP(T336,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T336&lt;&gt;"",VLOOKUP(T336,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U336" s="3" t="str">
-        <f>IF(V336&lt;&gt;"",VLOOKUP(V336,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V336&lt;&gt;"",VLOOKUP(V336,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y336" s="7" t="str">
@@ -33398,7 +33403,7 @@
       </c>
       <c r="Z336" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA336" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33435,19 +33440,19 @@
       <c r="L337" t="s">
         <v>105</v>
       </c>
-      <c r="Q337" s="3" t="str">
-        <f>IF(R337&lt;&gt;"",VLOOKUP(R337,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q337" s="3">
+        <f>IF(R337&lt;&gt;"",VLOOKUP(R337,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R337" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S337" s="3" t="str">
-        <f>IF(T337&lt;&gt;"",VLOOKUP(T337,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T337&lt;&gt;"",VLOOKUP(T337,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U337" s="3" t="str">
-        <f>IF(V337&lt;&gt;"",VLOOKUP(V337,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V337&lt;&gt;"",VLOOKUP(V337,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y337" s="7" t="str">
@@ -33456,7 +33461,7 @@
       </c>
       <c r="Z337" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA337" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33493,19 +33498,19 @@
       <c r="L338" t="s">
         <v>105</v>
       </c>
-      <c r="Q338" s="3" t="str">
-        <f>IF(R338&lt;&gt;"",VLOOKUP(R338,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q338" s="3">
+        <f>IF(R338&lt;&gt;"",VLOOKUP(R338,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R338" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S338" s="3" t="str">
-        <f>IF(T338&lt;&gt;"",VLOOKUP(T338,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T338&lt;&gt;"",VLOOKUP(T338,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U338" s="3" t="str">
-        <f>IF(V338&lt;&gt;"",VLOOKUP(V338,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V338&lt;&gt;"",VLOOKUP(V338,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y338" s="7" t="str">
@@ -33514,7 +33519,7 @@
       </c>
       <c r="Z338" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA338" s="7" t="str">
         <f t="shared" si="27"/>
@@ -33565,15 +33570,15 @@
         <v>0</v>
       </c>
       <c r="Q339" s="3" t="str">
-        <f>IF(R339&lt;&gt;"",VLOOKUP(R339,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R339&lt;&gt;"",VLOOKUP(R339,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S339" s="3" t="str">
-        <f>IF(T339&lt;&gt;"",VLOOKUP(T339,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T339&lt;&gt;"",VLOOKUP(T339,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U339" s="3" t="str">
-        <f>IF(V339&lt;&gt;"",VLOOKUP(V339,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V339&lt;&gt;"",VLOOKUP(V339,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W339" s="3">
@@ -33643,15 +33648,15 @@
         <v>0</v>
       </c>
       <c r="Q340" s="3" t="str">
-        <f>IF(R340&lt;&gt;"",VLOOKUP(R340,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R340&lt;&gt;"",VLOOKUP(R340,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S340" s="3" t="str">
-        <f>IF(T340&lt;&gt;"",VLOOKUP(T340,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T340&lt;&gt;"",VLOOKUP(T340,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U340" s="3" t="str">
-        <f>IF(V340&lt;&gt;"",VLOOKUP(V340,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V340&lt;&gt;"",VLOOKUP(V340,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W340" s="3">
@@ -33718,15 +33723,15 @@
         <v>0</v>
       </c>
       <c r="Q341" s="3" t="str">
-        <f>IF(R341&lt;&gt;"",VLOOKUP(R341,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R341&lt;&gt;"",VLOOKUP(R341,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S341" s="3" t="str">
-        <f>IF(T341&lt;&gt;"",VLOOKUP(T341,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T341&lt;&gt;"",VLOOKUP(T341,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U341" s="3" t="str">
-        <f>IF(V341&lt;&gt;"",VLOOKUP(V341,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V341&lt;&gt;"",VLOOKUP(V341,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W341" s="3">
@@ -33793,15 +33798,15 @@
         <v>0</v>
       </c>
       <c r="Q342" s="3" t="str">
-        <f>IF(R342&lt;&gt;"",VLOOKUP(R342,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R342&lt;&gt;"",VLOOKUP(R342,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S342" s="3" t="str">
-        <f>IF(T342&lt;&gt;"",VLOOKUP(T342,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T342&lt;&gt;"",VLOOKUP(T342,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U342" s="3" t="str">
-        <f>IF(V342&lt;&gt;"",VLOOKUP(V342,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V342&lt;&gt;"",VLOOKUP(V342,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W342" s="3">
@@ -33868,15 +33873,15 @@
         <v>0</v>
       </c>
       <c r="Q343" s="3" t="str">
-        <f>IF(R343&lt;&gt;"",VLOOKUP(R343,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R343&lt;&gt;"",VLOOKUP(R343,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S343" s="3" t="str">
-        <f>IF(T343&lt;&gt;"",VLOOKUP(T343,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T343&lt;&gt;"",VLOOKUP(T343,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U343" s="3" t="str">
-        <f>IF(V343&lt;&gt;"",VLOOKUP(V343,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V343&lt;&gt;"",VLOOKUP(V343,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W343" s="3">
@@ -33943,15 +33948,15 @@
         <v>0</v>
       </c>
       <c r="Q344" s="3" t="str">
-        <f>IF(R344&lt;&gt;"",VLOOKUP(R344,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R344&lt;&gt;"",VLOOKUP(R344,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S344" s="3" t="str">
-        <f>IF(T344&lt;&gt;"",VLOOKUP(T344,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T344&lt;&gt;"",VLOOKUP(T344,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U344" s="3" t="str">
-        <f>IF(V344&lt;&gt;"",VLOOKUP(V344,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V344&lt;&gt;"",VLOOKUP(V344,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W344" s="3">
@@ -34021,15 +34026,15 @@
         <v>0</v>
       </c>
       <c r="Q345" s="3" t="str">
-        <f>IF(R345&lt;&gt;"",VLOOKUP(R345,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R345&lt;&gt;"",VLOOKUP(R345,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S345" s="3" t="str">
-        <f>IF(T345&lt;&gt;"",VLOOKUP(T345,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T345&lt;&gt;"",VLOOKUP(T345,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U345" s="3" t="str">
-        <f>IF(V345&lt;&gt;"",VLOOKUP(V345,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V345&lt;&gt;"",VLOOKUP(V345,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W345" s="3">
@@ -34096,15 +34101,15 @@
         <v>0</v>
       </c>
       <c r="Q346" s="3" t="str">
-        <f>IF(R346&lt;&gt;"",VLOOKUP(R346,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R346&lt;&gt;"",VLOOKUP(R346,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S346" s="3" t="str">
-        <f>IF(T346&lt;&gt;"",VLOOKUP(T346,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T346&lt;&gt;"",VLOOKUP(T346,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U346" s="3" t="str">
-        <f>IF(V346&lt;&gt;"",VLOOKUP(V346,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V346&lt;&gt;"",VLOOKUP(V346,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W346" s="3">
@@ -34171,15 +34176,15 @@
         <v>0</v>
       </c>
       <c r="Q347" s="3" t="str">
-        <f>IF(R347&lt;&gt;"",VLOOKUP(R347,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R347&lt;&gt;"",VLOOKUP(R347,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S347" s="3" t="str">
-        <f>IF(T347&lt;&gt;"",VLOOKUP(T347,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T347&lt;&gt;"",VLOOKUP(T347,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U347" s="3" t="str">
-        <f>IF(V347&lt;&gt;"",VLOOKUP(V347,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V347&lt;&gt;"",VLOOKUP(V347,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W347" s="3">
@@ -34244,19 +34249,19 @@
       <c r="P348">
         <v>0</v>
       </c>
-      <c r="Q348" s="3" t="str">
-        <f>IF(R348&lt;&gt;"",VLOOKUP(R348,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q348" s="3">
+        <f>IF(R348&lt;&gt;"",VLOOKUP(R348,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>635</v>
       </c>
       <c r="R348" s="3" t="s">
         <v>493</v>
       </c>
       <c r="S348" s="3" t="str">
-        <f>IF(T348&lt;&gt;"",VLOOKUP(T348,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T348&lt;&gt;"",VLOOKUP(T348,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U348" s="3" t="str">
-        <f>IF(V348&lt;&gt;"",VLOOKUP(V348,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V348&lt;&gt;"",VLOOKUP(V348,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W348" s="3">
@@ -34272,7 +34277,7 @@
       </c>
       <c r="Z348" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=true</v>
+        <v>, zoneIds={635}, veteran=true</v>
       </c>
       <c r="AA348" s="7" t="str">
         <f t="shared" si="27"/>
@@ -34323,15 +34328,15 @@
         <v>0</v>
       </c>
       <c r="Q349" s="3" t="str">
-        <f>IF(R349&lt;&gt;"",VLOOKUP(R349,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R349&lt;&gt;"",VLOOKUP(R349,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S349" s="3" t="str">
-        <f>IF(T349&lt;&gt;"",VLOOKUP(T349,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T349&lt;&gt;"",VLOOKUP(T349,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U349" s="3" t="str">
-        <f>IF(V349&lt;&gt;"",VLOOKUP(V349,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V349&lt;&gt;"",VLOOKUP(V349,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W349" s="3">
@@ -34397,19 +34402,19 @@
       <c r="P350">
         <v>0</v>
       </c>
-      <c r="Q350" s="3" t="str">
-        <f>IF(R350&lt;&gt;"",VLOOKUP(R350,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Craglorn</v>
+      <c r="Q350" s="3">
+        <f>IF(R350&lt;&gt;"",VLOOKUP(R350,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>973</v>
       </c>
       <c r="R350" s="3" t="s">
         <v>45</v>
       </c>
       <c r="S350" s="3" t="str">
-        <f>IF(T350&lt;&gt;"",VLOOKUP(T350,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T350&lt;&gt;"",VLOOKUP(T350,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U350" s="3" t="str">
-        <f>IF(V350&lt;&gt;"",VLOOKUP(V350,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V350&lt;&gt;"",VLOOKUP(V350,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W350" s="3">
@@ -34425,7 +34430,7 @@
       </c>
       <c r="Z350" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Craglorn}, veteran=false</v>
+        <v>, zoneIds={973}, veteran=false</v>
       </c>
       <c r="AA350" s="7" t="str">
         <f t="shared" si="27"/>
@@ -34476,15 +34481,15 @@
         <v>3</v>
       </c>
       <c r="Q351" s="3" t="str">
-        <f>IF(R351&lt;&gt;"",VLOOKUP(R351,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R351&lt;&gt;"",VLOOKUP(R351,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S351" s="3" t="str">
-        <f>IF(T351&lt;&gt;"",VLOOKUP(T351,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T351&lt;&gt;"",VLOOKUP(T351,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U351" s="3" t="str">
-        <f>IF(V351&lt;&gt;"",VLOOKUP(V351,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V351&lt;&gt;"",VLOOKUP(V351,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W351" s="3">
@@ -34551,15 +34556,15 @@
         <v>0</v>
       </c>
       <c r="Q352" s="3" t="str">
-        <f>IF(R352&lt;&gt;"",VLOOKUP(R352,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R352&lt;&gt;"",VLOOKUP(R352,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S352" s="3" t="str">
-        <f>IF(T352&lt;&gt;"",VLOOKUP(T352,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T352&lt;&gt;"",VLOOKUP(T352,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U352" s="3" t="str">
-        <f>IF(V352&lt;&gt;"",VLOOKUP(V352,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V352&lt;&gt;"",VLOOKUP(V352,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W352" s="3">
@@ -34626,15 +34631,15 @@
         <v>0</v>
       </c>
       <c r="Q353" s="3" t="str">
-        <f>IF(R353&lt;&gt;"",VLOOKUP(R353,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R353&lt;&gt;"",VLOOKUP(R353,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S353" s="3" t="str">
-        <f>IF(T353&lt;&gt;"",VLOOKUP(T353,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T353&lt;&gt;"",VLOOKUP(T353,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U353" s="3" t="str">
-        <f>IF(V353&lt;&gt;"",VLOOKUP(V353,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V353&lt;&gt;"",VLOOKUP(V353,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W353" s="3">
@@ -34701,15 +34706,15 @@
         <v>0</v>
       </c>
       <c r="Q354" s="3" t="str">
-        <f>IF(R354&lt;&gt;"",VLOOKUP(R354,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R354&lt;&gt;"",VLOOKUP(R354,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S354" s="3" t="str">
-        <f>IF(T354&lt;&gt;"",VLOOKUP(T354,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T354&lt;&gt;"",VLOOKUP(T354,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U354" s="3" t="str">
-        <f>IF(V354&lt;&gt;"",VLOOKUP(V354,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V354&lt;&gt;"",VLOOKUP(V354,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W354" s="3">
@@ -34779,15 +34784,15 @@
         <v>0</v>
       </c>
       <c r="Q355" s="3" t="str">
-        <f>IF(R355&lt;&gt;"",VLOOKUP(R355,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R355&lt;&gt;"",VLOOKUP(R355,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S355" s="3" t="str">
-        <f>IF(T355&lt;&gt;"",VLOOKUP(T355,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T355&lt;&gt;"",VLOOKUP(T355,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U355" s="3" t="str">
-        <f>IF(V355&lt;&gt;"",VLOOKUP(V355,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V355&lt;&gt;"",VLOOKUP(V355,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W355" s="3">
@@ -34854,15 +34859,15 @@
         <v>3</v>
       </c>
       <c r="Q356" s="3" t="str">
-        <f>IF(R356&lt;&gt;"",VLOOKUP(R356,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R356&lt;&gt;"",VLOOKUP(R356,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S356" s="3" t="str">
-        <f>IF(T356&lt;&gt;"",VLOOKUP(T356,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T356&lt;&gt;"",VLOOKUP(T356,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U356" s="3" t="str">
-        <f>IF(V356&lt;&gt;"",VLOOKUP(V356,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V356&lt;&gt;"",VLOOKUP(V356,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W356" s="3">
@@ -34929,15 +34934,15 @@
         <v>0</v>
       </c>
       <c r="Q357" s="3" t="str">
-        <f>IF(R357&lt;&gt;"",VLOOKUP(R357,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R357&lt;&gt;"",VLOOKUP(R357,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S357" s="3" t="str">
-        <f>IF(T357&lt;&gt;"",VLOOKUP(T357,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T357&lt;&gt;"",VLOOKUP(T357,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U357" s="3" t="str">
-        <f>IF(V357&lt;&gt;"",VLOOKUP(V357,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V357&lt;&gt;"",VLOOKUP(V357,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W357" s="3">
@@ -35004,15 +35009,15 @@
         <v>9</v>
       </c>
       <c r="Q358" s="3" t="str">
-        <f>IF(R358&lt;&gt;"",VLOOKUP(R358,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R358&lt;&gt;"",VLOOKUP(R358,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S358" s="3" t="str">
-        <f>IF(T358&lt;&gt;"",VLOOKUP(T358,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T358&lt;&gt;"",VLOOKUP(T358,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U358" s="3" t="str">
-        <f>IF(V358&lt;&gt;"",VLOOKUP(V358,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V358&lt;&gt;"",VLOOKUP(V358,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W358" s="3">
@@ -35079,15 +35084,15 @@
         <v>0</v>
       </c>
       <c r="Q359" s="3" t="str">
-        <f>IF(R359&lt;&gt;"",VLOOKUP(R359,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R359&lt;&gt;"",VLOOKUP(R359,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S359" s="3" t="str">
-        <f>IF(T359&lt;&gt;"",VLOOKUP(T359,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T359&lt;&gt;"",VLOOKUP(T359,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U359" s="3" t="str">
-        <f>IF(V359&lt;&gt;"",VLOOKUP(V359,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V359&lt;&gt;"",VLOOKUP(V359,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W359" s="3">
@@ -35154,15 +35159,15 @@
         <v>0</v>
       </c>
       <c r="Q360" s="3" t="str">
-        <f>IF(R360&lt;&gt;"",VLOOKUP(R360,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R360&lt;&gt;"",VLOOKUP(R360,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S360" s="3" t="str">
-        <f>IF(T360&lt;&gt;"",VLOOKUP(T360,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T360&lt;&gt;"",VLOOKUP(T360,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U360" s="3" t="str">
-        <f>IF(V360&lt;&gt;"",VLOOKUP(V360,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V360&lt;&gt;"",VLOOKUP(V360,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W360" s="3">
@@ -35229,15 +35234,15 @@
         <v>3</v>
       </c>
       <c r="Q361" s="3" t="str">
-        <f>IF(R361&lt;&gt;"",VLOOKUP(R361,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R361&lt;&gt;"",VLOOKUP(R361,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S361" s="3" t="str">
-        <f>IF(T361&lt;&gt;"",VLOOKUP(T361,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T361&lt;&gt;"",VLOOKUP(T361,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U361" s="3" t="str">
-        <f>IF(V361&lt;&gt;"",VLOOKUP(V361,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V361&lt;&gt;"",VLOOKUP(V361,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W361" s="3">
@@ -35304,15 +35309,15 @@
         <v>0</v>
       </c>
       <c r="Q362" s="3" t="str">
-        <f>IF(R362&lt;&gt;"",VLOOKUP(R362,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R362&lt;&gt;"",VLOOKUP(R362,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S362" s="3" t="str">
-        <f>IF(T362&lt;&gt;"",VLOOKUP(T362,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T362&lt;&gt;"",VLOOKUP(T362,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U362" s="3" t="str">
-        <f>IF(V362&lt;&gt;"",VLOOKUP(V362,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V362&lt;&gt;"",VLOOKUP(V362,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W362" s="3">
@@ -35379,15 +35384,15 @@
         <v>0</v>
       </c>
       <c r="Q363" s="3" t="str">
-        <f>IF(R363&lt;&gt;"",VLOOKUP(R363,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R363&lt;&gt;"",VLOOKUP(R363,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S363" s="3" t="str">
-        <f>IF(T363&lt;&gt;"",VLOOKUP(T363,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T363&lt;&gt;"",VLOOKUP(T363,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U363" s="3" t="str">
-        <f>IF(V363&lt;&gt;"",VLOOKUP(V363,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V363&lt;&gt;"",VLOOKUP(V363,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W363" s="3">
@@ -35454,15 +35459,15 @@
         <v>0</v>
       </c>
       <c r="Q364" s="3" t="str">
-        <f>IF(R364&lt;&gt;"",VLOOKUP(R364,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R364&lt;&gt;"",VLOOKUP(R364,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S364" s="3" t="str">
-        <f>IF(T364&lt;&gt;"",VLOOKUP(T364,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T364&lt;&gt;"",VLOOKUP(T364,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U364" s="3" t="str">
-        <f>IF(V364&lt;&gt;"",VLOOKUP(V364,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V364&lt;&gt;"",VLOOKUP(V364,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W364" s="3">
@@ -35529,15 +35534,15 @@
         <v>0</v>
       </c>
       <c r="Q365" s="3" t="str">
-        <f>IF(R365&lt;&gt;"",VLOOKUP(R365,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R365&lt;&gt;"",VLOOKUP(R365,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S365" s="3" t="str">
-        <f>IF(T365&lt;&gt;"",VLOOKUP(T365,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T365&lt;&gt;"",VLOOKUP(T365,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U365" s="3" t="str">
-        <f>IF(V365&lt;&gt;"",VLOOKUP(V365,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V365&lt;&gt;"",VLOOKUP(V365,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W365" s="3">
@@ -35604,15 +35609,15 @@
         <v>0</v>
       </c>
       <c r="Q366" s="3" t="str">
-        <f>IF(R366&lt;&gt;"",VLOOKUP(R366,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R366&lt;&gt;"",VLOOKUP(R366,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S366" s="3" t="str">
-        <f>IF(T366&lt;&gt;"",VLOOKUP(T366,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T366&lt;&gt;"",VLOOKUP(T366,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U366" s="3" t="str">
-        <f>IF(V366&lt;&gt;"",VLOOKUP(V366,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V366&lt;&gt;"",VLOOKUP(V366,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W366" s="3">
@@ -35679,15 +35684,15 @@
         <v>0</v>
       </c>
       <c r="Q367" s="3" t="str">
-        <f>IF(R367&lt;&gt;"",VLOOKUP(R367,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R367&lt;&gt;"",VLOOKUP(R367,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S367" s="3" t="str">
-        <f>IF(T367&lt;&gt;"",VLOOKUP(T367,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T367&lt;&gt;"",VLOOKUP(T367,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U367" s="3" t="str">
-        <f>IF(V367&lt;&gt;"",VLOOKUP(V367,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V367&lt;&gt;"",VLOOKUP(V367,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W367" s="3">
@@ -35754,15 +35759,15 @@
         <v>0</v>
       </c>
       <c r="Q368" s="3" t="str">
-        <f>IF(R368&lt;&gt;"",VLOOKUP(R368,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R368&lt;&gt;"",VLOOKUP(R368,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S368" s="3" t="str">
-        <f>IF(T368&lt;&gt;"",VLOOKUP(T368,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T368&lt;&gt;"",VLOOKUP(T368,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U368" s="3" t="str">
-        <f>IF(V368&lt;&gt;"",VLOOKUP(V368,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V368&lt;&gt;"",VLOOKUP(V368,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W368" s="3">
@@ -35832,15 +35837,15 @@
         <v>0</v>
       </c>
       <c r="Q369" s="3" t="str">
-        <f>IF(R369&lt;&gt;"",VLOOKUP(R369,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R369&lt;&gt;"",VLOOKUP(R369,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S369" s="3" t="str">
-        <f>IF(T369&lt;&gt;"",VLOOKUP(T369,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T369&lt;&gt;"",VLOOKUP(T369,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U369" s="3" t="str">
-        <f>IF(V369&lt;&gt;"",VLOOKUP(V369,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V369&lt;&gt;"",VLOOKUP(V369,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W369" s="3">
@@ -35907,15 +35912,15 @@
         <v>0</v>
       </c>
       <c r="Q370" s="3" t="str">
-        <f>IF(R370&lt;&gt;"",VLOOKUP(R370,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R370&lt;&gt;"",VLOOKUP(R370,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S370" s="3" t="str">
-        <f>IF(T370&lt;&gt;"",VLOOKUP(T370,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T370&lt;&gt;"",VLOOKUP(T370,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U370" s="3" t="str">
-        <f>IF(V370&lt;&gt;"",VLOOKUP(V370,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V370&lt;&gt;"",VLOOKUP(V370,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W370" s="3">
@@ -35982,15 +35987,15 @@
         <v>0</v>
       </c>
       <c r="Q371" s="3" t="str">
-        <f>IF(R371&lt;&gt;"",VLOOKUP(R371,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R371&lt;&gt;"",VLOOKUP(R371,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S371" s="3" t="str">
-        <f>IF(T371&lt;&gt;"",VLOOKUP(T371,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T371&lt;&gt;"",VLOOKUP(T371,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U371" s="3" t="str">
-        <f>IF(V371&lt;&gt;"",VLOOKUP(V371,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V371&lt;&gt;"",VLOOKUP(V371,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W371" s="3">
@@ -36057,15 +36062,15 @@
         <v>5</v>
       </c>
       <c r="Q372" s="3" t="str">
-        <f>IF(R372&lt;&gt;"",VLOOKUP(R372,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R372&lt;&gt;"",VLOOKUP(R372,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S372" s="3" t="str">
-        <f>IF(T372&lt;&gt;"",VLOOKUP(T372,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T372&lt;&gt;"",VLOOKUP(T372,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U372" s="3" t="str">
-        <f>IF(V372&lt;&gt;"",VLOOKUP(V372,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V372&lt;&gt;"",VLOOKUP(V372,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W372" s="3">
@@ -36132,15 +36137,15 @@
         <v>0</v>
       </c>
       <c r="Q373" s="3" t="str">
-        <f>IF(R373&lt;&gt;"",VLOOKUP(R373,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R373&lt;&gt;"",VLOOKUP(R373,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S373" s="3" t="str">
-        <f>IF(T373&lt;&gt;"",VLOOKUP(T373,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T373&lt;&gt;"",VLOOKUP(T373,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U373" s="3" t="str">
-        <f>IF(V373&lt;&gt;"",VLOOKUP(V373,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V373&lt;&gt;"",VLOOKUP(V373,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W373" s="3">
@@ -36207,15 +36212,15 @@
         <v>7</v>
       </c>
       <c r="Q374" s="3" t="str">
-        <f>IF(R374&lt;&gt;"",VLOOKUP(R374,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R374&lt;&gt;"",VLOOKUP(R374,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S374" s="3" t="str">
-        <f>IF(T374&lt;&gt;"",VLOOKUP(T374,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T374&lt;&gt;"",VLOOKUP(T374,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U374" s="3" t="str">
-        <f>IF(V374&lt;&gt;"",VLOOKUP(V374,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V374&lt;&gt;"",VLOOKUP(V374,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W374" s="3">
@@ -36285,15 +36290,15 @@
         <v>0</v>
       </c>
       <c r="Q375" s="3" t="str">
-        <f>IF(R375&lt;&gt;"",VLOOKUP(R375,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R375&lt;&gt;"",VLOOKUP(R375,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S375" s="3" t="str">
-        <f>IF(T375&lt;&gt;"",VLOOKUP(T375,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T375&lt;&gt;"",VLOOKUP(T375,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U375" s="3" t="str">
-        <f>IF(V375&lt;&gt;"",VLOOKUP(V375,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V375&lt;&gt;"",VLOOKUP(V375,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W375" s="3">
@@ -36360,15 +36365,15 @@
         <v>0</v>
       </c>
       <c r="Q376" s="3" t="str">
-        <f>IF(R376&lt;&gt;"",VLOOKUP(R376,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R376&lt;&gt;"",VLOOKUP(R376,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S376" s="3" t="str">
-        <f>IF(T376&lt;&gt;"",VLOOKUP(T376,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T376&lt;&gt;"",VLOOKUP(T376,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U376" s="3" t="str">
-        <f>IF(V376&lt;&gt;"",VLOOKUP(V376,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V376&lt;&gt;"",VLOOKUP(V376,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W376" s="3">
@@ -36435,15 +36440,15 @@
         <v>0</v>
       </c>
       <c r="Q377" s="3" t="str">
-        <f>IF(R377&lt;&gt;"",VLOOKUP(R377,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R377&lt;&gt;"",VLOOKUP(R377,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S377" s="3" t="str">
-        <f>IF(T377&lt;&gt;"",VLOOKUP(T377,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T377&lt;&gt;"",VLOOKUP(T377,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U377" s="3" t="str">
-        <f>IF(V377&lt;&gt;"",VLOOKUP(V377,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V377&lt;&gt;"",VLOOKUP(V377,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W377" s="3">
@@ -36510,15 +36515,15 @@
         <v>0</v>
       </c>
       <c r="Q378" s="3" t="str">
-        <f>IF(R378&lt;&gt;"",VLOOKUP(R378,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R378&lt;&gt;"",VLOOKUP(R378,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S378" s="3" t="str">
-        <f>IF(T378&lt;&gt;"",VLOOKUP(T378,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T378&lt;&gt;"",VLOOKUP(T378,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U378" s="3" t="str">
-        <f>IF(V378&lt;&gt;"",VLOOKUP(V378,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V378&lt;&gt;"",VLOOKUP(V378,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W378" s="3">
@@ -36585,15 +36590,15 @@
         <v>0</v>
       </c>
       <c r="Q379" s="3" t="str">
-        <f>IF(R379&lt;&gt;"",VLOOKUP(R379,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R379&lt;&gt;"",VLOOKUP(R379,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S379" s="3" t="str">
-        <f>IF(T379&lt;&gt;"",VLOOKUP(T379,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T379&lt;&gt;"",VLOOKUP(T379,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U379" s="3" t="str">
-        <f>IF(V379&lt;&gt;"",VLOOKUP(V379,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V379&lt;&gt;"",VLOOKUP(V379,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W379" s="3">
@@ -36660,15 +36665,15 @@
         <v>0</v>
       </c>
       <c r="Q380" s="3" t="str">
-        <f>IF(R380&lt;&gt;"",VLOOKUP(R380,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R380&lt;&gt;"",VLOOKUP(R380,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S380" s="3" t="str">
-        <f>IF(T380&lt;&gt;"",VLOOKUP(T380,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T380&lt;&gt;"",VLOOKUP(T380,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U380" s="3" t="str">
-        <f>IF(V380&lt;&gt;"",VLOOKUP(V380,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V380&lt;&gt;"",VLOOKUP(V380,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W380" s="3">
@@ -36734,19 +36739,19 @@
       <c r="P381">
         <v>0</v>
       </c>
-      <c r="Q381" s="3" t="str">
-        <f>IF(R381&lt;&gt;"",VLOOKUP(R381,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Shadowfen</v>
+      <c r="Q381" s="3">
+        <f>IF(R381&lt;&gt;"",VLOOKUP(R381,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>848</v>
       </c>
       <c r="R381" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S381" s="3" t="str">
-        <f>IF(T381&lt;&gt;"",VLOOKUP(T381,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T381&lt;&gt;"",VLOOKUP(T381,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U381" s="3" t="str">
-        <f>IF(V381&lt;&gt;"",VLOOKUP(V381,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V381&lt;&gt;"",VLOOKUP(V381,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W381" s="3">
@@ -36762,7 +36767,7 @@
       </c>
       <c r="Z381" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Shadowfen}, veteran=false</v>
+        <v>, zoneIds={848}, veteran=false</v>
       </c>
       <c r="AA381" s="7" t="str">
         <f t="shared" si="27"/>
@@ -36813,15 +36818,15 @@
         <v>0</v>
       </c>
       <c r="Q382" s="3" t="str">
-        <f>IF(R382&lt;&gt;"",VLOOKUP(R382,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R382&lt;&gt;"",VLOOKUP(R382,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S382" s="3" t="str">
-        <f>IF(T382&lt;&gt;"",VLOOKUP(T382,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T382&lt;&gt;"",VLOOKUP(T382,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U382" s="3" t="str">
-        <f>IF(V382&lt;&gt;"",VLOOKUP(V382,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V382&lt;&gt;"",VLOOKUP(V382,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W382" s="3">
@@ -36886,19 +36891,19 @@
       <c r="P383">
         <v>0</v>
       </c>
-      <c r="Q383" s="3" t="str">
-        <f>IF(R383&lt;&gt;"",VLOOKUP(R383,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q383" s="3">
+        <f>IF(R383&lt;&gt;"",VLOOKUP(R383,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R383" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S383" s="3" t="str">
-        <f>IF(T383&lt;&gt;"",VLOOKUP(T383,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T383&lt;&gt;"",VLOOKUP(T383,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U383" s="3" t="str">
-        <f>IF(V383&lt;&gt;"",VLOOKUP(V383,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V383&lt;&gt;"",VLOOKUP(V383,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W383" s="3">
@@ -36914,7 +36919,7 @@
       </c>
       <c r="Z383" s="7" t="str">
         <f t="shared" si="26"/>
-        <v>, zoneIds={Murkmire}, veteran=false</v>
+        <v>, zoneIds={1082}, veteran=false</v>
       </c>
       <c r="AA383" s="7" t="str">
         <f t="shared" si="27"/>
@@ -36968,15 +36973,15 @@
         <v>0</v>
       </c>
       <c r="Q384" s="3" t="str">
-        <f>IF(R384&lt;&gt;"",VLOOKUP(R384,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R384&lt;&gt;"",VLOOKUP(R384,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S384" s="3" t="str">
-        <f>IF(T384&lt;&gt;"",VLOOKUP(T384,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T384&lt;&gt;"",VLOOKUP(T384,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U384" s="3" t="str">
-        <f>IF(V384&lt;&gt;"",VLOOKUP(V384,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V384&lt;&gt;"",VLOOKUP(V384,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W384" s="3">
@@ -37043,15 +37048,15 @@
         <v>0</v>
       </c>
       <c r="Q385" s="3" t="str">
-        <f>IF(R385&lt;&gt;"",VLOOKUP(R385,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R385&lt;&gt;"",VLOOKUP(R385,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S385" s="3" t="str">
-        <f>IF(T385&lt;&gt;"",VLOOKUP(T385,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T385&lt;&gt;"",VLOOKUP(T385,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U385" s="3" t="str">
-        <f>IF(V385&lt;&gt;"",VLOOKUP(V385,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V385&lt;&gt;"",VLOOKUP(V385,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W385" s="3">
@@ -37118,15 +37123,15 @@
         <v>0</v>
       </c>
       <c r="Q386" s="3" t="str">
-        <f>IF(R386&lt;&gt;"",VLOOKUP(R386,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R386&lt;&gt;"",VLOOKUP(R386,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S386" s="3" t="str">
-        <f>IF(T386&lt;&gt;"",VLOOKUP(T386,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T386&lt;&gt;"",VLOOKUP(T386,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U386" s="3" t="str">
-        <f>IF(V386&lt;&gt;"",VLOOKUP(V386,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V386&lt;&gt;"",VLOOKUP(V386,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W386" s="3">
@@ -37193,15 +37198,15 @@
         <v>0</v>
       </c>
       <c r="Q387" s="3" t="str">
-        <f>IF(R387&lt;&gt;"",VLOOKUP(R387,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R387&lt;&gt;"",VLOOKUP(R387,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S387" s="3" t="str">
-        <f>IF(T387&lt;&gt;"",VLOOKUP(T387,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T387&lt;&gt;"",VLOOKUP(T387,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U387" s="3" t="str">
-        <f>IF(V387&lt;&gt;"",VLOOKUP(V387,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V387&lt;&gt;"",VLOOKUP(V387,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W387" s="3">
@@ -37268,15 +37273,15 @@
         <v>0</v>
       </c>
       <c r="Q388" s="3" t="str">
-        <f>IF(R388&lt;&gt;"",VLOOKUP(R388,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R388&lt;&gt;"",VLOOKUP(R388,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S388" s="3" t="str">
-        <f>IF(T388&lt;&gt;"",VLOOKUP(T388,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T388&lt;&gt;"",VLOOKUP(T388,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U388" s="3" t="str">
-        <f>IF(V388&lt;&gt;"",VLOOKUP(V388,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V388&lt;&gt;"",VLOOKUP(V388,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W388" s="3">
@@ -37343,15 +37348,15 @@
         <v>0</v>
       </c>
       <c r="Q389" s="3" t="str">
-        <f>IF(R389&lt;&gt;"",VLOOKUP(R389,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R389&lt;&gt;"",VLOOKUP(R389,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S389" s="3" t="str">
-        <f>IF(T389&lt;&gt;"",VLOOKUP(T389,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T389&lt;&gt;"",VLOOKUP(T389,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U389" s="3" t="str">
-        <f>IF(V389&lt;&gt;"",VLOOKUP(V389,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V389&lt;&gt;"",VLOOKUP(V389,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W389" s="3">
@@ -37418,15 +37423,15 @@
         <v>0</v>
       </c>
       <c r="Q390" s="3" t="str">
-        <f>IF(R390&lt;&gt;"",VLOOKUP(R390,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R390&lt;&gt;"",VLOOKUP(R390,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S390" s="3" t="str">
-        <f>IF(T390&lt;&gt;"",VLOOKUP(T390,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T390&lt;&gt;"",VLOOKUP(T390,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U390" s="3" t="str">
-        <f>IF(V390&lt;&gt;"",VLOOKUP(V390,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V390&lt;&gt;"",VLOOKUP(V390,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W390" s="3">
@@ -37493,15 +37498,15 @@
         <v>0</v>
       </c>
       <c r="Q391" s="3" t="str">
-        <f>IF(R391&lt;&gt;"",VLOOKUP(R391,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R391&lt;&gt;"",VLOOKUP(R391,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S391" s="3" t="str">
-        <f>IF(T391&lt;&gt;"",VLOOKUP(T391,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T391&lt;&gt;"",VLOOKUP(T391,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U391" s="3" t="str">
-        <f>IF(V391&lt;&gt;"",VLOOKUP(V391,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V391&lt;&gt;"",VLOOKUP(V391,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W391" s="3">
@@ -37568,15 +37573,15 @@
         <v>0</v>
       </c>
       <c r="Q392" s="3" t="str">
-        <f>IF(R392&lt;&gt;"",VLOOKUP(R392,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R392&lt;&gt;"",VLOOKUP(R392,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S392" s="3" t="str">
-        <f>IF(T392&lt;&gt;"",VLOOKUP(T392,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T392&lt;&gt;"",VLOOKUP(T392,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U392" s="3" t="str">
-        <f>IF(V392&lt;&gt;"",VLOOKUP(V392,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V392&lt;&gt;"",VLOOKUP(V392,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W392" s="3">
@@ -37643,15 +37648,15 @@
         <v>8</v>
       </c>
       <c r="Q393" s="3" t="str">
-        <f>IF(R393&lt;&gt;"",VLOOKUP(R393,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R393&lt;&gt;"",VLOOKUP(R393,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S393" s="3" t="str">
-        <f>IF(T393&lt;&gt;"",VLOOKUP(T393,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T393&lt;&gt;"",VLOOKUP(T393,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U393" s="3" t="str">
-        <f>IF(V393&lt;&gt;"",VLOOKUP(V393,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V393&lt;&gt;"",VLOOKUP(V393,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W393" s="3">
@@ -37718,15 +37723,15 @@
         <v>4</v>
       </c>
       <c r="Q394" s="3" t="str">
-        <f>IF(R394&lt;&gt;"",VLOOKUP(R394,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R394&lt;&gt;"",VLOOKUP(R394,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S394" s="3" t="str">
-        <f>IF(T394&lt;&gt;"",VLOOKUP(T394,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T394&lt;&gt;"",VLOOKUP(T394,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U394" s="3" t="str">
-        <f>IF(V394&lt;&gt;"",VLOOKUP(V394,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V394&lt;&gt;"",VLOOKUP(V394,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W394" s="3">
@@ -37793,15 +37798,15 @@
         <v>0</v>
       </c>
       <c r="Q395" s="3" t="str">
-        <f>IF(R395&lt;&gt;"",VLOOKUP(R395,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R395&lt;&gt;"",VLOOKUP(R395,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S395" s="3" t="str">
-        <f>IF(T395&lt;&gt;"",VLOOKUP(T395,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T395&lt;&gt;"",VLOOKUP(T395,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U395" s="3" t="str">
-        <f>IF(V395&lt;&gt;"",VLOOKUP(V395,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V395&lt;&gt;"",VLOOKUP(V395,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W395" s="3">
@@ -37866,19 +37871,19 @@
       <c r="P396">
         <v>0</v>
       </c>
-      <c r="Q396" s="3" t="str">
-        <f>IF(R396&lt;&gt;"",VLOOKUP(R396,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Murkmire</v>
+      <c r="Q396" s="3">
+        <f>IF(R396&lt;&gt;"",VLOOKUP(R396,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1082</v>
       </c>
       <c r="R396" s="3" t="s">
         <v>808</v>
       </c>
       <c r="S396" s="3" t="str">
-        <f>IF(T396&lt;&gt;"",VLOOKUP(T396,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T396&lt;&gt;"",VLOOKUP(T396,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U396" s="3" t="str">
-        <f>IF(V396&lt;&gt;"",VLOOKUP(V396,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V396&lt;&gt;"",VLOOKUP(V396,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W396" s="3">
@@ -37894,7 +37899,7 @@
       </c>
       <c r="Z396" s="7" t="str">
         <f t="shared" si="31"/>
-        <v>, zoneIds={Murkmire}, veteran=false</v>
+        <v>, zoneIds={1082}, veteran=false</v>
       </c>
       <c r="AA396" s="7" t="str">
         <f t="shared" si="32"/>
@@ -37945,15 +37950,15 @@
         <v>0</v>
       </c>
       <c r="Q397" s="3" t="str">
-        <f>IF(R397&lt;&gt;"",VLOOKUP(R397,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R397&lt;&gt;"",VLOOKUP(R397,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S397" s="3" t="str">
-        <f>IF(T397&lt;&gt;"",VLOOKUP(T397,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T397&lt;&gt;"",VLOOKUP(T397,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U397" s="3" t="str">
-        <f>IF(V397&lt;&gt;"",VLOOKUP(V397,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V397&lt;&gt;"",VLOOKUP(V397,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W397" s="3">
@@ -38020,15 +38025,15 @@
         <v>6</v>
       </c>
       <c r="Q398" s="3" t="str">
-        <f>IF(R398&lt;&gt;"",VLOOKUP(R398,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R398&lt;&gt;"",VLOOKUP(R398,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S398" s="3" t="str">
-        <f>IF(T398&lt;&gt;"",VLOOKUP(T398,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T398&lt;&gt;"",VLOOKUP(T398,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U398" s="3" t="str">
-        <f>IF(V398&lt;&gt;"",VLOOKUP(V398,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V398&lt;&gt;"",VLOOKUP(V398,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W398" s="3">
@@ -38094,19 +38099,19 @@
       <c r="P399">
         <v>0</v>
       </c>
-      <c r="Q399" s="3" t="str">
-        <f>IF(R399&lt;&gt;"",VLOOKUP(R399,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Eastmarch</v>
+      <c r="Q399" s="3">
+        <f>IF(R399&lt;&gt;"",VLOOKUP(R399,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>1080</v>
       </c>
       <c r="R399" s="3" t="s">
         <v>64</v>
       </c>
       <c r="S399" s="3" t="str">
-        <f>IF(T399&lt;&gt;"",VLOOKUP(T399,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T399&lt;&gt;"",VLOOKUP(T399,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U399" s="3" t="str">
-        <f>IF(V399&lt;&gt;"",VLOOKUP(V399,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V399&lt;&gt;"",VLOOKUP(V399,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W399" s="3">
@@ -38122,7 +38127,7 @@
       </c>
       <c r="Z399" s="7" t="str">
         <f t="shared" si="31"/>
-        <v>, zoneIds={Eastmarch}, veteran=false</v>
+        <v>, zoneIds={1080}, veteran=false</v>
       </c>
       <c r="AA399" s="7" t="str">
         <f t="shared" si="32"/>
@@ -38171,19 +38176,19 @@
       <c r="P400">
         <v>0</v>
       </c>
-      <c r="Q400" s="3" t="str">
-        <f>IF(R400&lt;&gt;"",VLOOKUP(R400,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v>Wrothgar</v>
+      <c r="Q400" s="3">
+        <f>IF(R400&lt;&gt;"",VLOOKUP(R400,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>677</v>
       </c>
       <c r="R400" s="3" t="s">
         <v>503</v>
       </c>
       <c r="S400" s="3" t="str">
-        <f>IF(T400&lt;&gt;"",VLOOKUP(T400,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T400&lt;&gt;"",VLOOKUP(T400,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U400" s="3" t="str">
-        <f>IF(V400&lt;&gt;"",VLOOKUP(V400,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V400&lt;&gt;"",VLOOKUP(V400,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W400" s="3">
@@ -38199,7 +38204,7 @@
       </c>
       <c r="Z400" s="7" t="str">
         <f t="shared" si="31"/>
-        <v>, zoneIds={Wrothgar}, veteran=false</v>
+        <v>, zoneIds={677}, veteran=false</v>
       </c>
       <c r="AA400" s="7" t="str">
         <f t="shared" si="32"/>
@@ -38250,15 +38255,15 @@
         <v>0</v>
       </c>
       <c r="Q401" s="3" t="str">
-        <f>IF(R401&lt;&gt;"",VLOOKUP(R401,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R401&lt;&gt;"",VLOOKUP(R401,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S401" s="3" t="str">
-        <f>IF(T401&lt;&gt;"",VLOOKUP(T401,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T401&lt;&gt;"",VLOOKUP(T401,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U401" s="3" t="str">
-        <f>IF(V401&lt;&gt;"",VLOOKUP(V401,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V401&lt;&gt;"",VLOOKUP(V401,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W401" s="3">
@@ -38325,15 +38330,15 @@
         <v>0</v>
       </c>
       <c r="Q402" s="3" t="str">
-        <f>IF(R402&lt;&gt;"",VLOOKUP(R402,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R402&lt;&gt;"",VLOOKUP(R402,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S402" s="3" t="str">
-        <f>IF(T402&lt;&gt;"",VLOOKUP(T402,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T402&lt;&gt;"",VLOOKUP(T402,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U402" s="3" t="str">
-        <f>IF(V402&lt;&gt;"",VLOOKUP(V402,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V402&lt;&gt;"",VLOOKUP(V402,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W402" s="3">
@@ -38400,15 +38405,15 @@
         <v>0</v>
       </c>
       <c r="Q403" s="3" t="str">
-        <f>IF(R403&lt;&gt;"",VLOOKUP(R403,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R403&lt;&gt;"",VLOOKUP(R403,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S403" s="3" t="str">
-        <f>IF(T403&lt;&gt;"",VLOOKUP(T403,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T403&lt;&gt;"",VLOOKUP(T403,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U403" s="3" t="str">
-        <f>IF(V403&lt;&gt;"",VLOOKUP(V403,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V403&lt;&gt;"",VLOOKUP(V403,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W403" s="3">
@@ -38475,15 +38480,15 @@
         <v>0</v>
       </c>
       <c r="Q404" s="3" t="str">
-        <f>IF(R404&lt;&gt;"",VLOOKUP(R404,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R404&lt;&gt;"",VLOOKUP(R404,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S404" s="3" t="str">
-        <f>IF(T404&lt;&gt;"",VLOOKUP(T404,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T404&lt;&gt;"",VLOOKUP(T404,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U404" s="3" t="str">
-        <f>IF(V404&lt;&gt;"",VLOOKUP(V404,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V404&lt;&gt;"",VLOOKUP(V404,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W404" s="3">
@@ -38550,15 +38555,15 @@
         <v>0</v>
       </c>
       <c r="Q405" s="3" t="str">
-        <f>IF(R405&lt;&gt;"",VLOOKUP(R405,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R405&lt;&gt;"",VLOOKUP(R405,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S405" s="3" t="str">
-        <f>IF(T405&lt;&gt;"",VLOOKUP(T405,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T405&lt;&gt;"",VLOOKUP(T405,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U405" s="3" t="str">
-        <f>IF(V405&lt;&gt;"",VLOOKUP(V405,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V405&lt;&gt;"",VLOOKUP(V405,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W405" s="3">
@@ -38625,15 +38630,15 @@
         <v>0</v>
       </c>
       <c r="Q406" s="3" t="str">
-        <f>IF(R406&lt;&gt;"",VLOOKUP(R406,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R406&lt;&gt;"",VLOOKUP(R406,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S406" s="3" t="str">
-        <f>IF(T406&lt;&gt;"",VLOOKUP(T406,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T406&lt;&gt;"",VLOOKUP(T406,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U406" s="3" t="str">
-        <f>IF(V406&lt;&gt;"",VLOOKUP(V406,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V406&lt;&gt;"",VLOOKUP(V406,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W406" s="3">
@@ -38700,15 +38705,15 @@
         <v>0</v>
       </c>
       <c r="Q407" s="3" t="str">
-        <f>IF(R407&lt;&gt;"",VLOOKUP(R407,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R407&lt;&gt;"",VLOOKUP(R407,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S407" s="3" t="str">
-        <f>IF(T407&lt;&gt;"",VLOOKUP(T407,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T407&lt;&gt;"",VLOOKUP(T407,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U407" s="3" t="str">
-        <f>IF(V407&lt;&gt;"",VLOOKUP(V407,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V407&lt;&gt;"",VLOOKUP(V407,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W407" s="3">
@@ -38778,15 +38783,15 @@
         <v>0</v>
       </c>
       <c r="Q408" s="3" t="str">
-        <f>IF(R408&lt;&gt;"",VLOOKUP(R408,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R408&lt;&gt;"",VLOOKUP(R408,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="S408" s="3" t="str">
-        <f>IF(T408&lt;&gt;"",VLOOKUP(T408,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(T408&lt;&gt;"",VLOOKUP(T408,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="U408" s="3" t="str">
-        <f>IF(V408&lt;&gt;"",VLOOKUP(V408,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(V408&lt;&gt;"",VLOOKUP(V408,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="W408" s="3">
@@ -38833,9 +38838,9 @@
       <c r="P409">
         <v>0</v>
       </c>
-      <c r="Q409" s="3" t="str">
-        <f>IF(R409&lt;&gt;"",VLOOKUP(R409,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q409" s="3">
+        <f>IF(R409&lt;&gt;"",VLOOKUP(R409,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R409" s="3" t="s">
         <v>1395</v>
@@ -38884,9 +38889,9 @@
       <c r="P410">
         <v>0</v>
       </c>
-      <c r="Q410" s="3" t="str">
-        <f>IF(R410&lt;&gt;"",VLOOKUP(R410,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q410" s="3">
+        <f>IF(R410&lt;&gt;"",VLOOKUP(R410,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R410" s="3" t="s">
         <v>1395</v>
@@ -38935,9 +38940,9 @@
       <c r="P411">
         <v>0</v>
       </c>
-      <c r="Q411" s="3" t="str">
-        <f>IF(R411&lt;&gt;"",VLOOKUP(R411,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q411" s="3">
+        <f>IF(R411&lt;&gt;"",VLOOKUP(R411,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R411" s="3" t="s">
         <v>1395</v>
@@ -38986,9 +38991,9 @@
       <c r="P412" t="s">
         <v>2552</v>
       </c>
-      <c r="Q412" s="3" t="str">
-        <f>IF(R412&lt;&gt;"",VLOOKUP(R412,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q412" s="3">
+        <f>IF(R412&lt;&gt;"",VLOOKUP(R412,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R412" s="3" t="s">
         <v>1395</v>
@@ -39037,9 +39042,9 @@
       <c r="P413" t="s">
         <v>2552</v>
       </c>
-      <c r="Q413" s="3" t="str">
-        <f>IF(R413&lt;&gt;"",VLOOKUP(R413,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q413" s="3">
+        <f>IF(R413&lt;&gt;"",VLOOKUP(R413,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R413" s="3" t="s">
         <v>1395</v>
@@ -39088,9 +39093,9 @@
       <c r="P414" t="s">
         <v>2552</v>
       </c>
-      <c r="Q414" s="3" t="str">
-        <f>IF(R414&lt;&gt;"",VLOOKUP(R414,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q414" s="3">
+        <f>IF(R414&lt;&gt;"",VLOOKUP(R414,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R414" s="3" t="s">
         <v>1395</v>
@@ -39136,9 +39141,9 @@
       <c r="L415" t="s">
         <v>105</v>
       </c>
-      <c r="Q415" s="3" t="str">
-        <f>IF(R415&lt;&gt;"",VLOOKUP(R415,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q415" s="3">
+        <f>IF(R415&lt;&gt;"",VLOOKUP(R415,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R415" s="3" t="s">
         <v>2551</v>
@@ -39184,9 +39189,9 @@
       <c r="L416" t="s">
         <v>105</v>
       </c>
-      <c r="Q416" s="3" t="str">
-        <f>IF(R416&lt;&gt;"",VLOOKUP(R416,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q416" s="3">
+        <f>IF(R416&lt;&gt;"",VLOOKUP(R416,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R416" s="3" t="s">
         <v>2551</v>
@@ -39232,9 +39237,9 @@
       <c r="L417" t="s">
         <v>105</v>
       </c>
-      <c r="Q417" s="3" t="str">
-        <f>IF(R417&lt;&gt;"",VLOOKUP(R417,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q417" s="3">
+        <f>IF(R417&lt;&gt;"",VLOOKUP(R417,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R417" s="3" t="s">
         <v>2551</v>
@@ -39280,9 +39285,9 @@
       <c r="L418" t="s">
         <v>105</v>
       </c>
-      <c r="Q418" s="3" t="str">
-        <f>IF(R418&lt;&gt;"",VLOOKUP(R418,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q418" s="3">
+        <f>IF(R418&lt;&gt;"",VLOOKUP(R418,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R418" s="3" t="s">
         <v>2551</v>
@@ -39328,9 +39333,9 @@
       <c r="L419" t="s">
         <v>105</v>
       </c>
-      <c r="Q419" s="3" t="str">
-        <f>IF(R419&lt;&gt;"",VLOOKUP(R419,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q419" s="3">
+        <f>IF(R419&lt;&gt;"",VLOOKUP(R419,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R419" s="3" t="s">
         <v>2551</v>
@@ -39376,9 +39381,9 @@
       <c r="L420" t="s">
         <v>105</v>
       </c>
-      <c r="Q420" s="3" t="str">
-        <f>IF(R420&lt;&gt;"",VLOOKUP(R420,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q420" s="3">
+        <f>IF(R420&lt;&gt;"",VLOOKUP(R420,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R420" s="3" t="s">
         <v>2551</v>
@@ -39424,9 +39429,9 @@
       <c r="L421" t="s">
         <v>105</v>
       </c>
-      <c r="Q421" s="3" t="str">
-        <f>IF(R421&lt;&gt;"",VLOOKUP(R421,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q421" s="3">
+        <f>IF(R421&lt;&gt;"",VLOOKUP(R421,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R421" s="3" t="s">
         <v>2551</v>
@@ -39472,9 +39477,9 @@
       <c r="L422" t="s">
         <v>105</v>
       </c>
-      <c r="Q422" s="3" t="str">
-        <f>IF(R422&lt;&gt;"",VLOOKUP(R422,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
-        <v/>
+      <c r="Q422" s="3">
+        <f>IF(R422&lt;&gt;"",VLOOKUP(R422,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v>0</v>
       </c>
       <c r="R422" s="3" t="s">
         <v>2551</v>
@@ -39509,7 +39514,7 @@
     </row>
     <row r="423" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q423" s="3" t="str">
-        <f>IF(R423&lt;&gt;"",VLOOKUP(R423,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R423&lt;&gt;"",VLOOKUP(R423,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y423" s="7" t="str">
@@ -39535,7 +39540,7 @@
     </row>
     <row r="424" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q424" s="3" t="str">
-        <f>IF(R424&lt;&gt;"",VLOOKUP(R424,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R424&lt;&gt;"",VLOOKUP(R424,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y424" s="7" t="str">
@@ -39561,7 +39566,7 @@
     </row>
     <row r="425" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q425" s="3" t="str">
-        <f>IF(R425&lt;&gt;"",VLOOKUP(R425,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R425&lt;&gt;"",VLOOKUP(R425,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y425" s="7" t="str">
@@ -39587,7 +39592,7 @@
     </row>
     <row r="426" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q426" s="3" t="str">
-        <f>IF(R426&lt;&gt;"",VLOOKUP(R426,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R426&lt;&gt;"",VLOOKUP(R426,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y426" s="7" t="str">
@@ -39613,7 +39618,7 @@
     </row>
     <row r="427" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q427" s="3" t="str">
-        <f>IF(R427&lt;&gt;"",VLOOKUP(R427,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R427&lt;&gt;"",VLOOKUP(R427,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y427" s="7" t="str">
@@ -39639,7 +39644,7 @@
     </row>
     <row r="428" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q428" s="3" t="str">
-        <f>IF(R428&lt;&gt;"",VLOOKUP(R428,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R428&lt;&gt;"",VLOOKUP(R428,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y428" s="7" t="str">
@@ -39665,7 +39670,7 @@
     </row>
     <row r="429" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q429" s="3" t="str">
-        <f>IF(R429&lt;&gt;"",VLOOKUP(R429,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R429&lt;&gt;"",VLOOKUP(R429,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y429" s="7" t="str">
@@ -39691,7 +39696,7 @@
     </row>
     <row r="430" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q430" s="3" t="str">
-        <f>IF(R430&lt;&gt;"",VLOOKUP(R430,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R430&lt;&gt;"",VLOOKUP(R430,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y430" s="7" t="str">
@@ -39717,7 +39722,7 @@
     </row>
     <row r="431" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q431" s="3" t="str">
-        <f>IF(R431&lt;&gt;"",VLOOKUP(R431,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R431&lt;&gt;"",VLOOKUP(R431,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y431" s="7" t="str">
@@ -39743,7 +39748,7 @@
     </row>
     <row r="432" spans="3:29" x14ac:dyDescent="0.25">
       <c r="Q432" s="3" t="str">
-        <f>IF(R432&lt;&gt;"",VLOOKUP(R432,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R432&lt;&gt;"",VLOOKUP(R432,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y432" s="7" t="str">
@@ -39769,7 +39774,7 @@
     </row>
     <row r="433" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q433" s="3" t="str">
-        <f>IF(R433&lt;&gt;"",VLOOKUP(R433,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R433&lt;&gt;"",VLOOKUP(R433,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y433" s="7" t="str">
@@ -39795,7 +39800,7 @@
     </row>
     <row r="434" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q434" s="3" t="str">
-        <f>IF(R434&lt;&gt;"",VLOOKUP(R434,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R434&lt;&gt;"",VLOOKUP(R434,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y434" s="7" t="str">
@@ -39821,7 +39826,7 @@
     </row>
     <row r="435" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q435" s="3" t="str">
-        <f>IF(R435&lt;&gt;"",VLOOKUP(R435,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R435&lt;&gt;"",VLOOKUP(R435,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y435" s="7" t="str">
@@ -39847,7 +39852,7 @@
     </row>
     <row r="436" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q436" s="3" t="str">
-        <f>IF(R436&lt;&gt;"",VLOOKUP(R436,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R436&lt;&gt;"",VLOOKUP(R436,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y436" s="7" t="str">
@@ -39873,7 +39878,7 @@
     </row>
     <row r="437" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q437" s="3" t="str">
-        <f>IF(R437&lt;&gt;"",VLOOKUP(R437,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R437&lt;&gt;"",VLOOKUP(R437,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y437" s="7" t="str">
@@ -39899,7 +39904,7 @@
     </row>
     <row r="438" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q438" s="3" t="str">
-        <f>IF(R438&lt;&gt;"",VLOOKUP(R438,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R438&lt;&gt;"",VLOOKUP(R438,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y438" s="7" t="str">
@@ -39925,7 +39930,7 @@
     </row>
     <row r="439" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q439" s="3" t="str">
-        <f>IF(R439&lt;&gt;"",VLOOKUP(R439,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R439&lt;&gt;"",VLOOKUP(R439,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y439" s="7" t="str">
@@ -39951,7 +39956,7 @@
     </row>
     <row r="440" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q440" s="3" t="str">
-        <f>IF(R440&lt;&gt;"",VLOOKUP(R440,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R440&lt;&gt;"",VLOOKUP(R440,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y440" s="7" t="str">
@@ -39977,7 +39982,7 @@
     </row>
     <row r="441" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q441" s="3" t="str">
-        <f>IF(R441&lt;&gt;"",VLOOKUP(R441,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R441&lt;&gt;"",VLOOKUP(R441,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y441" s="7" t="str">
@@ -40003,7 +40008,7 @@
     </row>
     <row r="442" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q442" s="3" t="str">
-        <f>IF(R442&lt;&gt;"",VLOOKUP(R442,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R442&lt;&gt;"",VLOOKUP(R442,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y442" s="7" t="str">
@@ -40029,7 +40034,7 @@
     </row>
     <row r="443" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q443" s="3" t="str">
-        <f>IF(R443&lt;&gt;"",VLOOKUP(R443,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R443&lt;&gt;"",VLOOKUP(R443,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y443" s="7" t="str">
@@ -40055,7 +40060,7 @@
     </row>
     <row r="444" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q444" s="3" t="str">
-        <f>IF(R444&lt;&gt;"",VLOOKUP(R444,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R444&lt;&gt;"",VLOOKUP(R444,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y444" s="7" t="str">
@@ -40081,7 +40086,7 @@
     </row>
     <row r="445" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q445" s="3" t="str">
-        <f>IF(R445&lt;&gt;"",VLOOKUP(R445,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R445&lt;&gt;"",VLOOKUP(R445,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y445" s="7" t="str">
@@ -40107,7 +40112,7 @@
     </row>
     <row r="446" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q446" s="3" t="str">
-        <f>IF(R446&lt;&gt;"",VLOOKUP(R446,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R446&lt;&gt;"",VLOOKUP(R446,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y446" s="7" t="str">
@@ -40133,7 +40138,7 @@
     </row>
     <row r="447" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q447" s="3" t="str">
-        <f>IF(R447&lt;&gt;"",VLOOKUP(R447,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R447&lt;&gt;"",VLOOKUP(R447,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y447" s="7" t="str">
@@ -40159,7 +40164,7 @@
     </row>
     <row r="448" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q448" s="3" t="str">
-        <f>IF(R448&lt;&gt;"",VLOOKUP(R448,'ESO zone constants'!$E$3:$J$1002,5,FALSE),"")</f>
+        <f>IF(R448&lt;&gt;"",VLOOKUP(R448,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
         <v/>
       </c>
       <c r="Y448" s="7" t="str">
@@ -40183,7 +40188,11 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="449" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q449" s="3" t="str">
+        <f>IF(R449&lt;&gt;"",VLOOKUP(R449,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y449" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -40205,7 +40214,11 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="450" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q450" s="3" t="str">
+        <f>IF(R450&lt;&gt;"",VLOOKUP(R450,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y450" s="7" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -40223,7 +40236,11 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="451" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q451" s="3" t="str">
+        <f>IF(R451&lt;&gt;"",VLOOKUP(R451,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y451" s="7" t="str">
         <f t="shared" ref="Y451:Y486" si="35">IF(A451&lt;&gt;"",CONCATENATE("[",A451,"] = {wayshrines={")&amp;IF(M451&lt;&gt;"",CONCATENATE(M451,","),"")&amp;IF(N451&lt;&gt;"",CONCATENATE(N451,","),"")&amp;IF(O451&lt;&gt;"",CONCATENATE(O451,","),"")&amp;CONCATENATE("}")&amp;IF(VALUE(P451)&gt;0,CONCATENATE(", traitsNeeded=",P451),"")&amp;CONCATENATE(", dlcId=",W451,),"")</f>
         <v/>
@@ -40241,7 +40258,11 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="452" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q452" s="3" t="str">
+        <f>IF(R452&lt;&gt;"",VLOOKUP(R452,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y452" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40259,7 +40280,11 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="453" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q453" s="3" t="str">
+        <f>IF(R453&lt;&gt;"",VLOOKUP(R453,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y453" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40277,7 +40302,11 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="454" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q454" s="3" t="str">
+        <f>IF(R454&lt;&gt;"",VLOOKUP(R454,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y454" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40295,7 +40324,11 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="455" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q455" s="3" t="str">
+        <f>IF(R455&lt;&gt;"",VLOOKUP(R455,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y455" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40313,7 +40346,11 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="456" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q456" s="3" t="str">
+        <f>IF(R456&lt;&gt;"",VLOOKUP(R456,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y456" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40331,7 +40368,11 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="457" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q457" s="3" t="str">
+        <f>IF(R457&lt;&gt;"",VLOOKUP(R457,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y457" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40349,7 +40390,11 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="458" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q458" s="3" t="str">
+        <f>IF(R458&lt;&gt;"",VLOOKUP(R458,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y458" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40367,7 +40412,11 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="459" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q459" s="3" t="str">
+        <f>IF(R459&lt;&gt;"",VLOOKUP(R459,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y459" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40385,7 +40434,11 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="460" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q460" s="3" t="str">
+        <f>IF(R460&lt;&gt;"",VLOOKUP(R460,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y460" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40403,7 +40456,11 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="461" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q461" s="3" t="str">
+        <f>IF(R461&lt;&gt;"",VLOOKUP(R461,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y461" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40421,7 +40478,11 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="462" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q462" s="3" t="str">
+        <f>IF(R462&lt;&gt;"",VLOOKUP(R462,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y462" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40439,7 +40500,11 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="463" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q463" s="3" t="str">
+        <f>IF(R463&lt;&gt;"",VLOOKUP(R463,'ESO zone constants'!$E$3:$J$1002,6,FALSE),"")</f>
+        <v/>
+      </c>
       <c r="Y463" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
@@ -40457,7 +40522,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="464" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Y464" s="7" t="str">
         <f t="shared" si="35"/>
         <v/>
